--- a/data/DiscoverAarhus.xlsx
+++ b/data/DiscoverAarhus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisebrixpilegaardhansen/Desktop/CultDat/DiscoverAarhus/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rikkeuldbaek/Library/Mobile Documents/com~apple~CloudDocs/Cognitive Science/6th_semester/spatial_analytics/DiscoverAarhus/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AAC524-2C60-6C4D-BB13-5532AB485C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819183B2-4BF1-2B43-AFA8-E67D2A122D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="1600" windowWidth="23120" windowHeight="14340" xr2:uid="{5C004500-1A4C-4740-8589-9D39A3377470}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="179">
   <si>
     <t>name</t>
   </si>
@@ -75,15 +75,6 @@
     <t>indoor_outdoor</t>
   </si>
   <si>
-    <t>in_out_all</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>ARoS</t>
   </si>
   <si>
@@ -93,12 +84,6 @@
     <t>Show all</t>
   </si>
   <si>
-    <t>type_all</t>
-  </si>
-  <si>
-    <t>group_all</t>
-  </si>
-  <si>
     <t>Both children and adults</t>
   </si>
   <si>
@@ -595,6 +580,21 @@
   </si>
   <si>
     <t>geometry</t>
+  </si>
+  <si>
+    <t>all_type</t>
+  </si>
+  <si>
+    <t>all_group</t>
+  </si>
+  <si>
+    <t>all_in_out</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -976,8 +976,8 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1005,51 +1005,51 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1" t="s">
         <v>178</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J2" t="str" cm="1">
         <f t="array" ref="J2:K2">_xlfn.TEXTSPLIT(I2,",")</f>
@@ -1061,31 +1061,31 @@
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="J3" t="str" cm="1">
         <f t="array" ref="J3:K3">_xlfn.TEXTSPLIT(I3,",")</f>
@@ -1097,22 +1097,25 @@
     </row>
     <row r="4" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J4" t="str" cm="1">
         <f t="array" ref="J4:K4">_xlfn.TEXTSPLIT(I4,",")</f>
@@ -1124,31 +1127,31 @@
     </row>
     <row r="5" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J5" t="str" cm="1">
         <f t="array" ref="J5:K5">_xlfn.TEXTSPLIT(I5,",")</f>
@@ -1160,31 +1163,31 @@
     </row>
     <row r="6" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J6" t="str" cm="1">
         <f t="array" ref="J6:K6">_xlfn.TEXTSPLIT(I6,",")</f>
@@ -1196,31 +1199,31 @@
     </row>
     <row r="7" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J7" t="str" cm="1">
         <f t="array" ref="J7:K7">_xlfn.TEXTSPLIT(I7,",")</f>
@@ -1232,31 +1235,31 @@
     </row>
     <row r="8" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J8" t="str" cm="1">
         <f t="array" ref="J8:K8">_xlfn.TEXTSPLIT(I8,",")</f>
@@ -1268,28 +1271,28 @@
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J9" t="str" cm="1">
         <f t="array" ref="J9:K9">_xlfn.TEXTSPLIT(I9,",")</f>
@@ -1301,28 +1304,28 @@
     </row>
     <row r="10" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J10" t="str" cm="1">
         <f t="array" ref="J10:K10">_xlfn.TEXTSPLIT(I10,",")</f>
@@ -1334,31 +1337,31 @@
     </row>
     <row r="11" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J11" t="str" cm="1">
         <f t="array" ref="J11:K11">_xlfn.TEXTSPLIT(I11,",")</f>
@@ -1370,31 +1373,31 @@
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J12" t="str" cm="1">
         <f t="array" ref="J12:K12">_xlfn.TEXTSPLIT(I12,",")</f>
@@ -1406,31 +1409,31 @@
     </row>
     <row r="13" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J13" t="str" cm="1">
         <f t="array" ref="J13:K13">_xlfn.TEXTSPLIT(I13,",")</f>
@@ -1442,31 +1445,31 @@
     </row>
     <row r="14" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J14" t="str" cm="1">
         <f t="array" ref="J14:K14">_xlfn.TEXTSPLIT(I14,",")</f>
@@ -1478,25 +1481,25 @@
     </row>
     <row r="15" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J15" t="str" cm="1">
         <f t="array" ref="J15:K15">_xlfn.TEXTSPLIT(I15,",")</f>
@@ -1508,31 +1511,31 @@
     </row>
     <row r="16" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J16" t="str" cm="1">
         <f t="array" ref="J16:K16">_xlfn.TEXTSPLIT(I16,",")</f>
@@ -1544,31 +1547,31 @@
     </row>
     <row r="17" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J17" t="str" cm="1">
         <f t="array" ref="J17:K17">_xlfn.TEXTSPLIT(I17,",")</f>
@@ -1580,31 +1583,31 @@
     </row>
     <row r="18" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J18" t="str" cm="1">
         <f t="array" ref="J18:K18">_xlfn.TEXTSPLIT(I18,",")</f>
@@ -1616,31 +1619,31 @@
     </row>
     <row r="19" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J19" t="str" cm="1">
         <f t="array" ref="J19:K19">_xlfn.TEXTSPLIT(I19,",")</f>
@@ -1652,31 +1655,31 @@
     </row>
     <row r="20" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J20" t="str" cm="1">
         <f t="array" ref="J20:K20">_xlfn.TEXTSPLIT(I20,",")</f>
@@ -1688,31 +1691,31 @@
     </row>
     <row r="21" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J21" t="str" cm="1">
         <f t="array" ref="J21:K21">_xlfn.TEXTSPLIT(I21,",")</f>
@@ -1724,31 +1727,31 @@
     </row>
     <row r="22" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J22" t="str" cm="1">
         <f t="array" ref="J22:K22">_xlfn.TEXTSPLIT(I22,",")</f>
@@ -1760,31 +1763,31 @@
     </row>
     <row r="23" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J23" t="str" cm="1">
         <f t="array" ref="J23:K23">_xlfn.TEXTSPLIT(I23,",")</f>
@@ -1796,31 +1799,31 @@
     </row>
     <row r="24" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J24" t="str" cm="1">
         <f t="array" ref="J24:K24">_xlfn.TEXTSPLIT(I24,",")</f>
@@ -1832,31 +1835,31 @@
     </row>
     <row r="25" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J25" t="str" cm="1">
         <f t="array" ref="J25:K25">_xlfn.TEXTSPLIT(I25,",")</f>
@@ -1868,31 +1871,31 @@
     </row>
     <row r="26" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J26" t="str" cm="1">
         <f t="array" ref="J26:K26">_xlfn.TEXTSPLIT(I26,",")</f>
@@ -1904,31 +1907,31 @@
     </row>
     <row r="27" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J27" t="str" cm="1">
         <f t="array" ref="J27:K27">_xlfn.TEXTSPLIT(I27,",")</f>
@@ -1940,31 +1943,31 @@
     </row>
     <row r="28" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J28" t="str" cm="1">
         <f t="array" ref="J28:K28">_xlfn.TEXTSPLIT(I28,",")</f>
@@ -1976,31 +1979,31 @@
     </row>
     <row r="29" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J29" t="str" cm="1">
         <f t="array" ref="J29:K29">_xlfn.TEXTSPLIT(I29,",")</f>
@@ -2012,31 +2015,31 @@
     </row>
     <row r="30" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J30" t="str" cm="1">
         <f t="array" ref="J30:K30">_xlfn.TEXTSPLIT(I30,",")</f>
@@ -2048,31 +2051,31 @@
     </row>
     <row r="31" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J31" t="str" cm="1">
         <f t="array" ref="J31:K31">_xlfn.TEXTSPLIT(I31,",")</f>
@@ -2084,31 +2087,31 @@
     </row>
     <row r="32" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J32" t="str" cm="1">
         <f t="array" ref="J32:K32">_xlfn.TEXTSPLIT(I32,",")</f>
@@ -2120,31 +2123,31 @@
     </row>
     <row r="33" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H33" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J33" t="str" cm="1">
         <f t="array" ref="J33:K33">_xlfn.TEXTSPLIT(I33,",")</f>
@@ -2156,31 +2159,31 @@
     </row>
     <row r="34" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
         <v>9</v>
       </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" t="s">
-        <v>14</v>
-      </c>
       <c r="H34" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J34" t="str" cm="1">
         <f t="array" ref="J34:K34">_xlfn.TEXTSPLIT(I34,",")</f>
@@ -2192,31 +2195,31 @@
     </row>
     <row r="35" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J35" t="str" cm="1">
         <f t="array" ref="J35:K35">_xlfn.TEXTSPLIT(I35,",")</f>
@@ -2228,31 +2231,31 @@
     </row>
     <row r="36" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H36" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J36" t="str" cm="1">
         <f t="array" ref="J36:K36">_xlfn.TEXTSPLIT(I36,",")</f>
@@ -2264,31 +2267,31 @@
     </row>
     <row r="37" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J37" t="str" cm="1">
         <f t="array" ref="J37:K37">_xlfn.TEXTSPLIT(I37,",")</f>
@@ -2300,31 +2303,31 @@
     </row>
     <row r="38" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J38" t="str" cm="1">
         <f t="array" ref="J38:K38">_xlfn.TEXTSPLIT(I38,",")</f>
@@ -2336,31 +2339,31 @@
     </row>
     <row r="39" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J39" t="str" cm="1">
         <f t="array" ref="J39:K39">_xlfn.TEXTSPLIT(I39,",")</f>
@@ -2372,31 +2375,31 @@
     </row>
     <row r="40" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H40" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J40" t="str" cm="1">
         <f t="array" ref="J40:K40">_xlfn.TEXTSPLIT(I40,",")</f>
@@ -2408,31 +2411,31 @@
     </row>
     <row r="41" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H41" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J41" t="str" cm="1">
         <f t="array" ref="J41:K41">_xlfn.TEXTSPLIT(I41,",")</f>
@@ -2444,31 +2447,31 @@
     </row>
     <row r="42" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J42" t="str" cm="1">
         <f t="array" ref="J42:K42">_xlfn.TEXTSPLIT(I42,",")</f>
@@ -2480,31 +2483,31 @@
     </row>
     <row r="43" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H43" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J43" t="str" cm="1">
         <f t="array" ref="J43:K43">_xlfn.TEXTSPLIT(I43,",")</f>
@@ -2516,31 +2519,31 @@
     </row>
     <row r="44" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B44" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H44" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="J44" t="str" cm="1">
         <f t="array" ref="J44:K44">_xlfn.TEXTSPLIT(I44,",")</f>
@@ -2552,31 +2555,31 @@
     </row>
     <row r="45" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="C45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="J45" t="str" cm="1">
         <f t="array" ref="J45:K45">_xlfn.TEXTSPLIT(I45,",")</f>
@@ -2588,31 +2591,31 @@
     </row>
     <row r="46" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H46" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J46" t="str" cm="1">
         <f t="array" ref="J46:K46">_xlfn.TEXTSPLIT(I46,",")</f>
@@ -2624,31 +2627,31 @@
     </row>
     <row r="47" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H47" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J47" t="str" cm="1">
         <f t="array" ref="J47:K47">_xlfn.TEXTSPLIT(I47,",")</f>
@@ -2660,31 +2663,31 @@
     </row>
     <row r="48" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H48" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J48" t="str" cm="1">
         <f t="array" ref="J48:K48">_xlfn.TEXTSPLIT(I48,",")</f>
@@ -2696,31 +2699,31 @@
     </row>
     <row r="49" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H49" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J49" t="str" cm="1">
         <f t="array" ref="J49:K49">_xlfn.TEXTSPLIT(I49,",")</f>
@@ -2732,31 +2735,31 @@
     </row>
     <row r="50" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H50" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J50" t="str" cm="1">
         <f t="array" ref="J50:K50">_xlfn.TEXTSPLIT(I50,",")</f>
@@ -2768,31 +2771,31 @@
     </row>
     <row r="51" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H51" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J51" t="str" cm="1">
         <f t="array" ref="J51:K51">_xlfn.TEXTSPLIT(I51,",")</f>
@@ -2804,31 +2807,31 @@
     </row>
     <row r="52" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G52" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J52" t="str" cm="1">
         <f t="array" ref="J52:K52">_xlfn.TEXTSPLIT(I52,",")</f>

--- a/data/DiscoverAarhus.xlsx
+++ b/data/DiscoverAarhus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rikkeuldbaek/Library/Mobile Documents/com~apple~CloudDocs/Cognitive Science/6th_semester/spatial_analytics/DiscoverAarhus/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819183B2-4BF1-2B43-AFA8-E67D2A122D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E767FC3F-1739-1A48-B1C6-0DDD6631F321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="1600" windowWidth="23120" windowHeight="14340" xr2:uid="{5C004500-1A4C-4740-8589-9D39A3377470}"/>
   </bookViews>

--- a/data/DiscoverAarhus.xlsx
+++ b/data/DiscoverAarhus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rikkeuldbaek/Library/Mobile Documents/com~apple~CloudDocs/Cognitive Science/6th_semester/spatial_analytics/DiscoverAarhus/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E767FC3F-1739-1A48-B1C6-0DDD6631F321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8385334F-9916-5948-A73E-E2DE7963E23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="1600" windowWidth="23120" windowHeight="14340" xr2:uid="{5C004500-1A4C-4740-8589-9D39A3377470}"/>
+    <workbookView xWindow="3100" yWindow="860" windowWidth="24000" windowHeight="15080" xr2:uid="{5C004500-1A4C-4740-8589-9D39A3377470}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -219,9 +219,6 @@
     <t>Greenhouses in the Botanical Garden</t>
   </si>
   <si>
-    <t>Park/Garden</t>
-  </si>
-  <si>
     <t>56.160214447700014, 10.194194037496759</t>
   </si>
   <si>
@@ -441,9 +438,6 @@
     <t>56.1669844259452, 10.222377134951683</t>
   </si>
   <si>
-    <t>Beach/Swimming</t>
-  </si>
-  <si>
     <t>Public outdoor swimming pool</t>
   </si>
   <si>
@@ -595,6 +589,12 @@
   </si>
   <si>
     <t>longitude</t>
+  </si>
+  <si>
+    <t>Beach</t>
+  </si>
+  <si>
+    <t>Park</t>
   </si>
 </sst>
 </file>
@@ -976,8 +976,8 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1005,22 +1005,22 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" t="s">
         <v>176</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1202,7 +1202,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1448,7 +1448,7 @@
         <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1484,22 +1484,22 @@
         <v>52</v>
       </c>
       <c r="B15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="J15" t="str" cm="1">
         <f t="array" ref="J15:K15">_xlfn.TEXTSPLIT(I15,",")</f>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="16" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -1520,7 +1520,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>8</v>
@@ -1535,7 +1535,7 @@
         <v>7</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J16" t="str" cm="1">
         <f t="array" ref="J16:K16">_xlfn.TEXTSPLIT(I16,",")</f>
@@ -1547,16 +1547,16 @@
     </row>
     <row r="17" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>8</v>
@@ -1571,7 +1571,7 @@
         <v>7</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J17" t="str" cm="1">
         <f t="array" ref="J17:K17">_xlfn.TEXTSPLIT(I17,",")</f>
@@ -1583,16 +1583,16 @@
     </row>
     <row r="18" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J18" t="str" cm="1">
         <f t="array" ref="J18:K18">_xlfn.TEXTSPLIT(I18,",")</f>
@@ -1619,16 +1619,16 @@
     </row>
     <row r="19" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
         <v>65</v>
       </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>13</v>
@@ -1643,7 +1643,7 @@
         <v>7</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J19" t="str" cm="1">
         <f t="array" ref="J19:K19">_xlfn.TEXTSPLIT(I19,",")</f>
@@ -1655,16 +1655,16 @@
     </row>
     <row r="20" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
         <v>69</v>
       </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>8</v>
@@ -1679,7 +1679,7 @@
         <v>7</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J20" t="str" cm="1">
         <f t="array" ref="J20:K20">_xlfn.TEXTSPLIT(I20,",")</f>
@@ -1691,16 +1691,16 @@
     </row>
     <row r="21" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
         <v>73</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -1715,7 +1715,7 @@
         <v>7</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J21" t="str" cm="1">
         <f t="array" ref="J21:K21">_xlfn.TEXTSPLIT(I21,",")</f>
@@ -1727,16 +1727,16 @@
     </row>
     <row r="22" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
@@ -1751,7 +1751,7 @@
         <v>7</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J22" t="str" cm="1">
         <f t="array" ref="J22:K22">_xlfn.TEXTSPLIT(I22,",")</f>
@@ -1763,16 +1763,16 @@
     </row>
     <row r="23" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>8</v>
@@ -1787,7 +1787,7 @@
         <v>7</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J23" t="str" cm="1">
         <f t="array" ref="J23:K23">_xlfn.TEXTSPLIT(I23,",")</f>
@@ -1799,16 +1799,16 @@
     </row>
     <row r="24" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="B24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>8</v>
@@ -1823,7 +1823,7 @@
         <v>7</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J24" t="str" cm="1">
         <f t="array" ref="J24:K24">_xlfn.TEXTSPLIT(I24,",")</f>
@@ -1835,16 +1835,16 @@
     </row>
     <row r="25" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>8</v>
@@ -1859,7 +1859,7 @@
         <v>7</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J25" t="str" cm="1">
         <f t="array" ref="J25:K25">_xlfn.TEXTSPLIT(I25,",")</f>
@@ -1871,16 +1871,16 @@
     </row>
     <row r="26" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
         <v>89</v>
       </c>
-      <c r="B26" t="s">
-        <v>90</v>
-      </c>
       <c r="C26" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>8</v>
@@ -1895,7 +1895,7 @@
         <v>7</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J26" t="str" cm="1">
         <f t="array" ref="J26:K26">_xlfn.TEXTSPLIT(I26,",")</f>
@@ -1907,16 +1907,16 @@
     </row>
     <row r="27" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>8</v>
@@ -1931,7 +1931,7 @@
         <v>7</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J27" t="str" cm="1">
         <f t="array" ref="J27:K27">_xlfn.TEXTSPLIT(I27,",")</f>
@@ -1943,16 +1943,16 @@
     </row>
     <row r="28" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="B28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>8</v>
@@ -1967,7 +1967,7 @@
         <v>7</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J28" t="str" cm="1">
         <f t="array" ref="J28:K28">_xlfn.TEXTSPLIT(I28,",")</f>
@@ -1979,16 +1979,16 @@
     </row>
     <row r="29" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
         <v>98</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -2003,7 +2003,7 @@
         <v>7</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J29" t="str" cm="1">
         <f t="array" ref="J29:K29">_xlfn.TEXTSPLIT(I29,",")</f>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="30" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -2024,7 +2024,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>8</v>
@@ -2039,7 +2039,7 @@
         <v>7</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J30" t="str" cm="1">
         <f t="array" ref="J30:K30">_xlfn.TEXTSPLIT(I30,",")</f>
@@ -2051,16 +2051,16 @@
     </row>
     <row r="31" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>8</v>
@@ -2075,7 +2075,7 @@
         <v>7</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J31" t="str" cm="1">
         <f t="array" ref="J31:K31">_xlfn.TEXTSPLIT(I31,",")</f>
@@ -2087,16 +2087,16 @@
     </row>
     <row r="32" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>8</v>
@@ -2111,7 +2111,7 @@
         <v>7</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J32" t="str" cm="1">
         <f t="array" ref="J32:K32">_xlfn.TEXTSPLIT(I32,",")</f>
@@ -2123,16 +2123,16 @@
     </row>
     <row r="33" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>8</v>
@@ -2147,7 +2147,7 @@
         <v>7</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J33" t="str" cm="1">
         <f t="array" ref="J33:K33">_xlfn.TEXTSPLIT(I33,",")</f>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="34" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -2168,7 +2168,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>13</v>
@@ -2183,7 +2183,7 @@
         <v>7</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J34" t="str" cm="1">
         <f t="array" ref="J34:K34">_xlfn.TEXTSPLIT(I34,",")</f>
@@ -2195,16 +2195,16 @@
     </row>
     <row r="35" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>8</v>
@@ -2219,7 +2219,7 @@
         <v>7</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J35" t="str" cm="1">
         <f t="array" ref="J35:K35">_xlfn.TEXTSPLIT(I35,",")</f>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="36" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -2240,7 +2240,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>13</v>
@@ -2255,7 +2255,7 @@
         <v>7</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J36" t="str" cm="1">
         <f t="array" ref="J36:K36">_xlfn.TEXTSPLIT(I36,",")</f>
@@ -2267,16 +2267,16 @@
     </row>
     <row r="37" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="B37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>8</v>
@@ -2291,7 +2291,7 @@
         <v>7</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J37" t="str" cm="1">
         <f t="array" ref="J37:K37">_xlfn.TEXTSPLIT(I37,",")</f>
@@ -2303,16 +2303,16 @@
     </row>
     <row r="38" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         <v>7</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J38" t="str" cm="1">
         <f t="array" ref="J38:K38">_xlfn.TEXTSPLIT(I38,",")</f>
@@ -2339,16 +2339,16 @@
     </row>
     <row r="39" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>8</v>
@@ -2363,7 +2363,7 @@
         <v>7</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J39" t="str" cm="1">
         <f t="array" ref="J39:K39">_xlfn.TEXTSPLIT(I39,",")</f>
@@ -2375,16 +2375,16 @@
     </row>
     <row r="40" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>8</v>
@@ -2399,7 +2399,7 @@
         <v>7</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J40" t="str" cm="1">
         <f t="array" ref="J40:K40">_xlfn.TEXTSPLIT(I40,",")</f>
@@ -2411,16 +2411,16 @@
     </row>
     <row r="41" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>8</v>
@@ -2435,7 +2435,7 @@
         <v>7</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J41" t="str" cm="1">
         <f t="array" ref="J41:K41">_xlfn.TEXTSPLIT(I41,",")</f>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="42" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
@@ -2456,7 +2456,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
@@ -2471,7 +2471,7 @@
         <v>7</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J42" t="str" cm="1">
         <f t="array" ref="J42:K42">_xlfn.TEXTSPLIT(I42,",")</f>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="43" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -2492,7 +2492,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>13</v>
@@ -2507,7 +2507,7 @@
         <v>7</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J43" t="str" cm="1">
         <f t="array" ref="J43:K43">_xlfn.TEXTSPLIT(I43,",")</f>
@@ -2519,16 +2519,16 @@
     </row>
     <row r="44" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>13</v>
@@ -2543,7 +2543,7 @@
         <v>7</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J44" t="str" cm="1">
         <f t="array" ref="J44:K44">_xlfn.TEXTSPLIT(I44,",")</f>
@@ -2555,16 +2555,16 @@
     </row>
     <row r="45" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>13</v>
@@ -2579,7 +2579,7 @@
         <v>7</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J45" t="str" cm="1">
         <f t="array" ref="J45:K45">_xlfn.TEXTSPLIT(I45,",")</f>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="46" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -2600,7 +2600,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>13</v>
@@ -2615,7 +2615,7 @@
         <v>7</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J46" t="str" cm="1">
         <f t="array" ref="J46:K46">_xlfn.TEXTSPLIT(I46,",")</f>
@@ -2627,16 +2627,16 @@
     </row>
     <row r="47" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
@@ -2651,7 +2651,7 @@
         <v>7</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J47" t="str" cm="1">
         <f t="array" ref="J47:K47">_xlfn.TEXTSPLIT(I47,",")</f>
@@ -2663,16 +2663,16 @@
     </row>
     <row r="48" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>8</v>
@@ -2687,7 +2687,7 @@
         <v>7</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J48" t="str" cm="1">
         <f t="array" ref="J48:K48">_xlfn.TEXTSPLIT(I48,",")</f>
@@ -2699,16 +2699,16 @@
     </row>
     <row r="49" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>13</v>
@@ -2723,7 +2723,7 @@
         <v>7</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J49" t="str" cm="1">
         <f t="array" ref="J49:K49">_xlfn.TEXTSPLIT(I49,",")</f>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="50" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -2744,7 +2744,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>13</v>
@@ -2759,7 +2759,7 @@
         <v>7</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J50" t="str" cm="1">
         <f t="array" ref="J50:K50">_xlfn.TEXTSPLIT(I50,",")</f>
@@ -2771,16 +2771,16 @@
     </row>
     <row r="51" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>13</v>
@@ -2795,7 +2795,7 @@
         <v>7</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J51" t="str" cm="1">
         <f t="array" ref="J51:K51">_xlfn.TEXTSPLIT(I51,",")</f>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="52" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
@@ -2816,7 +2816,7 @@
         <v>7</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>8</v>
@@ -2831,7 +2831,7 @@
         <v>7</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J52" t="str" cm="1">
         <f t="array" ref="J52:K52">_xlfn.TEXTSPLIT(I52,",")</f>

--- a/data/DiscoverAarhus.xlsx
+++ b/data/DiscoverAarhus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rikkeuldbaek/Library/Mobile Documents/com~apple~CloudDocs/Cognitive Science/6th_semester/spatial_analytics/DiscoverAarhus/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8385334F-9916-5948-A73E-E2DE7963E23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F467EF6-FF41-0B49-B245-0D95AC352987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="860" windowWidth="24000" windowHeight="15080" xr2:uid="{5C004500-1A4C-4740-8589-9D39A3377470}"/>
+    <workbookView xWindow="220" yWindow="500" windowWidth="21980" windowHeight="15440" xr2:uid="{5C004500-1A4C-4740-8589-9D39A3377470}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="247">
   <si>
     <t>name</t>
   </si>
@@ -477,9 +477,6 @@
     <t>Nordisk Film Biografer Trøjborg</t>
   </si>
   <si>
-    <t>Move theatre</t>
-  </si>
-  <si>
     <t>56.170882781538054, 10.21553190414435</t>
   </si>
   <si>
@@ -595,13 +592,731 @@
   </si>
   <si>
     <t>Park</t>
+  </si>
+  <si>
+    <t>Dokk1</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>Dokk1 is the main library in Aarhus with media, a café, public events, project rooms, study rooms, art, a children's library, and a playground.</t>
+  </si>
+  <si>
+    <t>56.15399582919347, 10.214527187566679</t>
+  </si>
+  <si>
+    <t>56.15945546754703, 10.209720268301075</t>
+  </si>
+  <si>
+    <t>Creative Space</t>
+  </si>
+  <si>
+    <t>Paint Your Own Pottery Café</t>
+  </si>
+  <si>
+    <t>Art by Me</t>
+  </si>
+  <si>
+    <t>56.158600845619496, 10.199147510629858</t>
+  </si>
+  <si>
+    <t>Vor Frue Kirke</t>
+  </si>
+  <si>
+    <t>56.15819455403357, 10.20464067475365</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Church of Our Lady</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Danish</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vor Frue Kirke</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) is one of the larger church structures of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Århus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Denmark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. The church and associated structures were built in several stages in the course of the Middle Ages, from the late 1200s to 1500 AD. </t>
+    </r>
+  </si>
+  <si>
+    <t>Vor Frue Kirke (Catholic Church)</t>
+  </si>
+  <si>
+    <t>56.15248844965036, 10.204401429735393</t>
+  </si>
+  <si>
+    <r>
+      <t>Catholic Church of Our Lady</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Danish</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Katolske Vor Frue Kirke</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) is a church in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Aarhus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Denmark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. The church is situated in the central </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Indre By</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> neighbourhood on the pedestrian street </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ryesgade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, close to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Central Station</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>City Hall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. It is a catholic church under the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Roman Catholic Diocese of Copenhagen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>; built between 1877 and 1880 by designs of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>German</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> architect Franz Schmitz and later renovated by the architect Carl R. Frederiksen.</t>
+    </r>
+  </si>
+  <si>
+    <t>56.146502870305305, 10.204244560176825</t>
+  </si>
+  <si>
+    <t>St. Pauls Kirke</t>
+  </si>
+  <si>
+    <r>
+      <t>St Paul's Church</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> is a parish church in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Aarhus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Denmark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. It was completed in 1887 to a design by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vilhelm Theodor Walther</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> in the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Neo-Romanesque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> style.</t>
+    </r>
+  </si>
+  <si>
+    <t>56.090309106689084, 10.222900005496525</t>
+  </si>
+  <si>
+    <t>Moesgaard museum</t>
+  </si>
+  <si>
+    <t>Moesgaard Museum is a popular destination for museum enthusiasts and nature lovers alike. The new museum building is the venue for world-class prehistoric and ethnographic exhibitions. Situated in the undulating landscape south of Aarhus, the museum constitutes a unique trinity of nature, culture, and history.</t>
+  </si>
+  <si>
+    <t>Moesgaard strand</t>
+  </si>
+  <si>
+    <t>56.08889213471035, 10.24810313955362</t>
+  </si>
+  <si>
+    <t>Beach at Moesgaard</t>
+  </si>
+  <si>
+    <t>56.176998506142894, 10.231308559583287</t>
+  </si>
+  <si>
+    <t>Den Permanente</t>
+  </si>
+  <si>
+    <t>Beach at Risskov</t>
+  </si>
+  <si>
+    <t>Risskov Strandpark</t>
+  </si>
+  <si>
+    <t>56.184521868667126, 10.237841127642781</t>
+  </si>
+  <si>
+    <t>Beach and park at Risskov</t>
+  </si>
+  <si>
+    <t>56.1909476574439, 10.24905264371925</t>
+  </si>
+  <si>
+    <t>Bellevue Strand</t>
+  </si>
+  <si>
+    <t>Ballehage Strand</t>
+  </si>
+  <si>
+    <t>56.121091170188414, 10.226486004700586</t>
+  </si>
+  <si>
+    <t>Åkrogen Strand</t>
+  </si>
+  <si>
+    <t>56.203752769342834, 10.282961178719345</t>
+  </si>
+  <si>
+    <t>Beach at Egå</t>
+  </si>
+  <si>
+    <t>56.13890636411847, 10.209043052620723</t>
+  </si>
+  <si>
+    <t>Tangkrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Park </t>
+  </si>
+  <si>
+    <r>
+      <t>Tangkrogen is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a public park and area in Aarhus near the beach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. The park is situated near the city centre by the coast and close to the Marselis Wood.</t>
+    </r>
+  </si>
+  <si>
+    <t>56.12840313289481, 10.195912313562983</t>
+  </si>
+  <si>
+    <t>Jydsk Væddeløbsbane</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Jutland Racecourse </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>is a public racecourse in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Aarhus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Denmark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Skanseparken</t>
+  </si>
+  <si>
+    <t>56.14597495301759, 10.206158851227592</t>
+  </si>
+  <si>
+    <r>
+      <t>Skanseparken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is one of the oldest parks in the city of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Aarhus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. It is situated in the neighborhood of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Frederiksbjerg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Midtbyen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Frederiksbjerg Bypark</t>
+  </si>
+  <si>
+    <t>56.147386980787076, 10.18928444792406</t>
+  </si>
+  <si>
+    <t>Park at Frederiksbjerg</t>
+  </si>
+  <si>
+    <t>Skateboardpark</t>
+  </si>
+  <si>
+    <t>56.14728322439201, 10.177975314879204</t>
+  </si>
+  <si>
+    <t>Skateboard park close to Brabrandstien</t>
+  </si>
+  <si>
+    <t>56.15666200315953, 10.214488833622443</t>
+  </si>
+  <si>
+    <t>Havnerundfart - Aarhus Sail Event</t>
+  </si>
+  <si>
+    <t>Aarhus Sail Event offers harbor tours of Aarhus Harbor and Bay. Aboard the ship M/S Helene, and experience and enjoy Aarhus from the water. See the new district of Aarhus Ø and listen to the interesting and fun stories that guides form Aarhus Sail Event add to the tour along the way.</t>
+  </si>
+  <si>
+    <t>Sportspladsen Havnefronten</t>
+  </si>
+  <si>
+    <t>56.15744333313172, 10.213997055003498</t>
+  </si>
+  <si>
+    <t>At Sportspladsen Havnefronten you can play basket, football or the like. The place offers a great sea view and sports activities.</t>
+  </si>
+  <si>
+    <t>Slagtehal 3</t>
+  </si>
+  <si>
+    <t>56.16002892736784, 10.212880600020101</t>
+  </si>
+  <si>
+    <t>An underground cinema and cafe</t>
+  </si>
+  <si>
+    <t>56.15066835277434, 10.203861884423869</t>
+  </si>
+  <si>
+    <t>CinemaxX</t>
+  </si>
+  <si>
+    <t>CinemaxX in Aarhus is located in Bruuns Galleri and offers both 3D and IMAX cinema halls.</t>
+  </si>
+  <si>
+    <t>Nordisk Film Biografer Aarhus C</t>
+  </si>
+  <si>
+    <t>56.15158649549781, 10.205950204877794</t>
+  </si>
+  <si>
+    <t>Movie theatre at Trøjborg</t>
+  </si>
+  <si>
+    <t>Movie theatre at Aarhus C.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -627,6 +1342,50 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3366CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF2D2D2D"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF040C28"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -648,7 +1407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -659,6 +1418,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,11 +1736,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A985FC9-1BC0-244F-84F2-377852D90E09}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -996,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1005,22 +1768,22 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>175</v>
-      </c>
-      <c r="K1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1202,7 +1965,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1448,7 +2211,7 @@
         <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1484,7 +2247,7 @@
         <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -1550,7 +2313,7 @@
         <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -1586,7 +2349,7 @@
         <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -1730,7 +2493,7 @@
         <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -1766,7 +2529,7 @@
         <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -1802,7 +2565,7 @@
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -1838,7 +2601,7 @@
         <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -1910,7 +2673,7 @@
         <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -2306,7 +3069,7 @@
         <v>128</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -2456,7 +3219,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>139</v>
+        <v>245</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
@@ -2471,7 +3234,7 @@
         <v>7</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J42" t="str" cm="1">
         <f t="array" ref="J42:K42">_xlfn.TEXTSPLIT(I42,",")</f>
@@ -2483,7 +3246,7 @@
     </row>
     <row r="43" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -2507,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J43" t="str" cm="1">
         <f t="array" ref="J43:K43">_xlfn.TEXTSPLIT(I43,",")</f>
@@ -2519,16 +3282,16 @@
     </row>
     <row r="44" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>13</v>
@@ -2543,7 +3306,7 @@
         <v>7</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J44" t="str" cm="1">
         <f t="array" ref="J44:K44">_xlfn.TEXTSPLIT(I44,",")</f>
@@ -2555,16 +3318,16 @@
     </row>
     <row r="45" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>13</v>
@@ -2579,7 +3342,7 @@
         <v>7</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J45" t="str" cm="1">
         <f t="array" ref="J45:K45">_xlfn.TEXTSPLIT(I45,",")</f>
@@ -2591,7 +3354,7 @@
     </row>
     <row r="46" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -2600,7 +3363,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>13</v>
@@ -2615,7 +3378,7 @@
         <v>7</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J46" t="str" cm="1">
         <f t="array" ref="J46:K46">_xlfn.TEXTSPLIT(I46,",")</f>
@@ -2627,7 +3390,7 @@
     </row>
     <row r="47" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B47" t="s">
         <v>98</v>
@@ -2636,7 +3399,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
@@ -2651,7 +3414,7 @@
         <v>7</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J47" t="str" cm="1">
         <f t="array" ref="J47:K47">_xlfn.TEXTSPLIT(I47,",")</f>
@@ -2663,7 +3426,7 @@
     </row>
     <row r="48" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B48" t="s">
         <v>69</v>
@@ -2672,7 +3435,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>8</v>
@@ -2687,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J48" t="str" cm="1">
         <f t="array" ref="J48:K48">_xlfn.TEXTSPLIT(I48,",")</f>
@@ -2699,7 +3462,7 @@
     </row>
     <row r="49" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B49" t="s">
         <v>98</v>
@@ -2708,7 +3471,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>13</v>
@@ -2723,7 +3486,7 @@
         <v>7</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J49" t="str" cm="1">
         <f t="array" ref="J49:K49">_xlfn.TEXTSPLIT(I49,",")</f>
@@ -2735,7 +3498,7 @@
     </row>
     <row r="50" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -2744,7 +3507,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>13</v>
@@ -2759,7 +3522,7 @@
         <v>7</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J50" t="str" cm="1">
         <f t="array" ref="J50:K50">_xlfn.TEXTSPLIT(I50,",")</f>
@@ -2771,16 +3534,16 @@
     </row>
     <row r="51" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="B51" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>13</v>
@@ -2795,7 +3558,7 @@
         <v>7</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J51" t="str" cm="1">
         <f t="array" ref="J51:K51">_xlfn.TEXTSPLIT(I51,",")</f>
@@ -2807,7 +3570,7 @@
     </row>
     <row r="52" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
@@ -2816,7 +3579,7 @@
         <v>7</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>8</v>
@@ -2831,7 +3594,7 @@
         <v>7</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J52" t="str" cm="1">
         <f t="array" ref="J52:K52">_xlfn.TEXTSPLIT(I52,",")</f>
@@ -2839,6 +3602,834 @@
       </c>
       <c r="K52" t="str">
         <v xml:space="preserve"> 10.196712893511247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J53" t="str" cm="1">
+        <f t="array" ref="J53:K53">_xlfn.TEXTSPLIT(I53,",")</f>
+        <v>56.15399582919347</v>
+      </c>
+      <c r="K53" t="str">
+        <v xml:space="preserve"> 10.214527187566679</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J54" t="str" cm="1">
+        <f t="array" ref="J54:K54">_xlfn.TEXTSPLIT(I54,",")</f>
+        <v>56.15945546754703</v>
+      </c>
+      <c r="K54" t="str">
+        <v xml:space="preserve"> 10.209720268301075</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J55" t="str" cm="1">
+        <f t="array" ref="J55:K55">_xlfn.TEXTSPLIT(I55,",")</f>
+        <v>56.158600845619496</v>
+      </c>
+      <c r="K55" t="str">
+        <v xml:space="preserve"> 10.199147510629858</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="J56" t="str" cm="1">
+        <f t="array" ref="J56:K56">_xlfn.TEXTSPLIT(I56,",")</f>
+        <v>56.15819455403357</v>
+      </c>
+      <c r="K56" t="str">
+        <v xml:space="preserve"> 10.20464067475365</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J57" t="str" cm="1">
+        <f t="array" ref="J57:K57">_xlfn.TEXTSPLIT(I57,",")</f>
+        <v>56.15248844965036</v>
+      </c>
+      <c r="K57" t="str">
+        <v xml:space="preserve"> 10.204401429735393</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="J58" t="str" cm="1">
+        <f t="array" ref="J58:K58">_xlfn.TEXTSPLIT(I58,",")</f>
+        <v>56.146502870305305</v>
+      </c>
+      <c r="K58" t="str">
+        <v xml:space="preserve"> 10.204244560176825</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="70" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>41</v>
+      </c>
+      <c r="H59" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J59" t="str" cm="1">
+        <f t="array" ref="J59:K59">_xlfn.TEXTSPLIT(I59,",")</f>
+        <v>56.090309106689084</v>
+      </c>
+      <c r="K59" t="str">
+        <v xml:space="preserve"> 10.222900005496525</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>201</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" t="s">
+        <v>50</v>
+      </c>
+      <c r="H60" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J60" t="str" cm="1">
+        <f t="array" ref="J60:K60">_xlfn.TEXTSPLIT(I60,",")</f>
+        <v>56.08889213471035</v>
+      </c>
+      <c r="K60" t="str">
+        <v xml:space="preserve"> 10.24810313955362</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>204</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
+        <v>50</v>
+      </c>
+      <c r="H61" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="J61" t="str" cm="1">
+        <f t="array" ref="J61:K61">_xlfn.TEXTSPLIT(I61,",")</f>
+        <v>56.176998506142894</v>
+      </c>
+      <c r="K61" t="str">
+        <v xml:space="preserve"> 10.231308559583287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>207</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>50</v>
+      </c>
+      <c r="H62" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J62" t="str" cm="1">
+        <f t="array" ref="J62:K62">_xlfn.TEXTSPLIT(I62,",")</f>
+        <v>56.184521868667126</v>
+      </c>
+      <c r="K62" t="str">
+        <v xml:space="preserve"> 10.237841127642781</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B63" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>204</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>50</v>
+      </c>
+      <c r="H63" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J63" t="str" cm="1">
+        <f t="array" ref="J63:K63">_xlfn.TEXTSPLIT(I63,",")</f>
+        <v>56.1909476574439</v>
+      </c>
+      <c r="K63" t="str">
+        <v xml:space="preserve"> 10.24905264371925</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B64" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>83</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>50</v>
+      </c>
+      <c r="H64" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="J64" t="str" cm="1">
+        <f t="array" ref="J64:K64">_xlfn.TEXTSPLIT(I64,",")</f>
+        <v>56.121091170188414</v>
+      </c>
+      <c r="K64" t="str">
+        <v xml:space="preserve"> 10.226486004700586</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B65" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>214</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" t="s">
+        <v>50</v>
+      </c>
+      <c r="H65" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J65" t="str" cm="1">
+        <f t="array" ref="J65:K65">_xlfn.TEXTSPLIT(I65,",")</f>
+        <v>56.203752769342834</v>
+      </c>
+      <c r="K65" t="str">
+        <v xml:space="preserve"> 10.282961178719345</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="69" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B66" t="s">
+        <v>217</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" t="s">
+        <v>50</v>
+      </c>
+      <c r="H66" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="J66" t="str" cm="1">
+        <f t="array" ref="J66:K66">_xlfn.TEXTSPLIT(I66,",")</f>
+        <v>56.13890636411847</v>
+      </c>
+      <c r="K66" t="str">
+        <v xml:space="preserve"> 10.209043052620723</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" t="s">
+        <v>41</v>
+      </c>
+      <c r="H67" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J67" t="str" cm="1">
+        <f t="array" ref="J67:K67">_xlfn.TEXTSPLIT(I67,",")</f>
+        <v>56.12840313289481</v>
+      </c>
+      <c r="K67" t="str">
+        <v xml:space="preserve"> 10.195912313562983</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B68" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>50</v>
+      </c>
+      <c r="H68" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J68" t="str" cm="1">
+        <f t="array" ref="J68:K68">_xlfn.TEXTSPLIT(I68,",")</f>
+        <v>56.14597495301759</v>
+      </c>
+      <c r="K68" t="str">
+        <v xml:space="preserve"> 10.206158851227592</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B69" t="s">
+        <v>177</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>227</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" t="s">
+        <v>50</v>
+      </c>
+      <c r="H69" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J69" t="str" cm="1">
+        <f t="array" ref="J69:K69">_xlfn.TEXTSPLIT(I69,",")</f>
+        <v>56.147386980787076</v>
+      </c>
+      <c r="K69" t="str">
+        <v xml:space="preserve"> 10.18928444792406</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>230</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>50</v>
+      </c>
+      <c r="H70" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J70" t="str" cm="1">
+        <f t="array" ref="J70:K70">_xlfn.TEXTSPLIT(I70,",")</f>
+        <v>56.14728322439201</v>
+      </c>
+      <c r="K70" t="str">
+        <v xml:space="preserve"> 10.177975314879204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" t="s">
+        <v>233</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" t="s">
+        <v>41</v>
+      </c>
+      <c r="H71" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J71" t="str" cm="1">
+        <f t="array" ref="J71:K71">_xlfn.TEXTSPLIT(I71,",")</f>
+        <v>56.15666200315953</v>
+      </c>
+      <c r="K71" t="str">
+        <v xml:space="preserve"> 10.214488833622443</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>236</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" t="s">
+        <v>50</v>
+      </c>
+      <c r="H72" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J72" t="str" cm="1">
+        <f t="array" ref="J72:K72">_xlfn.TEXTSPLIT(I72,",")</f>
+        <v>56.15744333313172</v>
+      </c>
+      <c r="K72" t="str">
+        <v xml:space="preserve"> 10.213997055003498</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>239</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J73" t="str" cm="1">
+        <f t="array" ref="J73:K73">_xlfn.TEXTSPLIT(I73,",")</f>
+        <v>56.16002892736784</v>
+      </c>
+      <c r="K73" t="str">
+        <v xml:space="preserve"> 10.212880600020101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>242</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J74" t="str" cm="1">
+        <f t="array" ref="J74:K74">_xlfn.TEXTSPLIT(I74,",")</f>
+        <v>56.15066835277434</v>
+      </c>
+      <c r="K74" t="str">
+        <v xml:space="preserve"> 10.203861884423869</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>246</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J75" t="str" cm="1">
+        <f t="array" ref="J75:K75">_xlfn.TEXTSPLIT(I75,",")</f>
+        <v>56.15158649549781</v>
+      </c>
+      <c r="K75" t="str">
+        <v xml:space="preserve"> 10.205950204877794</v>
       </c>
     </row>
   </sheetData>

--- a/data/DiscoverAarhus.xlsx
+++ b/data/DiscoverAarhus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rikkeuldbaek/Library/Mobile Documents/com~apple~CloudDocs/Cognitive Science/6th_semester/spatial_analytics/DiscoverAarhus/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F467EF6-FF41-0B49-B245-0D95AC352987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991086E4-114E-5541-9D2C-62AFA8489C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="500" windowWidth="21980" windowHeight="15440" xr2:uid="{5C004500-1A4C-4740-8589-9D39A3377470}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="270">
   <si>
     <t>name</t>
   </si>
@@ -1310,6 +1310,132 @@
   </si>
   <si>
     <t>Movie theatre at Aarhus C.</t>
+  </si>
+  <si>
+    <t>56.17105327231762, 10.199256149280348</t>
+  </si>
+  <si>
+    <t>Det Kgl. Bibliotek</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">State and University Library </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>is a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>national library</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> and the university library of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3366CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Aarhus University</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. </t>
+    </r>
+  </si>
+  <si>
+    <t>Escape Factory</t>
+  </si>
+  <si>
+    <t>56.16049456698617, 10.21317974232884</t>
+  </si>
+  <si>
+    <t>Escape room with several different rooms and games.</t>
+  </si>
+  <si>
+    <t>Brain Escape</t>
+  </si>
+  <si>
+    <t>56.15912412521492, 10.211974337533318</t>
+  </si>
+  <si>
+    <t>Urban Escape game</t>
+  </si>
+  <si>
+    <t>56.15840882824942, 10.208062150699702</t>
+  </si>
+  <si>
+    <t>56.15176769103704, 10.202701861793145</t>
+  </si>
+  <si>
+    <t>Escape Tour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uban escape game where the puzzle/game to be solved is located at several sites around Aarhus. </t>
+  </si>
+  <si>
+    <t>56.15183077303507, 10.201710886906046</t>
+  </si>
+  <si>
+    <t>Escapist</t>
+  </si>
+  <si>
+    <t>56.159543753237855, 10.202383500932736</t>
+  </si>
+  <si>
+    <t>Aarhus VR</t>
+  </si>
+  <si>
+    <t>56.16618196428782, 10.121505029614923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entertainment </t>
+  </si>
+  <si>
+    <t>Virtual Reality Center located in Brabrand</t>
+  </si>
+  <si>
+    <t>Eventpark Aarhus</t>
+  </si>
+  <si>
+    <t>56.165711115634515, 10.121288373963337</t>
+  </si>
+  <si>
+    <t>Eventpark Aarhus resides many activities such as VR-escape room, lasertag, bouncy castles, trampolines, airhockey, arcade games, and much more.</t>
   </si>
 </sst>
 </file>
@@ -1736,11 +1862,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A985FC9-1BC0-244F-84F2-377852D90E09}">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4432,6 +4558,330 @@
         <v xml:space="preserve"> 10.205950204877794</v>
       </c>
     </row>
+    <row r="76" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B76" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="J76" t="str" cm="1">
+        <f t="array" ref="J76:K76">_xlfn.TEXTSPLIT(I76,",")</f>
+        <v>56.17105327231762</v>
+      </c>
+      <c r="K76" t="str">
+        <v xml:space="preserve"> 10.199256149280348</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>252</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J77" t="str" cm="1">
+        <f t="array" ref="J77:K77">_xlfn.TEXTSPLIT(I77,",")</f>
+        <v>56.16049456698617</v>
+      </c>
+      <c r="K77" t="str">
+        <v xml:space="preserve"> 10.21317974232884</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B78" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>252</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="J78" t="str" cm="1">
+        <f t="array" ref="J78:K78">_xlfn.TEXTSPLIT(I78,",")</f>
+        <v>56.15912412521492</v>
+      </c>
+      <c r="K78" t="str">
+        <v xml:space="preserve"> 10.211974337533318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B79" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>259</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" t="s">
+        <v>50</v>
+      </c>
+      <c r="H79" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J79" t="str" cm="1">
+        <f t="array" ref="J79:K79">_xlfn.TEXTSPLIT(I79,",")</f>
+        <v>56.15840882824942</v>
+      </c>
+      <c r="K79" t="str">
+        <v xml:space="preserve"> 10.208062150699702</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>259</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" t="s">
+        <v>50</v>
+      </c>
+      <c r="H80" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="J80" t="str" cm="1">
+        <f t="array" ref="J80:K80">_xlfn.TEXTSPLIT(I80,",")</f>
+        <v>56.15176769103704</v>
+      </c>
+      <c r="K80" t="str">
+        <v xml:space="preserve"> 10.202701861793145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B81" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" t="s">
+        <v>259</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" t="s">
+        <v>50</v>
+      </c>
+      <c r="H81" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J81" t="str" cm="1">
+        <f t="array" ref="J81:K81">_xlfn.TEXTSPLIT(I81,",")</f>
+        <v>56.15183077303507</v>
+      </c>
+      <c r="K81" t="str">
+        <v xml:space="preserve"> 10.201710886906046</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>252</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J82" t="str" cm="1">
+        <f t="array" ref="J82:K82">_xlfn.TEXTSPLIT(I82,",")</f>
+        <v>56.159543753237855</v>
+      </c>
+      <c r="K82" t="str">
+        <v xml:space="preserve"> 10.202383500932736</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B83" t="s">
+        <v>265</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
+        <v>266</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J83" t="str" cm="1">
+        <f t="array" ref="J83:K83">_xlfn.TEXTSPLIT(I83,",")</f>
+        <v>56.16618196428782</v>
+      </c>
+      <c r="K83" t="str">
+        <v xml:space="preserve"> 10.121505029614923</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B84" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" t="s">
+        <v>269</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J84" t="str" cm="1">
+        <f t="array" ref="J84:K84">_xlfn.TEXTSPLIT(I84,",")</f>
+        <v>56.165711115634515</v>
+      </c>
+      <c r="K84" t="str">
+        <v xml:space="preserve"> 10.121288373963337</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/DiscoverAarhus.xlsx
+++ b/data/DiscoverAarhus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rikkeuldbaek/Library/Mobile Documents/com~apple~CloudDocs/Cognitive Science/6th_semester/spatial_analytics/DiscoverAarhus/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991086E4-114E-5541-9D2C-62AFA8489C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4627D746-3714-F443-9BEE-5F82C6395123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="500" windowWidth="21980" windowHeight="15440" xr2:uid="{5C004500-1A4C-4740-8589-9D39A3377470}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="300">
   <si>
     <t>name</t>
   </si>
@@ -1436,6 +1436,96 @@
   </si>
   <si>
     <t>Eventpark Aarhus resides many activities such as VR-escape room, lasertag, bouncy castles, trampolines, airhockey, arcade games, and much more.</t>
+  </si>
+  <si>
+    <t>Rush Trampolinpark</t>
+  </si>
+  <si>
+    <t>56.10671518557347, 10.149919151657057</t>
+  </si>
+  <si>
+    <t>Trampoline park in Højbjerg with several activities such as dogdeball, battle beam, ninja course, and wipeout.</t>
+  </si>
+  <si>
+    <t>56.110740854489826, 10.155247644863469</t>
+  </si>
+  <si>
+    <t>Golfskoven Minigolf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indoor minigolf field in Højbjerg including pool, shuffleboard, dart and outdoor petanque and a bar. </t>
+  </si>
+  <si>
+    <t>Camping</t>
+  </si>
+  <si>
+    <t>56.154462374077355, 10.211527899145684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indoor minigolf field located in Aarhus C. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indoor minigolf field and bar located in Aarhus C. </t>
+  </si>
+  <si>
+    <t>Bruuns Minigolf</t>
+  </si>
+  <si>
+    <t>56.149160847590494, 10.205978608612977</t>
+  </si>
+  <si>
+    <t>Outdoor minigolf field.</t>
+  </si>
+  <si>
+    <t>Camping Book1</t>
+  </si>
+  <si>
+    <t>56.15664358276884, 10.200314841346561</t>
+  </si>
+  <si>
+    <t>56.1704178776926, 10.131959264136771</t>
+  </si>
+  <si>
+    <t>Grimhøj Disc Golf Field</t>
+  </si>
+  <si>
+    <t>Vestereng Disc Golf Field</t>
+  </si>
+  <si>
+    <t>Disc golf field with 18 holes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disc golf field with 9 holes.  </t>
+  </si>
+  <si>
+    <t>56.18872749097491, 10.091260207737502</t>
+  </si>
+  <si>
+    <t>Tilst Disc Golf Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disc golf field with 18 holes.  </t>
+  </si>
+  <si>
+    <t>Langenæsparken</t>
+  </si>
+  <si>
+    <t>Park at Langenæs with disc golf fields.</t>
+  </si>
+  <si>
+    <t>56.15873842215142, 10.209945582621554</t>
+  </si>
+  <si>
+    <t>Latinerkvarteret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charming and colorful neighbourhood in Aarhus C with cafees, restaurants, museums, cinemas etc. </t>
+  </si>
+  <si>
+    <t>56.143444698031324, 10.181503810385879</t>
+  </si>
+  <si>
+    <t>56.18435419009484, 10.18361706830285</t>
   </si>
 </sst>
 </file>
@@ -1862,11 +1952,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A985FC9-1BC0-244F-84F2-377852D90E09}">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1989,7 +2079,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -4239,7 +4329,7 @@
         <v>220</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
@@ -4383,7 +4473,7 @@
         <v>232</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
@@ -4880,6 +4970,366 @@
       </c>
       <c r="K84" t="str">
         <v xml:space="preserve"> 10.121288373963337</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B85" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" t="s">
+        <v>272</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" t="s">
+        <v>7</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="J85" t="str" cm="1">
+        <f t="array" ref="J85:K85">_xlfn.TEXTSPLIT(I85,",")</f>
+        <v>56.10671518557347</v>
+      </c>
+      <c r="K85" t="str">
+        <v xml:space="preserve"> 10.149919151657057</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B86" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" t="s">
+        <v>275</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" t="s">
+        <v>41</v>
+      </c>
+      <c r="H86" t="s">
+        <v>7</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="J86" t="str" cm="1">
+        <f t="array" ref="J86:K86">_xlfn.TEXTSPLIT(I86,",")</f>
+        <v>56.110740854489826</v>
+      </c>
+      <c r="K86" t="str">
+        <v xml:space="preserve"> 10.155247644863469</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" t="s">
+        <v>279</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" t="s">
+        <v>7</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="J87" t="str" cm="1">
+        <f t="array" ref="J87:K87">_xlfn.TEXTSPLIT(I87,",")</f>
+        <v>56.154462374077355</v>
+      </c>
+      <c r="K87" t="str">
+        <v xml:space="preserve"> 10.211527899145684</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" t="s">
+        <v>282</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" t="s">
+        <v>50</v>
+      </c>
+      <c r="H88" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="J88" t="str" cm="1">
+        <f t="array" ref="J88:K88">_xlfn.TEXTSPLIT(I88,",")</f>
+        <v>56.149160847590494</v>
+      </c>
+      <c r="K88" t="str">
+        <v xml:space="preserve"> 10.205978608612977</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B89" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>278</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" t="s">
+        <v>9</v>
+      </c>
+      <c r="H89" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J89" t="str" cm="1">
+        <f t="array" ref="J89:K89">_xlfn.TEXTSPLIT(I89,",")</f>
+        <v>56.15664358276884</v>
+      </c>
+      <c r="K89" t="str">
+        <v xml:space="preserve"> 10.200314841346561</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B90" t="s">
+        <v>69</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" t="s">
+        <v>288</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" t="s">
+        <v>50</v>
+      </c>
+      <c r="H90" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J90" t="str" cm="1">
+        <f t="array" ref="J90:K90">_xlfn.TEXTSPLIT(I90,",")</f>
+        <v>56.1704178776926</v>
+      </c>
+      <c r="K90" t="str">
+        <v xml:space="preserve"> 10.131959264136771</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B91" t="s">
+        <v>69</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" t="s">
+        <v>289</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" t="s">
+        <v>50</v>
+      </c>
+      <c r="H91" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="J91" t="str" cm="1">
+        <f t="array" ref="J91:K91">_xlfn.TEXTSPLIT(I91,",")</f>
+        <v>56.18435419009484</v>
+      </c>
+      <c r="K91" t="str">
+        <v xml:space="preserve"> 10.18361706830285</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B92" t="s">
+        <v>69</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" t="s">
+        <v>292</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" t="s">
+        <v>50</v>
+      </c>
+      <c r="H92" t="s">
+        <v>7</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="J92" t="str" cm="1">
+        <f t="array" ref="J92:K92">_xlfn.TEXTSPLIT(I92,",")</f>
+        <v>56.18872749097491</v>
+      </c>
+      <c r="K92" t="str">
+        <v xml:space="preserve"> 10.091260207737502</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B93" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" t="s">
+        <v>294</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" t="s">
+        <v>7</v>
+      </c>
+      <c r="G93" t="s">
+        <v>50</v>
+      </c>
+      <c r="H93" t="s">
+        <v>7</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="J93" t="str" cm="1">
+        <f t="array" ref="J93:K93">_xlfn.TEXTSPLIT(I93,",")</f>
+        <v>56.143444698031324</v>
+      </c>
+      <c r="K93" t="str">
+        <v xml:space="preserve"> 10.181503810385879</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" t="s">
+        <v>297</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" t="s">
+        <v>7</v>
+      </c>
+      <c r="G94" t="s">
+        <v>41</v>
+      </c>
+      <c r="H94" t="s">
+        <v>7</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J94" t="str" cm="1">
+        <f t="array" ref="J94:K94">_xlfn.TEXTSPLIT(I94,",")</f>
+        <v>56.15873842215142</v>
+      </c>
+      <c r="K94" t="str">
+        <v xml:space="preserve"> 10.209945582621554</v>
       </c>
     </row>
   </sheetData>

--- a/data/DiscoverAarhus.xlsx
+++ b/data/DiscoverAarhus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rikkeuldbaek/Library/Mobile Documents/com~apple~CloudDocs/Cognitive Science/6th_semester/spatial_analytics/DiscoverAarhus/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4627D746-3714-F443-9BEE-5F82C6395123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D346F661-D434-6149-9F91-B45D3A9B49B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="500" windowWidth="21980" windowHeight="15440" xr2:uid="{5C004500-1A4C-4740-8589-9D39A3377470}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="325">
   <si>
     <t>name</t>
   </si>
@@ -1526,6 +1526,81 @@
   </si>
   <si>
     <t>56.18435419009484, 10.18361706830285</t>
+  </si>
+  <si>
+    <t>Møllestien</t>
+  </si>
+  <si>
+    <t>56.1566271800262, 10.201198332853597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charmin and colorful street in Aarhus C. </t>
+  </si>
+  <si>
+    <t>Royal Casino</t>
+  </si>
+  <si>
+    <t>56.15763436851299, 10.210056382516806</t>
+  </si>
+  <si>
+    <t>Casino located in the centre of Aarhus</t>
+  </si>
+  <si>
+    <t>Bazar Vest</t>
+  </si>
+  <si>
+    <t>56.163062356328545, 10.1335757818462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Eastern market which offers fresh fruits and vegetables, groceries, food, and clothing.  </t>
+  </si>
+  <si>
+    <t>56.18671026455704, 10.187693581279355</t>
+  </si>
+  <si>
+    <t>Ovartaci Museum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This muesum is located at a psychiatric hospital from 1852 and exhibits historical exhibitions and work of art from previous patients of the hospital. </t>
+  </si>
+  <si>
+    <t>56.15873942116772, 10.193556749349098</t>
+  </si>
+  <si>
+    <t>Dansk Plakat Museum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danish Poster Museum is located in Den Gamle By, and exhibits the largest collection of posters in Northern Europe </t>
+  </si>
+  <si>
+    <t>Salling Rooftop</t>
+  </si>
+  <si>
+    <t>56.154468734070264, 10.206987924173971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salling rooftop is located on top of the department store Salling. The rooftop has an amazing panorama view, cafe, and hosts events occasionally. </t>
+  </si>
+  <si>
+    <t>Leos Legeland</t>
+  </si>
+  <si>
+    <t>56.20371030829333, 10.184617300167886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leos Play Centre is a large play centre offering many fun activities for children and the entire family. </t>
+  </si>
+  <si>
+    <t>Legelandet.dk</t>
+  </si>
+  <si>
+    <t>Legelandet.dk is a large play centre located in Brabrand. The play centre is a part of Eventpark Aarhus, who also hosts VR escape rooms, lasertag, bouncy castles, trampolines, airhockey, arcade games, and much more</t>
+  </si>
+  <si>
+    <t>56.16578942026016, 10.121523588021091</t>
   </si>
 </sst>
 </file>
@@ -1952,11 +2027,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A985FC9-1BC0-244F-84F2-377852D90E09}">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I91" sqref="I91"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5260,7 +5335,7 @@
         <v xml:space="preserve"> 10.091260207737502</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>293</v>
       </c>
@@ -5330,6 +5405,294 @@
       </c>
       <c r="K94" t="str">
         <v xml:space="preserve"> 10.209945582621554</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" t="s">
+        <v>302</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" t="s">
+        <v>7</v>
+      </c>
+      <c r="G95" t="s">
+        <v>50</v>
+      </c>
+      <c r="H95" t="s">
+        <v>7</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="J95" t="str" cm="1">
+        <f t="array" ref="J95:K95">_xlfn.TEXTSPLIT(I95,",")</f>
+        <v>56.1566271800262</v>
+      </c>
+      <c r="K95" t="str">
+        <v xml:space="preserve"> 10.201198332853597</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" t="s">
+        <v>305</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>7</v>
+      </c>
+      <c r="G96" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" t="s">
+        <v>7</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J96" t="str" cm="1">
+        <f t="array" ref="J96:K96">_xlfn.TEXTSPLIT(I96,",")</f>
+        <v>56.15763436851299</v>
+      </c>
+      <c r="K96" t="str">
+        <v xml:space="preserve"> 10.210056382516806</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B97" t="s">
+        <v>308</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" t="s">
+        <v>309</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" t="s">
+        <v>7</v>
+      </c>
+      <c r="G97" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" t="s">
+        <v>7</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J97" t="str" cm="1">
+        <f t="array" ref="J97:K97">_xlfn.TEXTSPLIT(I97,",")</f>
+        <v>56.163062356328545</v>
+      </c>
+      <c r="K97" t="str">
+        <v xml:space="preserve"> 10.1335757818462</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" t="s">
+        <v>312</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" t="s">
+        <v>7</v>
+      </c>
+      <c r="G98" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" t="s">
+        <v>7</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J98" t="str" cm="1">
+        <f t="array" ref="J98:K98">_xlfn.TEXTSPLIT(I98,",")</f>
+        <v>56.18671026455704</v>
+      </c>
+      <c r="K98" t="str">
+        <v xml:space="preserve"> 10.187693581279355</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" t="s">
+        <v>315</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" t="s">
+        <v>7</v>
+      </c>
+      <c r="G99" t="s">
+        <v>9</v>
+      </c>
+      <c r="H99" t="s">
+        <v>7</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="J99" t="str" cm="1">
+        <f t="array" ref="J99:K99">_xlfn.TEXTSPLIT(I99,",")</f>
+        <v>56.15873942116772</v>
+      </c>
+      <c r="K99" t="str">
+        <v xml:space="preserve"> 10.193556749349098</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" t="s">
+        <v>318</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" t="s">
+        <v>7</v>
+      </c>
+      <c r="G100" t="s">
+        <v>50</v>
+      </c>
+      <c r="H100" t="s">
+        <v>7</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J100" t="str" cm="1">
+        <f t="array" ref="J100:K100">_xlfn.TEXTSPLIT(I100,",")</f>
+        <v>56.154468734070264</v>
+      </c>
+      <c r="K100" t="str">
+        <v xml:space="preserve"> 10.206987924173971</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B101" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" t="s">
+        <v>321</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" t="s">
+        <v>7</v>
+      </c>
+      <c r="G101" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" t="s">
+        <v>7</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J101" t="str" cm="1">
+        <f t="array" ref="J101:K101">_xlfn.TEXTSPLIT(I101,",")</f>
+        <v>56.20371030829333</v>
+      </c>
+      <c r="K101" t="str">
+        <v xml:space="preserve"> 10.184617300167886</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B102" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" t="s">
+        <v>323</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" t="s">
+        <v>7</v>
+      </c>
+      <c r="G102" t="s">
+        <v>9</v>
+      </c>
+      <c r="H102" t="s">
+        <v>7</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="J102" t="str" cm="1">
+        <f t="array" ref="J102:K102">_xlfn.TEXTSPLIT(I102,",")</f>
+        <v>56.16578942026016</v>
+      </c>
+      <c r="K102" t="str">
+        <v xml:space="preserve"> 10.121523588021091</v>
       </c>
     </row>
   </sheetData>

--- a/data/DiscoverAarhus.xlsx
+++ b/data/DiscoverAarhus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rikkeuldbaek/Library/Mobile Documents/com~apple~CloudDocs/Cognitive Science/6th_semester/spatial_analytics/DiscoverAarhus/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisebrixpilegaardhansen/Desktop/DiscoverAarhus/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D346F661-D434-6149-9F91-B45D3A9B49B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347AC8FA-7FFB-1945-A961-9ED8EAEC1952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="21980" windowHeight="15440" xr2:uid="{5C004500-1A4C-4740-8589-9D39A3377470}"/>
+    <workbookView xWindow="220" yWindow="500" windowWidth="24840" windowHeight="15440" xr2:uid="{5C004500-1A4C-4740-8589-9D39A3377470}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>Domen</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>ARoS is the main art museum in Aarhus and a unique international art museum for young as old.  ARoS has been awarded two Michelin stars in Michelin's tourism guide</t>
   </si>
   <si>
@@ -564,9 +561,6 @@
     <t>Ingerslev Torv</t>
   </si>
   <si>
-    <t>Market with foodstands every Wednesday and Saturday</t>
-  </si>
-  <si>
     <t>56.144857793790486, 10.196712893511247</t>
   </si>
   <si>
@@ -610,9 +604,6 @@
   </si>
   <si>
     <t>Creative Space</t>
-  </si>
-  <si>
-    <t>Paint Your Own Pottery Café</t>
   </si>
   <si>
     <t>Art by Me</t>
@@ -730,201 +721,6 @@
     <t>56.15248844965036, 10.204401429735393</t>
   </si>
   <si>
-    <r>
-      <t>Catholic Church of Our Lady</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Danish</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Katolske Vor Frue Kirke</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>) is a church in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Aarhus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Denmark</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. The church is situated in the central </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Indre By</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> neighbourhood on the pedestrian street </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ryesgade</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, close to the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Central Station</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>City Hall</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. It is a catholic church under the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Roman Catholic Diocese of Copenhagen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>; built between 1877 and 1880 by designs of the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>German</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> architect Franz Schmitz and later renovated by the architect Carl R. Frederiksen.</t>
-    </r>
-  </si>
-  <si>
     <t>56.146502870305305, 10.204244560176825</t>
   </si>
   <si>
@@ -1023,36 +819,24 @@
     <t>Moesgaard museum</t>
   </si>
   <si>
-    <t>Moesgaard Museum is a popular destination for museum enthusiasts and nature lovers alike. The new museum building is the venue for world-class prehistoric and ethnographic exhibitions. Situated in the undulating landscape south of Aarhus, the museum constitutes a unique trinity of nature, culture, and history.</t>
-  </si>
-  <si>
     <t>Moesgaard strand</t>
   </si>
   <si>
     <t>56.08889213471035, 10.24810313955362</t>
   </si>
   <si>
-    <t>Beach at Moesgaard</t>
-  </si>
-  <si>
     <t>56.176998506142894, 10.231308559583287</t>
   </si>
   <si>
     <t>Den Permanente</t>
   </si>
   <si>
-    <t>Beach at Risskov</t>
-  </si>
-  <si>
     <t>Risskov Strandpark</t>
   </si>
   <si>
     <t>56.184521868667126, 10.237841127642781</t>
   </si>
   <si>
-    <t>Beach and park at Risskov</t>
-  </si>
-  <si>
     <t>56.1909476574439, 10.24905264371925</t>
   </si>
   <si>
@@ -1071,9 +855,6 @@
     <t>56.203752769342834, 10.282961178719345</t>
   </si>
   <si>
-    <t>Beach at Egå</t>
-  </si>
-  <si>
     <t>56.13890636411847, 10.209043052620723</t>
   </si>
   <si>
@@ -1081,29 +862,6 @@
   </si>
   <si>
     <t xml:space="preserve">Park </t>
-  </si>
-  <si>
-    <r>
-      <t>Tangkrogen is </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF040C28"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>a public park and area in Aarhus near the beach</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF202124"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. The park is situated near the city centre by the coast and close to the Marselis Wood.</t>
-    </r>
   </si>
   <si>
     <t>56.12840313289481, 10.195912313562983</t>
@@ -1178,6 +936,344 @@
     <t>56.14597495301759, 10.206158851227592</t>
   </si>
   <si>
+    <t>Frederiksbjerg Bypark</t>
+  </si>
+  <si>
+    <t>56.147386980787076, 10.18928444792406</t>
+  </si>
+  <si>
+    <t>Park at Frederiksbjerg</t>
+  </si>
+  <si>
+    <t>Skateboardpark</t>
+  </si>
+  <si>
+    <t>56.14728322439201, 10.177975314879204</t>
+  </si>
+  <si>
+    <t>Skateboard park close to Brabrandstien</t>
+  </si>
+  <si>
+    <t>56.15666200315953, 10.214488833622443</t>
+  </si>
+  <si>
+    <t>Havnerundfart - Aarhus Sail Event</t>
+  </si>
+  <si>
+    <t>Aarhus Sail Event offers harbor tours of Aarhus Harbor and Bay. Aboard the ship M/S Helene, and experience and enjoy Aarhus from the water. See the new district of Aarhus Ø and listen to the interesting and fun stories that guides form Aarhus Sail Event add to the tour along the way.</t>
+  </si>
+  <si>
+    <t>Sportspladsen Havnefronten</t>
+  </si>
+  <si>
+    <t>56.15744333313172, 10.213997055003498</t>
+  </si>
+  <si>
+    <t>At Sportspladsen Havnefronten you can play basket, football or the like. The place offers a great sea view and sports activities.</t>
+  </si>
+  <si>
+    <t>Slagtehal 3</t>
+  </si>
+  <si>
+    <t>56.16002892736784, 10.212880600020101</t>
+  </si>
+  <si>
+    <t>An underground cinema and cafe</t>
+  </si>
+  <si>
+    <t>56.15066835277434, 10.203861884423869</t>
+  </si>
+  <si>
+    <t>CinemaxX</t>
+  </si>
+  <si>
+    <t>CinemaxX in Aarhus is located in Bruuns Galleri and offers both 3D and IMAX cinema halls.</t>
+  </si>
+  <si>
+    <t>Nordisk Film Biografer Aarhus C</t>
+  </si>
+  <si>
+    <t>56.15158649549781, 10.205950204877794</t>
+  </si>
+  <si>
+    <t>Movie theatre at Trøjborg</t>
+  </si>
+  <si>
+    <t>Movie theatre at Aarhus C.</t>
+  </si>
+  <si>
+    <t>56.17105327231762, 10.199256149280348</t>
+  </si>
+  <si>
+    <t>Det Kgl. Bibliotek</t>
+  </si>
+  <si>
+    <t>Escape Factory</t>
+  </si>
+  <si>
+    <t>56.16049456698617, 10.21317974232884</t>
+  </si>
+  <si>
+    <t>Escape room with several different rooms and games.</t>
+  </si>
+  <si>
+    <t>Brain Escape</t>
+  </si>
+  <si>
+    <t>56.15912412521492, 10.211974337533318</t>
+  </si>
+  <si>
+    <t>Urban Escape game</t>
+  </si>
+  <si>
+    <t>56.15840882824942, 10.208062150699702</t>
+  </si>
+  <si>
+    <t>56.15176769103704, 10.202701861793145</t>
+  </si>
+  <si>
+    <t>Escape Tour</t>
+  </si>
+  <si>
+    <t>56.15183077303507, 10.201710886906046</t>
+  </si>
+  <si>
+    <t>Escapist</t>
+  </si>
+  <si>
+    <t>56.159543753237855, 10.202383500932736</t>
+  </si>
+  <si>
+    <t>Aarhus VR</t>
+  </si>
+  <si>
+    <t>56.16618196428782, 10.121505029614923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entertainment </t>
+  </si>
+  <si>
+    <t>Virtual Reality Center located in Brabrand</t>
+  </si>
+  <si>
+    <t>Eventpark Aarhus</t>
+  </si>
+  <si>
+    <t>56.165711115634515, 10.121288373963337</t>
+  </si>
+  <si>
+    <t>Eventpark Aarhus resides many activities such as VR-escape room, lasertag, bouncy castles, trampolines, airhockey, arcade games, and much more.</t>
+  </si>
+  <si>
+    <t>Rush Trampolinpark</t>
+  </si>
+  <si>
+    <t>56.10671518557347, 10.149919151657057</t>
+  </si>
+  <si>
+    <t>Trampoline park in Højbjerg with several activities such as dogdeball, battle beam, ninja course, and wipeout.</t>
+  </si>
+  <si>
+    <t>56.110740854489826, 10.155247644863469</t>
+  </si>
+  <si>
+    <t>Golfskoven Minigolf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indoor minigolf field in Højbjerg including pool, shuffleboard, dart and outdoor petanque and a bar. </t>
+  </si>
+  <si>
+    <t>Camping</t>
+  </si>
+  <si>
+    <t>56.154462374077355, 10.211527899145684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indoor minigolf field located in Aarhus C. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indoor minigolf field and bar located in Aarhus C. </t>
+  </si>
+  <si>
+    <t>Bruuns Minigolf</t>
+  </si>
+  <si>
+    <t>56.149160847590494, 10.205978608612977</t>
+  </si>
+  <si>
+    <t>Outdoor minigolf field.</t>
+  </si>
+  <si>
+    <t>Camping Book1</t>
+  </si>
+  <si>
+    <t>56.15664358276884, 10.200314841346561</t>
+  </si>
+  <si>
+    <t>56.1704178776926, 10.131959264136771</t>
+  </si>
+  <si>
+    <t>Grimhøj Disc Golf Field</t>
+  </si>
+  <si>
+    <t>Vestereng Disc Golf Field</t>
+  </si>
+  <si>
+    <t>Disc golf field with 18 holes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disc golf field with 9 holes.  </t>
+  </si>
+  <si>
+    <t>56.18872749097491, 10.091260207737502</t>
+  </si>
+  <si>
+    <t>Tilst Disc Golf Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disc golf field with 18 holes.  </t>
+  </si>
+  <si>
+    <t>Langenæsparken</t>
+  </si>
+  <si>
+    <t>Park at Langenæs with disc golf fields.</t>
+  </si>
+  <si>
+    <t>56.15873842215142, 10.209945582621554</t>
+  </si>
+  <si>
+    <t>Latinerkvarteret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charming and colorful neighbourhood in Aarhus C with cafees, restaurants, museums, cinemas etc. </t>
+  </si>
+  <si>
+    <t>56.143444698031324, 10.181503810385879</t>
+  </si>
+  <si>
+    <t>56.18435419009484, 10.18361706830285</t>
+  </si>
+  <si>
+    <t>Møllestien</t>
+  </si>
+  <si>
+    <t>56.1566271800262, 10.201198332853597</t>
+  </si>
+  <si>
+    <t>Royal Casino</t>
+  </si>
+  <si>
+    <t>56.15763436851299, 10.210056382516806</t>
+  </si>
+  <si>
+    <t>Casino located in the centre of Aarhus</t>
+  </si>
+  <si>
+    <t>Bazar Vest</t>
+  </si>
+  <si>
+    <t>56.163062356328545, 10.1335757818462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Eastern market which offers fresh fruits and vegetables, groceries, food, and clothing.  </t>
+  </si>
+  <si>
+    <t>56.18671026455704, 10.187693581279355</t>
+  </si>
+  <si>
+    <t>Ovartaci Museum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This muesum is located at a psychiatric hospital from 1852 and exhibits historical exhibitions and work of art from previous patients of the hospital. </t>
+  </si>
+  <si>
+    <t>56.15873942116772, 10.193556749349098</t>
+  </si>
+  <si>
+    <t>Dansk Plakat Museum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danish Poster Museum is located in Den Gamle By, and exhibits the largest collection of posters in Northern Europe </t>
+  </si>
+  <si>
+    <t>Salling Rooftop</t>
+  </si>
+  <si>
+    <t>56.154468734070264, 10.206987924173971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salling rooftop is located on top of the department store Salling. The rooftop has an amazing panorama view, cafe, and hosts events occasionally. </t>
+  </si>
+  <si>
+    <t>Leos Legeland</t>
+  </si>
+  <si>
+    <t>56.20371030829333, 10.184617300167886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leos Play Centre is a large play centre offering many fun activities for children and the entire family. </t>
+  </si>
+  <si>
+    <t>Legelandet.dk</t>
+  </si>
+  <si>
+    <t>Legelandet.dk is a large play centre located in Brabrand. The play centre is a part of Eventpark Aarhus, who also hosts VR escape rooms, lasertag, bouncy castles, trampolines, airhockey, arcade games, and much more</t>
+  </si>
+  <si>
+    <t>56.16578942026016, 10.121523588021091</t>
+  </si>
+  <si>
+    <t>Do as the locals and get your fruits, vegetables, flowers and herbs at the the market at Ingerslev Boulevard. Every Wednesday and Saturday</t>
+  </si>
+  <si>
+    <t>Paint your own pottery café</t>
+  </si>
+  <si>
+    <t>The church is situated in the heart of Aarhus 100 meters from the Central Station and it has Denmark's largest Catholic parish with members from more than 80 different nations. The church is open on certain days outside of Mass hours. See the sign on the front door for information.</t>
+  </si>
+  <si>
+    <t>Public beach at Risskov</t>
+  </si>
+  <si>
+    <t>Public beach and park at Risskov</t>
+  </si>
+  <si>
+    <t>Public beach at Marselisborg</t>
+  </si>
+  <si>
+    <t>Public beach at Egå</t>
+  </si>
+  <si>
+    <t>Cultural history museum south of Aarhus in beautiful sorroundings. The past is brought to fascinating life at the Moesgaard Museum in Aarhus. The exhibits are based on the latest research and technology and aim at giving you an insight into prehistory and anthropology in an entertaining and surprising way.</t>
+  </si>
+  <si>
+    <t>Public beach at Moesgaard</t>
+  </si>
+  <si>
+    <r>
+      <t>Tangkrogen is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a public park and area in Aarhus near the beach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. The park is situated near the city centre by the coast and close to the Marselis forest.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>Skanseparken</t>
     </r>
@@ -1224,98 +1320,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> in </t>
+      <t> in the center of Aarhus.</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Midtbyen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Frederiksbjerg Bypark</t>
-  </si>
-  <si>
-    <t>56.147386980787076, 10.18928444792406</t>
-  </si>
-  <si>
-    <t>Park at Frederiksbjerg</t>
-  </si>
-  <si>
-    <t>Skateboardpark</t>
-  </si>
-  <si>
-    <t>56.14728322439201, 10.177975314879204</t>
-  </si>
-  <si>
-    <t>Skateboard park close to Brabrandstien</t>
-  </si>
-  <si>
-    <t>56.15666200315953, 10.214488833622443</t>
-  </si>
-  <si>
-    <t>Havnerundfart - Aarhus Sail Event</t>
-  </si>
-  <si>
-    <t>Aarhus Sail Event offers harbor tours of Aarhus Harbor and Bay. Aboard the ship M/S Helene, and experience and enjoy Aarhus from the water. See the new district of Aarhus Ø and listen to the interesting and fun stories that guides form Aarhus Sail Event add to the tour along the way.</t>
-  </si>
-  <si>
-    <t>Sportspladsen Havnefronten</t>
-  </si>
-  <si>
-    <t>56.15744333313172, 10.213997055003498</t>
-  </si>
-  <si>
-    <t>At Sportspladsen Havnefronten you can play basket, football or the like. The place offers a great sea view and sports activities.</t>
-  </si>
-  <si>
-    <t>Slagtehal 3</t>
-  </si>
-  <si>
-    <t>56.16002892736784, 10.212880600020101</t>
-  </si>
-  <si>
-    <t>An underground cinema and cafe</t>
-  </si>
-  <si>
-    <t>56.15066835277434, 10.203861884423869</t>
-  </si>
-  <si>
-    <t>CinemaxX</t>
-  </si>
-  <si>
-    <t>CinemaxX in Aarhus is located in Bruuns Galleri and offers both 3D and IMAX cinema halls.</t>
-  </si>
-  <si>
-    <t>Nordisk Film Biografer Aarhus C</t>
-  </si>
-  <si>
-    <t>56.15158649549781, 10.205950204877794</t>
-  </si>
-  <si>
-    <t>Movie theatre at Trøjborg</t>
-  </si>
-  <si>
-    <t>Movie theatre at Aarhus C.</t>
-  </si>
-  <si>
-    <t>56.17105327231762, 10.199256149280348</t>
-  </si>
-  <si>
-    <t>Det Kgl. Bibliotek</t>
   </si>
   <si>
     <r>
@@ -1356,7 +1362,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> and the university library of </t>
+      <t> and the University Library of </t>
     </r>
     <r>
       <rPr>
@@ -1365,7 +1371,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Aarhus University</t>
+      <t>Aarhus</t>
     </r>
     <r>
       <rPr>
@@ -1378,229 +1384,13 @@
     </r>
   </si>
   <si>
-    <t>Escape Factory</t>
-  </si>
-  <si>
-    <t>56.16049456698617, 10.21317974232884</t>
-  </si>
-  <si>
-    <t>Escape room with several different rooms and games.</t>
-  </si>
-  <si>
-    <t>Brain Escape</t>
-  </si>
-  <si>
-    <t>56.15912412521492, 10.211974337533318</t>
-  </si>
-  <si>
-    <t>Urban Escape game</t>
-  </si>
-  <si>
-    <t>56.15840882824942, 10.208062150699702</t>
-  </si>
-  <si>
-    <t>56.15176769103704, 10.202701861793145</t>
-  </si>
-  <si>
-    <t>Escape Tour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uban escape game where the puzzle/game to be solved is located at several sites around Aarhus. </t>
-  </si>
-  <si>
-    <t>56.15183077303507, 10.201710886906046</t>
-  </si>
-  <si>
-    <t>Escapist</t>
-  </si>
-  <si>
-    <t>56.159543753237855, 10.202383500932736</t>
-  </si>
-  <si>
-    <t>Aarhus VR</t>
-  </si>
-  <si>
-    <t>56.16618196428782, 10.121505029614923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entertainment </t>
-  </si>
-  <si>
-    <t>Virtual Reality Center located in Brabrand</t>
-  </si>
-  <si>
-    <t>Eventpark Aarhus</t>
-  </si>
-  <si>
-    <t>56.165711115634515, 10.121288373963337</t>
-  </si>
-  <si>
-    <t>Eventpark Aarhus resides many activities such as VR-escape room, lasertag, bouncy castles, trampolines, airhockey, arcade games, and much more.</t>
-  </si>
-  <si>
-    <t>Rush Trampolinpark</t>
-  </si>
-  <si>
-    <t>56.10671518557347, 10.149919151657057</t>
-  </si>
-  <si>
-    <t>Trampoline park in Højbjerg with several activities such as dogdeball, battle beam, ninja course, and wipeout.</t>
-  </si>
-  <si>
-    <t>56.110740854489826, 10.155247644863469</t>
-  </si>
-  <si>
-    <t>Golfskoven Minigolf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indoor minigolf field in Højbjerg including pool, shuffleboard, dart and outdoor petanque and a bar. </t>
-  </si>
-  <si>
-    <t>Camping</t>
-  </si>
-  <si>
-    <t>56.154462374077355, 10.211527899145684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indoor minigolf field located in Aarhus C. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indoor minigolf field and bar located in Aarhus C. </t>
-  </si>
-  <si>
-    <t>Bruuns Minigolf</t>
-  </si>
-  <si>
-    <t>56.149160847590494, 10.205978608612977</t>
-  </si>
-  <si>
-    <t>Outdoor minigolf field.</t>
-  </si>
-  <si>
-    <t>Camping Book1</t>
-  </si>
-  <si>
-    <t>56.15664358276884, 10.200314841346561</t>
-  </si>
-  <si>
-    <t>56.1704178776926, 10.131959264136771</t>
-  </si>
-  <si>
-    <t>Grimhøj Disc Golf Field</t>
-  </si>
-  <si>
-    <t>Vestereng Disc Golf Field</t>
-  </si>
-  <si>
-    <t>Disc golf field with 18 holes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disc golf field with 9 holes.  </t>
-  </si>
-  <si>
-    <t>56.18872749097491, 10.091260207737502</t>
-  </si>
-  <si>
-    <t>Tilst Disc Golf Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disc golf field with 18 holes.  </t>
-  </si>
-  <si>
-    <t>Langenæsparken</t>
-  </si>
-  <si>
-    <t>Park at Langenæs with disc golf fields.</t>
-  </si>
-  <si>
-    <t>56.15873842215142, 10.209945582621554</t>
-  </si>
-  <si>
-    <t>Latinerkvarteret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charming and colorful neighbourhood in Aarhus C with cafees, restaurants, museums, cinemas etc. </t>
-  </si>
-  <si>
-    <t>56.143444698031324, 10.181503810385879</t>
-  </si>
-  <si>
-    <t>56.18435419009484, 10.18361706830285</t>
-  </si>
-  <si>
-    <t>Møllestien</t>
-  </si>
-  <si>
-    <t>56.1566271800262, 10.201198332853597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charmin and colorful street in Aarhus C. </t>
-  </si>
-  <si>
-    <t>Royal Casino</t>
-  </si>
-  <si>
-    <t>56.15763436851299, 10.210056382516806</t>
-  </si>
-  <si>
-    <t>Casino located in the centre of Aarhus</t>
-  </si>
-  <si>
-    <t>Bazar Vest</t>
-  </si>
-  <si>
-    <t>56.163062356328545, 10.1335757818462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Eastern market which offers fresh fruits and vegetables, groceries, food, and clothing.  </t>
-  </si>
-  <si>
-    <t>56.18671026455704, 10.187693581279355</t>
-  </si>
-  <si>
-    <t>Ovartaci Museum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This muesum is located at a psychiatric hospital from 1852 and exhibits historical exhibitions and work of art from previous patients of the hospital. </t>
-  </si>
-  <si>
-    <t>56.15873942116772, 10.193556749349098</t>
-  </si>
-  <si>
-    <t>Dansk Plakat Museum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danish Poster Museum is located in Den Gamle By, and exhibits the largest collection of posters in Northern Europe </t>
-  </si>
-  <si>
-    <t>Salling Rooftop</t>
-  </si>
-  <si>
-    <t>56.154468734070264, 10.206987924173971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salling rooftop is located on top of the department store Salling. The rooftop has an amazing panorama view, cafe, and hosts events occasionally. </t>
-  </si>
-  <si>
-    <t>Leos Legeland</t>
-  </si>
-  <si>
-    <t>56.20371030829333, 10.184617300167886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leos Play Centre is a large play centre offering many fun activities for children and the entire family. </t>
-  </si>
-  <si>
-    <t>Legelandet.dk</t>
-  </si>
-  <si>
-    <t>Legelandet.dk is a large play centre located in Brabrand. The play centre is a part of Eventpark Aarhus, who also hosts VR escape rooms, lasertag, bouncy castles, trampolines, airhockey, arcade games, and much more</t>
-  </si>
-  <si>
-    <t>56.16578942026016, 10.121523588021091</t>
+    <t xml:space="preserve">Urban escape game where the puzzle/game to be solved is located at several sites around Aarhus. </t>
+  </si>
+  <si>
+    <t>The old idyllic Møllestien lane is a picturesque cobbled street right in the centre of Aarhus. The hollyhocks and rambling roses race each other to grow up against the tiny old half-timbered houses with their small-paned windows.</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1521,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2030,8 +1820,8 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I102" sqref="I102"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2050,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2059,22 +1849,22 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" t="s">
         <v>173</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="J1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2088,7 +1878,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
@@ -2103,7 +1893,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="str" cm="1">
         <f t="array" ref="J2:K2">_xlfn.TEXTSPLIT(I2,",")</f>
@@ -2139,7 +1929,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" t="str" cm="1">
         <f t="array" ref="J3:K3">_xlfn.TEXTSPLIT(I3,",")</f>
@@ -2154,7 +1944,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2169,7 +1959,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" t="str" cm="1">
         <f t="array" ref="J4:K4">_xlfn.TEXTSPLIT(I4,",")</f>
@@ -2181,7 +1971,7 @@
     </row>
     <row r="5" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -2190,7 +1980,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -2205,7 +1995,7 @@
         <v>7</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" t="str" cm="1">
         <f t="array" ref="J5:K5">_xlfn.TEXTSPLIT(I5,",")</f>
@@ -2217,16 +2007,16 @@
     </row>
     <row r="6" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>8</v>
@@ -2241,7 +2031,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6" t="str" cm="1">
         <f t="array" ref="J6:K6">_xlfn.TEXTSPLIT(I6,",")</f>
@@ -2253,16 +2043,16 @@
     </row>
     <row r="7" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
@@ -2277,7 +2067,7 @@
         <v>7</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" t="str" cm="1">
         <f t="array" ref="J7:K7">_xlfn.TEXTSPLIT(I7,",")</f>
@@ -2289,7 +2079,7 @@
     </row>
     <row r="8" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -2298,7 +2088,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
@@ -2313,7 +2103,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" t="str" cm="1">
         <f t="array" ref="J8:K8">_xlfn.TEXTSPLIT(I8,",")</f>
@@ -2325,7 +2115,7 @@
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -2340,13 +2130,13 @@
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" t="str" cm="1">
         <f t="array" ref="J9:K9">_xlfn.TEXTSPLIT(I9,",")</f>
@@ -2358,10 +2148,10 @@
     </row>
     <row r="10" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
         <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -2379,7 +2169,7 @@
         <v>7</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" t="str" cm="1">
         <f t="array" ref="J10:K10">_xlfn.TEXTSPLIT(I10,",")</f>
@@ -2391,7 +2181,7 @@
     </row>
     <row r="11" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -2400,7 +2190,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>13</v>
@@ -2415,7 +2205,7 @@
         <v>7</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" t="str" cm="1">
         <f t="array" ref="J11:K11">_xlfn.TEXTSPLIT(I11,",")</f>
@@ -2427,7 +2217,7 @@
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -2436,7 +2226,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -2451,7 +2241,7 @@
         <v>7</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12" t="str" cm="1">
         <f t="array" ref="J12:K12">_xlfn.TEXTSPLIT(I12,",")</f>
@@ -2463,7 +2253,7 @@
     </row>
     <row r="13" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -2472,7 +2262,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>8</v>
@@ -2487,7 +2277,7 @@
         <v>7</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J13" t="str" cm="1">
         <f t="array" ref="J13:K13">_xlfn.TEXTSPLIT(I13,",")</f>
@@ -2499,31 +2289,31 @@
     </row>
     <row r="14" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="H14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="J14" t="str" cm="1">
         <f t="array" ref="J14:K14">_xlfn.TEXTSPLIT(I14,",")</f>
@@ -2535,25 +2325,25 @@
     </row>
     <row r="15" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="J15" t="str" cm="1">
         <f t="array" ref="J15:K15">_xlfn.TEXTSPLIT(I15,",")</f>
@@ -2565,7 +2355,7 @@
     </row>
     <row r="16" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -2574,7 +2364,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>8</v>
@@ -2589,7 +2379,7 @@
         <v>7</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J16" t="str" cm="1">
         <f t="array" ref="J16:K16">_xlfn.TEXTSPLIT(I16,",")</f>
@@ -2601,31 +2391,31 @@
     </row>
     <row r="17" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="J17" t="str" cm="1">
         <f t="array" ref="J17:K17">_xlfn.TEXTSPLIT(I17,",")</f>
@@ -2637,31 +2427,31 @@
     </row>
     <row r="18" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="J18" t="str" cm="1">
         <f t="array" ref="J18:K18">_xlfn.TEXTSPLIT(I18,",")</f>
@@ -2673,16 +2463,16 @@
     </row>
     <row r="19" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>13</v>
@@ -2697,7 +2487,7 @@
         <v>7</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J19" t="str" cm="1">
         <f t="array" ref="J19:K19">_xlfn.TEXTSPLIT(I19,",")</f>
@@ -2709,16 +2499,16 @@
     </row>
     <row r="20" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
         <v>68</v>
       </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>8</v>
@@ -2733,7 +2523,7 @@
         <v>7</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J20" t="str" cm="1">
         <f t="array" ref="J20:K20">_xlfn.TEXTSPLIT(I20,",")</f>
@@ -2745,16 +2535,16 @@
     </row>
     <row r="21" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
         <v>72</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -2769,7 +2559,7 @@
         <v>7</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J21" t="str" cm="1">
         <f t="array" ref="J21:K21">_xlfn.TEXTSPLIT(I21,",")</f>
@@ -2781,31 +2571,31 @@
     </row>
     <row r="22" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="J22" t="str" cm="1">
         <f t="array" ref="J22:K22">_xlfn.TEXTSPLIT(I22,",")</f>
@@ -2817,31 +2607,31 @@
     </row>
     <row r="23" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B23" t="s">
-        <v>177</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="J23" t="str" cm="1">
         <f t="array" ref="J23:K23">_xlfn.TEXTSPLIT(I23,",")</f>
@@ -2853,31 +2643,31 @@
     </row>
     <row r="24" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B24" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="J24" t="str" cm="1">
         <f t="array" ref="J24:K24">_xlfn.TEXTSPLIT(I24,",")</f>
@@ -2889,31 +2679,31 @@
     </row>
     <row r="25" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B25" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="J25" t="str" cm="1">
         <f t="array" ref="J25:K25">_xlfn.TEXTSPLIT(I25,",")</f>
@@ -2925,31 +2715,31 @@
     </row>
     <row r="26" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
         <v>88</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="J26" t="str" cm="1">
         <f t="array" ref="J26:K26">_xlfn.TEXTSPLIT(I26,",")</f>
@@ -2961,31 +2751,31 @@
     </row>
     <row r="27" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="J27" t="str" cm="1">
         <f t="array" ref="J27:K27">_xlfn.TEXTSPLIT(I27,",")</f>
@@ -2997,31 +2787,31 @@
     </row>
     <row r="28" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="J28" t="str" cm="1">
         <f t="array" ref="J28:K28">_xlfn.TEXTSPLIT(I28,",")</f>
@@ -3033,31 +2823,31 @@
     </row>
     <row r="29" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" t="s">
         <v>97</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="J29" t="str" cm="1">
         <f t="array" ref="J29:K29">_xlfn.TEXTSPLIT(I29,",")</f>
@@ -3069,7 +2859,7 @@
     </row>
     <row r="30" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -3078,22 +2868,22 @@
         <v>7</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="J30" t="str" cm="1">
         <f t="array" ref="J30:K30">_xlfn.TEXTSPLIT(I30,",")</f>
@@ -3105,16 +2895,16 @@
     </row>
     <row r="31" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>8</v>
@@ -3129,7 +2919,7 @@
         <v>7</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J31" t="str" cm="1">
         <f t="array" ref="J31:K31">_xlfn.TEXTSPLIT(I31,",")</f>
@@ -3141,17 +2931,17 @@
     </row>
     <row r="32" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
@@ -3159,13 +2949,13 @@
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s">
         <v>7</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J32" t="str" cm="1">
         <f t="array" ref="J32:K32">_xlfn.TEXTSPLIT(I32,",")</f>
@@ -3177,31 +2967,31 @@
     </row>
     <row r="33" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" t="s">
-        <v>41</v>
-      </c>
-      <c r="H33" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="J33" t="str" cm="1">
         <f t="array" ref="J33:K33">_xlfn.TEXTSPLIT(I33,",")</f>
@@ -3213,7 +3003,7 @@
     </row>
     <row r="34" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -3222,7 +3012,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>13</v>
@@ -3237,7 +3027,7 @@
         <v>7</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J34" t="str" cm="1">
         <f t="array" ref="J34:K34">_xlfn.TEXTSPLIT(I34,",")</f>
@@ -3249,16 +3039,16 @@
     </row>
     <row r="35" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>8</v>
@@ -3273,7 +3063,7 @@
         <v>7</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J35" t="str" cm="1">
         <f t="array" ref="J35:K35">_xlfn.TEXTSPLIT(I35,",")</f>
@@ -3285,7 +3075,7 @@
     </row>
     <row r="36" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -3294,7 +3084,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>13</v>
@@ -3309,7 +3099,7 @@
         <v>7</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J36" t="str" cm="1">
         <f t="array" ref="J36:K36">_xlfn.TEXTSPLIT(I36,",")</f>
@@ -3321,31 +3111,31 @@
     </row>
     <row r="37" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" t="s">
-        <v>50</v>
-      </c>
-      <c r="H37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="J37" t="str" cm="1">
         <f t="array" ref="J37:K37">_xlfn.TEXTSPLIT(I37,",")</f>
@@ -3357,31 +3147,31 @@
     </row>
     <row r="38" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="J38" t="str" cm="1">
         <f t="array" ref="J38:K38">_xlfn.TEXTSPLIT(I38,",")</f>
@@ -3393,31 +3183,31 @@
     </row>
     <row r="39" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="E39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" t="s">
-        <v>50</v>
-      </c>
-      <c r="H39" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="J39" t="str" cm="1">
         <f t="array" ref="J39:K39">_xlfn.TEXTSPLIT(I39,",")</f>
@@ -3429,31 +3219,31 @@
     </row>
     <row r="40" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="E40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" t="s">
-        <v>50</v>
-      </c>
-      <c r="H40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="J40" t="str" cm="1">
         <f t="array" ref="J40:K40">_xlfn.TEXTSPLIT(I40,",")</f>
@@ -3465,16 +3255,16 @@
     </row>
     <row r="41" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="B41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>8</v>
@@ -3489,7 +3279,7 @@
         <v>7</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J41" t="str" cm="1">
         <f t="array" ref="J41:K41">_xlfn.TEXTSPLIT(I41,",")</f>
@@ -3501,16 +3291,16 @@
     </row>
     <row r="42" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
@@ -3525,7 +3315,7 @@
         <v>7</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J42" t="str" cm="1">
         <f t="array" ref="J42:K42">_xlfn.TEXTSPLIT(I42,",")</f>
@@ -3537,7 +3327,7 @@
     </row>
     <row r="43" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -3546,7 +3336,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>13</v>
@@ -3561,7 +3351,7 @@
         <v>7</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J43" t="str" cm="1">
         <f t="array" ref="J43:K43">_xlfn.TEXTSPLIT(I43,",")</f>
@@ -3573,16 +3363,16 @@
     </row>
     <row r="44" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B44" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>13</v>
@@ -3597,7 +3387,7 @@
         <v>7</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J44" t="str" cm="1">
         <f t="array" ref="J44:K44">_xlfn.TEXTSPLIT(I44,",")</f>
@@ -3609,16 +3399,16 @@
     </row>
     <row r="45" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>13</v>
@@ -3633,7 +3423,7 @@
         <v>7</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J45" t="str" cm="1">
         <f t="array" ref="J45:K45">_xlfn.TEXTSPLIT(I45,",")</f>
@@ -3645,7 +3435,7 @@
     </row>
     <row r="46" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -3654,7 +3444,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>13</v>
@@ -3669,7 +3459,7 @@
         <v>7</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J46" t="str" cm="1">
         <f t="array" ref="J46:K46">_xlfn.TEXTSPLIT(I46,",")</f>
@@ -3681,16 +3471,16 @@
     </row>
     <row r="47" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="B47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
@@ -3705,7 +3495,7 @@
         <v>7</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J47" t="str" cm="1">
         <f t="array" ref="J47:K47">_xlfn.TEXTSPLIT(I47,",")</f>
@@ -3717,16 +3507,16 @@
     </row>
     <row r="48" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="B48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>8</v>
@@ -3741,7 +3531,7 @@
         <v>7</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J48" t="str" cm="1">
         <f t="array" ref="J48:K48">_xlfn.TEXTSPLIT(I48,",")</f>
@@ -3753,16 +3543,16 @@
     </row>
     <row r="49" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="B49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>13</v>
@@ -3777,7 +3567,7 @@
         <v>7</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J49" t="str" cm="1">
         <f t="array" ref="J49:K49">_xlfn.TEXTSPLIT(I49,",")</f>
@@ -3789,7 +3579,7 @@
     </row>
     <row r="50" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -3798,7 +3588,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>13</v>
@@ -3807,13 +3597,13 @@
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H50" t="s">
         <v>7</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J50" t="str" cm="1">
         <f t="array" ref="J50:K50">_xlfn.TEXTSPLIT(I50,",")</f>
@@ -3825,16 +3615,16 @@
     </row>
     <row r="51" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="B51" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>13</v>
@@ -3849,7 +3639,7 @@
         <v>7</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J51" t="str" cm="1">
         <f t="array" ref="J51:K51">_xlfn.TEXTSPLIT(I51,",")</f>
@@ -3861,31 +3651,31 @@
     </row>
     <row r="52" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" t="s">
+        <v>324</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="J52" t="str" cm="1">
         <f t="array" ref="J52:K52">_xlfn.TEXTSPLIT(I52,",")</f>
@@ -3897,31 +3687,31 @@
     </row>
     <row r="53" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B53" t="s">
+      <c r="E53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" t="s">
-        <v>41</v>
-      </c>
-      <c r="H53" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="J53" t="str" cm="1">
         <f t="array" ref="J53:K53">_xlfn.TEXTSPLIT(I53,",")</f>
@@ -3933,16 +3723,16 @@
     </row>
     <row r="54" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>184</v>
+        <v>311</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>8</v>
@@ -3957,7 +3747,7 @@
         <v>7</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J54" t="str" cm="1">
         <f t="array" ref="J54:K54">_xlfn.TEXTSPLIT(I54,",")</f>
@@ -3969,16 +3759,16 @@
     </row>
     <row r="55" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>184</v>
+        <v>311</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>8</v>
@@ -3993,7 +3783,7 @@
         <v>7</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J55" t="str" cm="1">
         <f t="array" ref="J55:K55">_xlfn.TEXTSPLIT(I55,",")</f>
@@ -4005,16 +3795,16 @@
     </row>
     <row r="56" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>8</v>
@@ -4029,7 +3819,7 @@
         <v>7</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J56" t="str" cm="1">
         <f t="array" ref="J56:K56">_xlfn.TEXTSPLIT(I56,",")</f>
@@ -4041,16 +3831,16 @@
     </row>
     <row r="57" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>192</v>
+      <c r="D57" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>8</v>
@@ -4065,7 +3855,7 @@
         <v>7</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J57" t="str" cm="1">
         <f t="array" ref="J57:K57">_xlfn.TEXTSPLIT(I57,",")</f>
@@ -4077,16 +3867,16 @@
     </row>
     <row r="58" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -4101,7 +3891,7 @@
         <v>7</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J58" t="str" cm="1">
         <f t="array" ref="J58:K58">_xlfn.TEXTSPLIT(I58,",")</f>
@@ -4113,7 +3903,7 @@
     </row>
     <row r="59" spans="1:11" ht="70" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -4122,7 +3912,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>198</v>
+        <v>317</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>8</v>
@@ -4131,13 +3921,13 @@
         <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H59" t="s">
         <v>7</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J59" t="str" cm="1">
         <f t="array" ref="J59:K59">_xlfn.TEXTSPLIT(I59,",")</f>
@@ -4149,16 +3939,16 @@
     </row>
     <row r="60" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>8</v>
@@ -4167,13 +3957,13 @@
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H60" t="s">
         <v>7</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="J60" t="str" cm="1">
         <f t="array" ref="J60:K60">_xlfn.TEXTSPLIT(I60,",")</f>
@@ -4185,16 +3975,16 @@
     </row>
     <row r="61" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>204</v>
+        <v>313</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>8</v>
@@ -4203,13 +3993,13 @@
         <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H61" t="s">
         <v>7</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="J61" t="str" cm="1">
         <f t="array" ref="J61:K61">_xlfn.TEXTSPLIT(I61,",")</f>
@@ -4221,16 +4011,16 @@
     </row>
     <row r="62" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>207</v>
+        <v>314</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>8</v>
@@ -4239,13 +4029,13 @@
         <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H62" t="s">
         <v>7</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="J62" t="str" cm="1">
         <f t="array" ref="J62:K62">_xlfn.TEXTSPLIT(I62,",")</f>
@@ -4257,16 +4047,16 @@
     </row>
     <row r="63" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B63" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>204</v>
+        <v>313</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>8</v>
@@ -4275,13 +4065,13 @@
         <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H63" t="s">
         <v>7</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="J63" t="str" cm="1">
         <f t="array" ref="J63:K63">_xlfn.TEXTSPLIT(I63,",")</f>
@@ -4293,16 +4083,16 @@
     </row>
     <row r="64" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>83</v>
+        <v>315</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>8</v>
@@ -4311,13 +4101,13 @@
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H64" t="s">
         <v>7</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="J64" t="str" cm="1">
         <f t="array" ref="J64:K64">_xlfn.TEXTSPLIT(I64,",")</f>
@@ -4329,16 +4119,16 @@
     </row>
     <row r="65" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>214</v>
+        <v>316</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>8</v>
@@ -4347,13 +4137,13 @@
         <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H65" t="s">
         <v>7</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="J65" t="str" cm="1">
         <f t="array" ref="J65:K65">_xlfn.TEXTSPLIT(I65,",")</f>
@@ -4365,16 +4155,16 @@
     </row>
     <row r="66" spans="1:11" ht="69" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>218</v>
+        <v>319</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>8</v>
@@ -4383,13 +4173,13 @@
         <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H66" t="s">
         <v>7</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="J66" t="str" cm="1">
         <f t="array" ref="J66:K66">_xlfn.TEXTSPLIT(I66,",")</f>
@@ -4401,16 +4191,16 @@
     </row>
     <row r="67" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>8</v>
@@ -4419,13 +4209,13 @@
         <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H67" t="s">
         <v>7</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="J67" t="str" cm="1">
         <f t="array" ref="J67:K67">_xlfn.TEXTSPLIT(I67,",")</f>
@@ -4437,16 +4227,16 @@
     </row>
     <row r="68" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>8</v>
@@ -4455,13 +4245,13 @@
         <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H68" t="s">
         <v>7</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="J68" t="str" cm="1">
         <f t="array" ref="J68:K68">_xlfn.TEXTSPLIT(I68,",")</f>
@@ -4473,16 +4263,16 @@
     </row>
     <row r="69" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>8</v>
@@ -4491,13 +4281,13 @@
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H69" t="s">
         <v>7</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="J69" t="str" cm="1">
         <f t="array" ref="J69:K69">_xlfn.TEXTSPLIT(I69,",")</f>
@@ -4509,16 +4299,16 @@
     </row>
     <row r="70" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>8</v>
@@ -4527,13 +4317,13 @@
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H70" t="s">
         <v>7</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="J70" t="str" cm="1">
         <f t="array" ref="J70:K70">_xlfn.TEXTSPLIT(I70,",")</f>
@@ -4545,16 +4335,16 @@
     </row>
     <row r="71" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>8</v>
@@ -4563,13 +4353,13 @@
         <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H71" t="s">
         <v>7</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="J71" t="str" cm="1">
         <f t="array" ref="J71:K71">_xlfn.TEXTSPLIT(I71,",")</f>
@@ -4581,16 +4371,16 @@
     </row>
     <row r="72" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>8</v>
@@ -4599,13 +4389,13 @@
         <v>7</v>
       </c>
       <c r="G72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H72" t="s">
         <v>7</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="J72" t="str" cm="1">
         <f t="array" ref="J72:K72">_xlfn.TEXTSPLIT(I72,",")</f>
@@ -4617,16 +4407,16 @@
     </row>
     <row r="73" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>13</v>
@@ -4641,7 +4431,7 @@
         <v>7</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="J73" t="str" cm="1">
         <f t="array" ref="J73:K73">_xlfn.TEXTSPLIT(I73,",")</f>
@@ -4653,16 +4443,16 @@
     </row>
     <row r="74" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>8</v>
@@ -4677,7 +4467,7 @@
         <v>7</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="J74" t="str" cm="1">
         <f t="array" ref="J74:K74">_xlfn.TEXTSPLIT(I74,",")</f>
@@ -4689,16 +4479,16 @@
     </row>
     <row r="75" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>8</v>
@@ -4713,7 +4503,7 @@
         <v>7</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="J75" t="str" cm="1">
         <f t="array" ref="J75:K75">_xlfn.TEXTSPLIT(I75,",")</f>
@@ -4725,16 +4515,16 @@
     </row>
     <row r="76" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>249</v>
+        <v>321</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>8</v>
@@ -4749,7 +4539,7 @@
         <v>7</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="J76" t="str" cm="1">
         <f t="array" ref="J76:K76">_xlfn.TEXTSPLIT(I76,",")</f>
@@ -4761,16 +4551,16 @@
     </row>
     <row r="77" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>13</v>
@@ -4785,7 +4575,7 @@
         <v>7</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="J77" t="str" cm="1">
         <f t="array" ref="J77:K77">_xlfn.TEXTSPLIT(I77,",")</f>
@@ -4797,16 +4587,16 @@
     </row>
     <row r="78" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>13</v>
@@ -4821,7 +4611,7 @@
         <v>7</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="J78" t="str" cm="1">
         <f t="array" ref="J78:K78">_xlfn.TEXTSPLIT(I78,",")</f>
@@ -4833,16 +4623,16 @@
     </row>
     <row r="79" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>13</v>
@@ -4851,13 +4641,13 @@
         <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H79" t="s">
         <v>7</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="J79" t="str" cm="1">
         <f t="array" ref="J79:K79">_xlfn.TEXTSPLIT(I79,",")</f>
@@ -4869,16 +4659,16 @@
     </row>
     <row r="80" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>13</v>
@@ -4887,13 +4677,13 @@
         <v>7</v>
       </c>
       <c r="G80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H80" t="s">
         <v>7</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="J80" t="str" cm="1">
         <f t="array" ref="J80:K80">_xlfn.TEXTSPLIT(I80,",")</f>
@@ -4905,16 +4695,16 @@
     </row>
     <row r="81" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>13</v>
@@ -4923,13 +4713,13 @@
         <v>7</v>
       </c>
       <c r="G81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H81" t="s">
         <v>7</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="J81" t="str" cm="1">
         <f t="array" ref="J81:K81">_xlfn.TEXTSPLIT(I81,",")</f>
@@ -4941,16 +4731,16 @@
     </row>
     <row r="82" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>13</v>
@@ -4965,7 +4755,7 @@
         <v>7</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="J82" t="str" cm="1">
         <f t="array" ref="J82:K82">_xlfn.TEXTSPLIT(I82,",")</f>
@@ -4977,16 +4767,16 @@
     </row>
     <row r="83" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B83" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>8</v>
@@ -5001,7 +4791,7 @@
         <v>7</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="J83" t="str" cm="1">
         <f t="array" ref="J83:K83">_xlfn.TEXTSPLIT(I83,",")</f>
@@ -5013,16 +4803,16 @@
     </row>
     <row r="84" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>8</v>
@@ -5037,7 +4827,7 @@
         <v>7</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="J84" t="str" cm="1">
         <f t="array" ref="J84:K84">_xlfn.TEXTSPLIT(I84,",")</f>
@@ -5049,16 +4839,16 @@
     </row>
     <row r="85" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>8</v>
@@ -5073,7 +4863,7 @@
         <v>7</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="J85" t="str" cm="1">
         <f t="array" ref="J85:K85">_xlfn.TEXTSPLIT(I85,",")</f>
@@ -5085,16 +4875,16 @@
     </row>
     <row r="86" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>8</v>
@@ -5103,13 +4893,13 @@
         <v>7</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H86" t="s">
         <v>7</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="J86" t="str" cm="1">
         <f t="array" ref="J86:K86">_xlfn.TEXTSPLIT(I86,",")</f>
@@ -5121,16 +4911,16 @@
     </row>
     <row r="87" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>13</v>
@@ -5145,7 +4935,7 @@
         <v>7</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="J87" t="str" cm="1">
         <f t="array" ref="J87:K87">_xlfn.TEXTSPLIT(I87,",")</f>
@@ -5157,16 +4947,16 @@
     </row>
     <row r="88" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>8</v>
@@ -5175,13 +4965,13 @@
         <v>7</v>
       </c>
       <c r="G88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H88" t="s">
         <v>7</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="J88" t="str" cm="1">
         <f t="array" ref="J88:K88">_xlfn.TEXTSPLIT(I88,",")</f>
@@ -5193,16 +4983,16 @@
     </row>
     <row r="89" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>8</v>
@@ -5217,7 +5007,7 @@
         <v>7</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="J89" t="str" cm="1">
         <f t="array" ref="J89:K89">_xlfn.TEXTSPLIT(I89,",")</f>
@@ -5229,16 +5019,16 @@
     </row>
     <row r="90" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B90" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>8</v>
@@ -5247,13 +5037,13 @@
         <v>7</v>
       </c>
       <c r="G90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H90" t="s">
         <v>7</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="J90" t="str" cm="1">
         <f t="array" ref="J90:K90">_xlfn.TEXTSPLIT(I90,",")</f>
@@ -5265,16 +5055,16 @@
     </row>
     <row r="91" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B91" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
@@ -5283,13 +5073,13 @@
         <v>7</v>
       </c>
       <c r="G91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H91" t="s">
         <v>7</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="J91" t="str" cm="1">
         <f t="array" ref="J91:K91">_xlfn.TEXTSPLIT(I91,",")</f>
@@ -5301,16 +5091,16 @@
     </row>
     <row r="92" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>8</v>
@@ -5319,13 +5109,13 @@
         <v>7</v>
       </c>
       <c r="G92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H92" t="s">
         <v>7</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="J92" t="str" cm="1">
         <f t="array" ref="J92:K92">_xlfn.TEXTSPLIT(I92,",")</f>
@@ -5337,16 +5127,16 @@
     </row>
     <row r="93" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B93" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>8</v>
@@ -5355,13 +5145,13 @@
         <v>7</v>
       </c>
       <c r="G93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H93" t="s">
         <v>7</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="J93" t="str" cm="1">
         <f t="array" ref="J93:K93">_xlfn.TEXTSPLIT(I93,",")</f>
@@ -5373,16 +5163,16 @@
     </row>
     <row r="94" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>324</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>8</v>
@@ -5391,13 +5181,13 @@
         <v>7</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H94" t="s">
         <v>7</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="J94" t="str" cm="1">
         <f t="array" ref="J94:K94">_xlfn.TEXTSPLIT(I94,",")</f>
@@ -5409,16 +5199,16 @@
     </row>
     <row r="95" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>324</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>8</v>
@@ -5427,13 +5217,13 @@
         <v>7</v>
       </c>
       <c r="G95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H95" t="s">
         <v>7</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="J95" t="str" cm="1">
         <f t="array" ref="J95:K95">_xlfn.TEXTSPLIT(I95,",")</f>
@@ -5445,16 +5235,16 @@
     </row>
     <row r="96" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>13</v>
@@ -5469,7 +5259,7 @@
         <v>7</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="J96" t="str" cm="1">
         <f t="array" ref="J96:K96">_xlfn.TEXTSPLIT(I96,",")</f>
@@ -5481,16 +5271,16 @@
     </row>
     <row r="97" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B97" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>8</v>
@@ -5505,7 +5295,7 @@
         <v>7</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="J97" t="str" cm="1">
         <f t="array" ref="J97:K97">_xlfn.TEXTSPLIT(I97,",")</f>
@@ -5517,7 +5307,7 @@
     </row>
     <row r="98" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -5526,7 +5316,7 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>8</v>
@@ -5541,7 +5331,7 @@
         <v>7</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="J98" t="str" cm="1">
         <f t="array" ref="J98:K98">_xlfn.TEXTSPLIT(I98,",")</f>
@@ -5553,7 +5343,7 @@
     </row>
     <row r="99" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -5562,7 +5352,7 @@
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>8</v>
@@ -5577,7 +5367,7 @@
         <v>7</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="J99" t="str" cm="1">
         <f t="array" ref="J99:K99">_xlfn.TEXTSPLIT(I99,",")</f>
@@ -5589,16 +5379,16 @@
     </row>
     <row r="100" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>324</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>8</v>
@@ -5607,13 +5397,13 @@
         <v>7</v>
       </c>
       <c r="G100" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H100" t="s">
         <v>7</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="J100" t="str" cm="1">
         <f t="array" ref="J100:K100">_xlfn.TEXTSPLIT(I100,",")</f>
@@ -5625,16 +5415,16 @@
     </row>
     <row r="101" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>8</v>
@@ -5649,7 +5439,7 @@
         <v>7</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="J101" t="str" cm="1">
         <f t="array" ref="J101:K101">_xlfn.TEXTSPLIT(I101,",")</f>
@@ -5661,16 +5451,16 @@
     </row>
     <row r="102" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>8</v>
@@ -5685,7 +5475,7 @@
         <v>7</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="J102" t="str" cm="1">
         <f t="array" ref="J102:K102">_xlfn.TEXTSPLIT(I102,",")</f>

--- a/data/DiscoverAarhus.xlsx
+++ b/data/DiscoverAarhus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rikkeuldbaek/Library/Mobile Documents/com~apple~CloudDocs/Cognitive Science/6th_semester/spatial_analytics/DiscoverAarhus/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D346F661-D434-6149-9F91-B45D3A9B49B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936A58CA-8A9E-BC4A-979E-F80A796E0B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="21980" windowHeight="15440" xr2:uid="{5C004500-1A4C-4740-8589-9D39A3377470}"/>
+    <workbookView xWindow="220" yWindow="500" windowWidth="28580" windowHeight="15440" xr2:uid="{5C004500-1A4C-4740-8589-9D39A3377470}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="329">
   <si>
     <t>name</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Venue</t>
   </si>
   <si>
-    <t>Spillested</t>
-  </si>
-  <si>
     <t>Adults</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>ARoS is the main art museum in Aarhus and a unique international art museum for young as old.  ARoS has been awarded two Michelin stars in Michelin's tourism guide</t>
-  </si>
-  <si>
     <t>56.15406836215421, 10.1997481837217</t>
   </si>
   <si>
@@ -144,15 +138,6 @@
     <t>56.156642957386495, 10.209155443539524</t>
   </si>
   <si>
-    <t>Gothic church dating from the 12th century dedicated to Saint Clement, with fresco-covered arches.</t>
-  </si>
-  <si>
-    <t>Underground Viking museum with interactive exhibits, model streets &amp; archaeological artifacts.</t>
-  </si>
-  <si>
-    <t>Inaugurated in 1900, this theater features a decorative facade &amp; lavish interiors.</t>
-  </si>
-  <si>
     <t>Den Gamle By</t>
   </si>
   <si>
@@ -171,18 +156,12 @@
     <t>56.16053918195692, 10.209330189645595</t>
   </si>
   <si>
-    <t>State-run cultural &amp; historical museum examining women's experiences in Denmark throughout the ages.</t>
-  </si>
-  <si>
     <t>Museum of Ancient Art</t>
   </si>
   <si>
     <t>56.17078053216425, 10.200483772427283</t>
   </si>
   <si>
-    <t>Museum showcasing ancient Mediterranean casts &amp; objects, from the Bronze Age to the Roman Empire.</t>
-  </si>
-  <si>
     <t>Indoor and Outdoor</t>
   </si>
   <si>
@@ -192,78 +171,48 @@
     <t>56.16765057867399, 10.202586624271312</t>
   </si>
   <si>
-    <t>Educational museum featuring 5 exhibits of preserved animals, geological history &amp; a gift shop.</t>
-  </si>
-  <si>
     <t>Steno Museum</t>
   </si>
   <si>
     <t>56.165727083753616, 10.202844116333848</t>
   </si>
   <si>
-    <t>Science museum featuring several permanent exhibitions aimed at children &amp; adults alike.</t>
-  </si>
-  <si>
     <t>Botanical Garden</t>
   </si>
   <si>
-    <t>Grassy lawns &amp; greenhouses with Mediterranean, desert &amp; tropical plants, plus picnic tables.</t>
-  </si>
-  <si>
     <t>Outdoor</t>
   </si>
   <si>
     <t>56.16249642367417, 10.189673741560096</t>
   </si>
   <si>
-    <t>Greenhouses in the Botanical Garden</t>
-  </si>
-  <si>
     <t>56.160214447700014, 10.194194037496759</t>
   </si>
   <si>
-    <t>This botanical garden’s greenhouses are themed to 4 different international climate zones.</t>
-  </si>
-  <si>
     <t>Musikhuset</t>
   </si>
   <si>
     <t>56.15305240902137, 10.199730625159875</t>
   </si>
   <si>
-    <t>Live music venue with several different types of music and shows.</t>
-  </si>
-  <si>
     <t>Rådhusparken</t>
   </si>
   <si>
     <t>56.15186094237423, 10.2017439297455</t>
   </si>
   <si>
-    <t>Small, relaxed city park featuring garden areas, open lawns, large trees &amp; various sculptures.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mølleparken </t>
   </si>
   <si>
-    <t>Walks, sports &amp; striking public sculptures by the canal, plus bar terraces &amp; live bands in summer.</t>
-  </si>
-  <si>
     <t>56.15615076370633, 10.200461084527019</t>
   </si>
   <si>
     <t>Godsbanen</t>
   </si>
   <si>
-    <t>Cultural center</t>
-  </si>
-  <si>
     <t>56.15387193707342, 10.193904612138315</t>
   </si>
   <si>
-    <t>Workshops open for public use dealing in pottery, metal &amp; woodwork, graphic design &amp; laser cutting.</t>
-  </si>
-  <si>
     <t>Aarhus Svømmestadion</t>
   </si>
   <si>
@@ -273,18 +222,12 @@
     <t>56.14406869601327, 10.197232145156663</t>
   </si>
   <si>
-    <t>Public indoor swimming pool</t>
-  </si>
-  <si>
     <t>Badeanstalten Spanien</t>
   </si>
   <si>
     <t>Wellness</t>
   </si>
   <si>
-    <t>Indoor pool and spa with sauna and steam showers</t>
-  </si>
-  <si>
     <t>56.15177488532618, 10.21140805184869</t>
   </si>
   <si>
@@ -318,9 +261,6 @@
     <t>The Infinite Bridge</t>
   </si>
   <si>
-    <t>Scenic, round bridge by the ocean</t>
-  </si>
-  <si>
     <t>56.1249728447188, 10.218198999080917</t>
   </si>
   <si>
@@ -336,18 +276,12 @@
     <t>Marselisborg Deer Park</t>
   </si>
   <si>
-    <t>Free nature preserve &amp; zpp with free-ranging wild boar &amp; deer</t>
-  </si>
-  <si>
     <t>56.12326250555318, 10.218638881257412</t>
   </si>
   <si>
     <t>Ceres Park Arena</t>
   </si>
   <si>
-    <t>Home Stadium of Aarhus' football team, AGF</t>
-  </si>
-  <si>
     <t>56.13258983489176, 10.196863436560216</t>
   </si>
   <si>
@@ -357,27 +291,18 @@
     <t>Entertainment</t>
   </si>
   <si>
-    <t>Traditional carousel &amp; Ferris wheel, plus 5D cinematic rides &amp; laser games in family amusement park.</t>
-  </si>
-  <si>
     <t>56.136990045824696, 10.1978504894666</t>
   </si>
   <si>
     <t>Ole Rømer Observatory</t>
   </si>
   <si>
-    <t>Science observatory</t>
-  </si>
-  <si>
     <t>56.128165202090166, 10.19312980165347</t>
   </si>
   <si>
     <t>Aarhus Skating Rink</t>
   </si>
   <si>
-    <t>Indoor skating rink. Only open from March-October</t>
-  </si>
-  <si>
     <t>Outdoor Skating Rink by Musikhuset</t>
   </si>
   <si>
@@ -393,54 +318,33 @@
     <t>Aarhus Beach Volley</t>
   </si>
   <si>
-    <t>Aarhus Beach Volley club, where volleyball fields can be rented. Has indoor facilities during the winter months</t>
-  </si>
-  <si>
     <t>56.18288867091209, 10.183270527435388</t>
   </si>
   <si>
     <t>Kunsthal Aarhus</t>
   </si>
   <si>
-    <t>Modern arts museum since 1917 with rotating exhibits of works in many mediums, a cafe &amp; courtyard.</t>
-  </si>
-  <si>
     <t>56.15542388479521, 10.201863600362467</t>
   </si>
   <si>
     <t>DGI Huset</t>
   </si>
   <si>
-    <t>Gym &amp; sports complex with facilities for indoor climbing, group exercise classes &amp; a cafe/bar.</t>
-  </si>
-  <si>
     <t>56.14898192945493, 10.206246329889723</t>
   </si>
   <si>
-    <t>Marina where you can eat food, gets drinks and eat icecream</t>
-  </si>
-  <si>
     <t>Train</t>
   </si>
   <si>
-    <t>Live music venue</t>
-  </si>
-  <si>
     <t>56.152364389469916, 10.212029172503145</t>
   </si>
   <si>
     <t>Aarhus Marina</t>
   </si>
   <si>
-    <t>Marina in central Aarhus</t>
-  </si>
-  <si>
     <t>56.1669844259452, 10.222377134951683</t>
   </si>
   <si>
-    <t>Public outdoor swimming pool</t>
-  </si>
-  <si>
     <t>56.16404533142663, 10.22523100481939</t>
   </si>
   <si>
@@ -450,27 +354,18 @@
     <t>Aarhus Watersports Complex</t>
   </si>
   <si>
-    <t>Watersports activities with wakeboards, water skis and SUP rentals</t>
-  </si>
-  <si>
     <t>56.16425293889803, 10.224875807537183</t>
   </si>
   <si>
     <t>Surf Agency</t>
   </si>
   <si>
-    <t>Stand Up Paddleboard club with rental possibilities and outdoor spa facilities</t>
-  </si>
-  <si>
     <t>56.16442469002892, 10.218373462445834</t>
   </si>
   <si>
     <t>Pakhus77</t>
   </si>
   <si>
-    <t>Indoor padel tennis facility</t>
-  </si>
-  <si>
     <t>56.161665437629324, 10.222763139461021</t>
   </si>
   <si>
@@ -486,15 +381,9 @@
     <t>56.15222477602261, 10.199438649907703</t>
   </si>
   <si>
-    <t>Small performing arts theater</t>
-  </si>
-  <si>
     <t>Theater</t>
   </si>
   <si>
-    <t>Performing arts theater in the center of Aarhus</t>
-  </si>
-  <si>
     <t>56.15216086621094, 10.20619901247345</t>
   </si>
   <si>
@@ -510,43 +399,28 @@
     <t>Voxhall</t>
   </si>
   <si>
-    <t>Music venue</t>
-  </si>
-  <si>
     <t>56.155927378631674, 10.198956725967193</t>
   </si>
   <si>
     <t>Aarhus Bowling Alley</t>
   </si>
   <si>
-    <t>Bowling alley</t>
-  </si>
-  <si>
     <t>56.152294248428575, 10.195866821247927</t>
   </si>
   <si>
     <t>Boulders Aarhus City</t>
   </si>
   <si>
-    <t>Rock climbing gym</t>
-  </si>
-  <si>
     <t>56.14834242576251, 10.190876539460072</t>
   </si>
   <si>
     <t>LOCKED Escape Room</t>
   </si>
   <si>
-    <t>Escape room center with several different rooms</t>
-  </si>
-  <si>
     <t>56.15105168965329, 10.20598608363786</t>
   </si>
   <si>
     <t>Volume Village</t>
-  </si>
-  <si>
-    <t>Outdoor live music venue</t>
   </si>
   <si>
     <t>56.14952765188627, 10.184209495554667</t>
@@ -1306,9 +1180,6 @@
     <t>56.15158649549781, 10.205950204877794</t>
   </si>
   <si>
-    <t>Movie theatre at Trøjborg</t>
-  </si>
-  <si>
     <t>Movie theatre at Aarhus C.</t>
   </si>
   <si>
@@ -1601,13 +1472,177 @@
   </si>
   <si>
     <t>56.16578942026016, 10.121523588021091</t>
+  </si>
+  <si>
+    <t>ARoS Aarhus Art Museum is one of Northern Europe's largest art museums and one of the most visited art museums in Scandinavia. Here you can experience Your rainbow panorama, a spectacular artwork by Olafur Eliasson.</t>
+  </si>
+  <si>
+    <t>Radar is a venue located close to the cultural hub Godsbanen. At Radar you can experience upcoming and avantgarde musical artists which are both national and international. </t>
+  </si>
+  <si>
+    <t>The Dome (Domen) is a creative and architectonic gem in the centre of Aarhus, where you can enjoy music, art and culture or simply take in the distinctive architecture and the beautiful bright room.</t>
+  </si>
+  <si>
+    <t>The Women Museum has changed it name to KØN - Gender Museum Denmark and emphasizes the cultural history between genders and discusses the gender policies, equality, body and sexuality.</t>
+  </si>
+  <si>
+    <t>The Cathedral of Aarhus is a Gothic church dating from the 12th century dedicated to Saint Clement. The cathedral is frequently used for concerts as well as normal services. On Sundays and church days the Cathedral is only open for churchgoers.</t>
+  </si>
+  <si>
+    <t>The Aarhus Theatre is a historic theater in the heart of Aarhus. With 4 stages and a total of 1,200 seats it is one of the most popular cultural attractions in Aarhus. </t>
+  </si>
+  <si>
+    <t>The Viking Museum is a window to the Viking town of Aros. Some 1200 years ago the Vikings founded Aarhus – at the very same spot and level where The Viking Museum is situated in the basement underneath the Nordea Bank in the 'Skt. Clemens Torv' Square. </t>
+  </si>
+  <si>
+    <t>'Den Gamle By' - The Old Town Museum is a perfectly unique attraction in Aarhus for the whole family to go on a fascinating journey back in history. The museum is awarded the maximum three stars in the Michelin Travel Guide. </t>
+  </si>
+  <si>
+    <t>At Øst for Paradis they show handpicked films from all over the world, in auditoria steeped in atmosphere. This cinema specialises in small, wonderful film gems which deserve a bigger audience; whether the protagonists speak Finnish, Turkish, or English is irrelevant as long as the film hits the spot.</t>
+  </si>
+  <si>
+    <t>The Museum of Ancient Art at the University of Aarhus takes you on a cultural journey back to the Mediterranean countries in ancient times.</t>
+  </si>
+  <si>
+    <t>At Naturhistorisk Museum, the Natural History Museum in Aarhus you can experience the abundance of life inhabiting the earth. Experience the museum's four permanent exhibitions and changing special exhibitions. </t>
+  </si>
+  <si>
+    <t>Explore the Universe in Aarhus. At the Steno Museum for the History of Science and Medicine both children and adults can go on a trail of discovery in the natural sciences and explore the cultural history of medicine. Here there are scientific instruments, an array of fascinating inter-activities where, amongst many other things, you can test Galileo’s law of gravity, or play with your own mirror image. </t>
+  </si>
+  <si>
+    <t>The Botanical Garden is a green oasis just to the west of Den Gamle By "The Old Town Museum" the Urban Museum in the centre of Aarhus. It is open to the public all the year round and is well worth a visit in all seasons of the year. </t>
+  </si>
+  <si>
+    <t>The Tropical Houses (in Danish "Væksthusene") in the Botanical Garden in Aarhus are a place where numerous plant collections are presented and preserved in four different climate zones.</t>
+  </si>
+  <si>
+    <t>The Tropical Houses in the Botanical Garden</t>
+  </si>
+  <si>
+    <t>The Concert Hall (Musikhuset Aarhus) has exclusive rooms for gatherings of up to 1,800 people. The primary function of the house as a facilitator of arts and culture creates a warm atmosphere in the exciting environment that people remember for the happy moments and good experiences.</t>
+  </si>
+  <si>
+    <t>Small, relaxed city park featuring garden areas, open lawns, large trees, and various sculptures.</t>
+  </si>
+  <si>
+    <t>Park located in the centre of Aarhus. Mølleparken offers sports, striking public sculptures, and walks by the canal, plus bar terraces &amp; live bands in summer.</t>
+  </si>
+  <si>
+    <t>Godsbanen is a centre for cultural production in Aarhus. Enjoy the resturant, the open workshops or the great view from the roof of the unique building.</t>
+  </si>
+  <si>
+    <t>Public indoor swimming facilities with sauna and swimmingpools.</t>
+  </si>
+  <si>
+    <t>Indoor pool and spa with sauna and steam showers.</t>
+  </si>
+  <si>
+    <t>Beach at Marselisborg.</t>
+  </si>
+  <si>
+    <t>Scenic, round bridge by the ocean at Marselisborg.</t>
+  </si>
+  <si>
+    <t>Marselisborg Marina was built in 1991 and is one of the newest in the Aarhus Area and is characterized by unconventional architecture.  At the marina you can eat food, gets drinks and eat icecream.</t>
+  </si>
+  <si>
+    <t>The Marselisborg forest and deer park is one of Denmark’s most frequently visited nature resorts and is used for an endless list of ourdoor activities such as running and cycling events. Despite the forest’s rugged terrain, it is very well-suited for hiking, just as horseback riders come in large numbers, as the forest has marked off riding trails. The forest has a nature preserve with free-ranging wild boars and deers.</t>
+  </si>
+  <si>
+    <t>Home Stadium of Aarhus' football team, AGF (KSDH).</t>
+  </si>
+  <si>
+    <t>Tivoli Friheden is a theme park in the center of Aarhus located within walking distance from the city centre in the beautiful Marselisborg Forest. Make sure to visit Tivoli Friheden this year.</t>
+  </si>
+  <si>
+    <r>
+      <t>At The Ole Rømer Observatory in Aarhus you can enjoy the fascinating sight of the lunar landscape seen through telescopes. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color rgb="FF585858"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>The Observatory is under reconstruction, and will open again in September 2023.</t>
+    </r>
+  </si>
+  <si>
+    <t>Indoor skating rink. Only open from March-October.</t>
+  </si>
+  <si>
+    <t>Aarhus Beach Volley club, where volleyball fields can be rented. Has indoor facilities during the winter months.</t>
+  </si>
+  <si>
+    <t>Kunsthal Aarhus is, with light and spacious exhibition halls, one of Denmark’s largest and most beautiful exhibition venues for contemporary art.</t>
+  </si>
+  <si>
+    <t>Gym and sports complex with facilities for indoor climbing, group exercise classes, and a cafe/bar.</t>
+  </si>
+  <si>
+    <t>Train is one of Denmark's biggest and leading music venues. At the venue you can also enjoy the excellent atmosphere at the lounge bar Kupé which is recognised as one of the country's leading nightclubs.</t>
+  </si>
+  <si>
+    <t>Aarhus Marina was built in 1933 and is worth a visit whether you arrive from the seaside or land. The maritime environment invites you to relax, have a drink or admire the wooden ships.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public outdoor swimming facilities. </t>
+  </si>
+  <si>
+    <t>Watersports activities with wakeboards, water skis and SUP rentals.</t>
+  </si>
+  <si>
+    <t>Stand Up Paddleboard club with rental possibilities and outdoor spa facilities.</t>
+  </si>
+  <si>
+    <t>Indoor padel tennis facility.</t>
+  </si>
+  <si>
+    <t>Movie theatre at Trøjborg.</t>
+  </si>
+  <si>
+    <t>HeadQuarters is a laid-back night club and music venue in Aarhus where you will find both a dance floor and cosy corners. Every week, a long list of concerts are held with a main focus on new artists.</t>
+  </si>
+  <si>
+    <t>Teater Katapult is known for their sometimes controversial but always relevant, contemporary plays. The mission is to get the audience to turn off the autopilot and relate to what is going on on stage and in society.</t>
+  </si>
+  <si>
+    <t>The Svalegangen Theatre is only 5 minutes from the Aarhus Central Station. Here you can enjoy theatre of the highest quality; performances which are entertaining and thought-provoking.</t>
+  </si>
+  <si>
+    <r>
+      <t>At VoxHall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF585858"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> you can enjoy rock concerts and music venues with lots of action on the dance floor; jazz sessions at the cosy and friendly pubs.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowling alley located in Aarhus C. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free climbing gym. </t>
+  </si>
+  <si>
+    <t>Escape room center with several different rooms.</t>
+  </si>
+  <si>
+    <t>Outdoor and indoor live music venue and cultural hub for artists.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1677,6 +1712,38 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FF585858"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="28"/>
+      <color rgb="FF585858"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF585858"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF585858"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1698,7 +1765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1713,6 +1780,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2030,13 +2101,14 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I102" sqref="I102"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="41.5" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="3"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="13.1640625" style="3" customWidth="1"/>
@@ -2050,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2059,22 +2131,22 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="J1" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="K1" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2088,7 +2160,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
@@ -2103,7 +2175,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J2" t="str" cm="1">
         <f t="array" ref="J2:K2">_xlfn.TEXTSPLIT(I2,",")</f>
@@ -2123,11 +2195,11 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -2139,7 +2211,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J3" t="str" cm="1">
         <f t="array" ref="J3:K3">_xlfn.TEXTSPLIT(I3,",")</f>
@@ -2149,16 +2221,19 @@
         <v xml:space="preserve"> 10.194693439010802</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
+      <c r="D4" s="11" t="s">
+        <v>284</v>
+      </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
@@ -2169,7 +2244,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J4" t="str" cm="1">
         <f t="array" ref="J4:K4">_xlfn.TEXTSPLIT(I4,",")</f>
@@ -2179,9 +2254,9 @@
         <v xml:space="preserve"> 10.218563426050121</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -2189,8 +2264,8 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>37</v>
+      <c r="D5" s="11" t="s">
+        <v>285</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -2205,7 +2280,7 @@
         <v>7</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J5" t="str" cm="1">
         <f t="array" ref="J5:K5">_xlfn.TEXTSPLIT(I5,",")</f>
@@ -2217,16 +2292,16 @@
     </row>
     <row r="6" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>286</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>8</v>
@@ -2241,7 +2316,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J6" t="str" cm="1">
         <f t="array" ref="J6:K6">_xlfn.TEXTSPLIT(I6,",")</f>
@@ -2251,18 +2326,18 @@
         <v xml:space="preserve"> 10.210858626581294</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
+      <c r="D7" s="11" t="s">
+        <v>287</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
@@ -2277,7 +2352,7 @@
         <v>7</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J7" t="str" cm="1">
         <f t="array" ref="J7:K7">_xlfn.TEXTSPLIT(I7,",")</f>
@@ -2287,9 +2362,9 @@
         <v xml:space="preserve"> 10.210890813089105</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -2297,8 +2372,8 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>29</v>
+      <c r="D8" s="11" t="s">
+        <v>288</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
@@ -2313,7 +2388,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J8" t="str" cm="1">
         <f t="array" ref="J8:K8">_xlfn.TEXTSPLIT(I8,",")</f>
@@ -2323,9 +2398,9 @@
         <v xml:space="preserve"> 10.209155443539524</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -2333,6 +2408,9 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
+      <c r="D9" s="11" t="s">
+        <v>289</v>
+      </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2340,13 +2418,13 @@
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J9" t="str" cm="1">
         <f t="array" ref="J9:K9">_xlfn.TEXTSPLIT(I9,",")</f>
@@ -2356,18 +2434,21 @@
         <v xml:space="preserve"> 10.193709004518515</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
+      <c r="D10" s="11" t="s">
+        <v>290</v>
+      </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
@@ -2379,7 +2460,7 @@
         <v>7</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J10" t="str" cm="1">
         <f t="array" ref="J10:K10">_xlfn.TEXTSPLIT(I10,",")</f>
@@ -2389,9 +2470,9 @@
         <v xml:space="preserve"> 10.209330189645595</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -2399,11 +2480,11 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>40</v>
+      <c r="D11" s="11" t="s">
+        <v>291</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
@@ -2415,7 +2496,7 @@
         <v>7</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J11" t="str" cm="1">
         <f t="array" ref="J11:K11">_xlfn.TEXTSPLIT(I11,",")</f>
@@ -2425,9 +2506,9 @@
         <v xml:space="preserve"> 10.200483772427283</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -2435,8 +2516,8 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>44</v>
+      <c r="D12" s="11" t="s">
+        <v>292</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -2451,7 +2532,7 @@
         <v>7</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J12" t="str" cm="1">
         <f t="array" ref="J12:K12">_xlfn.TEXTSPLIT(I12,",")</f>
@@ -2461,9 +2542,9 @@
         <v xml:space="preserve"> 10.202586624271312</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -2471,8 +2552,8 @@
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>47</v>
+      <c r="D13" s="11" t="s">
+        <v>293</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>8</v>
@@ -2487,7 +2568,7 @@
         <v>7</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J13" t="str" cm="1">
         <f t="array" ref="J13:K13">_xlfn.TEXTSPLIT(I13,",")</f>
@@ -2497,18 +2578,18 @@
         <v xml:space="preserve"> 10.202844116333848</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>49</v>
+      <c r="D14" s="11" t="s">
+        <v>294</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -2517,13 +2598,13 @@
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s">
         <v>7</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J14" t="str" cm="1">
         <f t="array" ref="J14:K14">_xlfn.TEXTSPLIT(I14,",")</f>
@@ -2533,18 +2614,18 @@
         <v xml:space="preserve"> 10.189673741560096</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="105" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>52</v>
+        <v>296</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>54</v>
+      <c r="D15" s="11" t="s">
+        <v>295</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -2553,7 +2634,7 @@
         <v>7</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J15" t="str" cm="1">
         <f t="array" ref="J15:K15">_xlfn.TEXTSPLIT(I15,",")</f>
@@ -2563,9 +2644,9 @@
         <v xml:space="preserve"> 10.194194037496759</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -2573,8 +2654,8 @@
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>57</v>
+      <c r="D16" s="11" t="s">
+        <v>297</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>8</v>
@@ -2589,7 +2670,7 @@
         <v>7</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J16" t="str" cm="1">
         <f t="array" ref="J16:K16">_xlfn.TEXTSPLIT(I16,",")</f>
@@ -2601,16 +2682,16 @@
     </row>
     <row r="17" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>60</v>
+        <v>298</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>8</v>
@@ -2619,13 +2700,13 @@
         <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
         <v>7</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="J17" t="str" cm="1">
         <f t="array" ref="J17:K17">_xlfn.TEXTSPLIT(I17,",")</f>
@@ -2637,16 +2718,16 @@
     </row>
     <row r="18" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>62</v>
+        <v>299</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>8</v>
@@ -2655,13 +2736,13 @@
         <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s">
         <v>7</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="J18" t="str" cm="1">
         <f t="array" ref="J18:K18">_xlfn.TEXTSPLIT(I18,",")</f>
@@ -2671,21 +2752,21 @@
         <v xml:space="preserve"> 10.200461084527019</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>67</v>
+      <c r="D19" s="11" t="s">
+        <v>300</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
         <v>7</v>
@@ -2697,7 +2778,7 @@
         <v>7</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="J19" t="str" cm="1">
         <f t="array" ref="J19:K19">_xlfn.TEXTSPLIT(I19,",")</f>
@@ -2709,16 +2790,16 @@
     </row>
     <row r="20" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>71</v>
+        <v>301</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>8</v>
@@ -2733,7 +2814,7 @@
         <v>7</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="J20" t="str" cm="1">
         <f t="array" ref="J20:K20">_xlfn.TEXTSPLIT(I20,",")</f>
@@ -2745,16 +2826,16 @@
     </row>
     <row r="21" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -2769,7 +2850,7 @@
         <v>7</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="J21" t="str" cm="1">
         <f t="array" ref="J21:K21">_xlfn.TEXTSPLIT(I21,",")</f>
@@ -2781,16 +2862,16 @@
     </row>
     <row r="22" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
@@ -2799,13 +2880,13 @@
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s">
         <v>7</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="J22" t="str" cm="1">
         <f t="array" ref="J22:K22">_xlfn.TEXTSPLIT(I22,",")</f>
@@ -2817,16 +2898,16 @@
     </row>
     <row r="23" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>8</v>
@@ -2835,13 +2916,13 @@
         <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s">
         <v>7</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="J23" t="str" cm="1">
         <f t="array" ref="J23:K23">_xlfn.TEXTSPLIT(I23,",")</f>
@@ -2853,16 +2934,16 @@
     </row>
     <row r="24" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>8</v>
@@ -2871,13 +2952,13 @@
         <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s">
         <v>7</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="J24" t="str" cm="1">
         <f t="array" ref="J24:K24">_xlfn.TEXTSPLIT(I24,",")</f>
@@ -2889,16 +2970,16 @@
     </row>
     <row r="25" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>86</v>
+        <v>304</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>8</v>
@@ -2907,13 +2988,13 @@
         <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s">
         <v>7</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="J25" t="str" cm="1">
         <f t="array" ref="J25:K25">_xlfn.TEXTSPLIT(I25,",")</f>
@@ -2925,16 +3006,16 @@
     </row>
     <row r="26" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>119</v>
+        <v>305</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>8</v>
@@ -2943,13 +3024,13 @@
         <v>7</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s">
         <v>7</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="J26" t="str" cm="1">
         <f t="array" ref="J26:K26">_xlfn.TEXTSPLIT(I26,",")</f>
@@ -2961,16 +3042,16 @@
     </row>
     <row r="27" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>92</v>
+        <v>306</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>8</v>
@@ -2979,13 +3060,13 @@
         <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s">
         <v>7</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="J27" t="str" cm="1">
         <f t="array" ref="J27:K27">_xlfn.TEXTSPLIT(I27,",")</f>
@@ -2997,16 +3078,16 @@
     </row>
     <row r="28" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>95</v>
+        <v>307</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>8</v>
@@ -3015,13 +3096,13 @@
         <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s">
         <v>7</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="J28" t="str" cm="1">
         <f t="array" ref="J28:K28">_xlfn.TEXTSPLIT(I28,",")</f>
@@ -3031,18 +3112,18 @@
         <v xml:space="preserve"> 10.196863436560216</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>99</v>
+      <c r="D29" s="11" t="s">
+        <v>308</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -3051,13 +3132,13 @@
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s">
         <v>7</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="J29" t="str" cm="1">
         <f t="array" ref="J29:K29">_xlfn.TEXTSPLIT(I29,",")</f>
@@ -3067,9 +3148,9 @@
         <v xml:space="preserve"> 10.1978504894666</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -3077,8 +3158,8 @@
       <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>102</v>
+      <c r="D30" s="11" t="s">
+        <v>309</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>8</v>
@@ -3087,13 +3168,13 @@
         <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H30" t="s">
         <v>7</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="J30" t="str" cm="1">
         <f t="array" ref="J30:K30">_xlfn.TEXTSPLIT(I30,",")</f>
@@ -3105,16 +3186,16 @@
     </row>
     <row r="31" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>105</v>
+        <v>310</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>8</v>
@@ -3129,7 +3210,7 @@
         <v>7</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="J31" t="str" cm="1">
         <f t="array" ref="J31:K31">_xlfn.TEXTSPLIT(I31,",")</f>
@@ -3141,16 +3222,16 @@
     </row>
     <row r="32" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>8</v>
@@ -3159,13 +3240,13 @@
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s">
         <v>7</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="J32" t="str" cm="1">
         <f t="array" ref="J32:K32">_xlfn.TEXTSPLIT(I32,",")</f>
@@ -3177,16 +3258,16 @@
     </row>
     <row r="33" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>111</v>
+        <v>311</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>8</v>
@@ -3195,13 +3276,13 @@
         <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H33" t="s">
         <v>7</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="J33" t="str" cm="1">
         <f t="array" ref="J33:K33">_xlfn.TEXTSPLIT(I33,",")</f>
@@ -3211,9 +3292,9 @@
         <v xml:space="preserve"> 10.183270527435388</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -3221,11 +3302,11 @@
       <c r="C34" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>114</v>
+      <c r="D34" s="11" t="s">
+        <v>312</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
         <v>7</v>
@@ -3237,7 +3318,7 @@
         <v>7</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="J34" t="str" cm="1">
         <f t="array" ref="J34:K34">_xlfn.TEXTSPLIT(I34,",")</f>
@@ -3249,16 +3330,16 @@
     </row>
     <row r="35" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>117</v>
+        <v>313</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>8</v>
@@ -3273,7 +3354,7 @@
         <v>7</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="J35" t="str" cm="1">
         <f t="array" ref="J35:K35">_xlfn.TEXTSPLIT(I35,",")</f>
@@ -3285,7 +3366,7 @@
     </row>
     <row r="36" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -3294,10 +3375,10 @@
         <v>7</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>121</v>
+        <v>314</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
         <v>7</v>
@@ -3309,7 +3390,7 @@
         <v>7</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="J36" t="str" cm="1">
         <f t="array" ref="J36:K36">_xlfn.TEXTSPLIT(I36,",")</f>
@@ -3319,18 +3400,18 @@
         <v xml:space="preserve"> 10.212029172503145</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>124</v>
+      <c r="D37" s="11" t="s">
+        <v>315</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>8</v>
@@ -3339,13 +3420,13 @@
         <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H37" t="s">
         <v>7</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="J37" t="str" cm="1">
         <f t="array" ref="J37:K37">_xlfn.TEXTSPLIT(I37,",")</f>
@@ -3357,16 +3438,16 @@
     </row>
     <row r="38" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>126</v>
+        <v>316</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>8</v>
@@ -3375,13 +3456,13 @@
         <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s">
         <v>7</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="J38" t="str" cm="1">
         <f t="array" ref="J38:K38">_xlfn.TEXTSPLIT(I38,",")</f>
@@ -3393,16 +3474,16 @@
     </row>
     <row r="39" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>130</v>
+        <v>317</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>8</v>
@@ -3411,13 +3492,13 @@
         <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H39" t="s">
         <v>7</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="J39" t="str" cm="1">
         <f t="array" ref="J39:K39">_xlfn.TEXTSPLIT(I39,",")</f>
@@ -3429,16 +3510,16 @@
     </row>
     <row r="40" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>8</v>
@@ -3447,13 +3528,13 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H40" t="s">
         <v>7</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="J40" t="str" cm="1">
         <f t="array" ref="J40:K40">_xlfn.TEXTSPLIT(I40,",")</f>
@@ -3465,16 +3546,16 @@
     </row>
     <row r="41" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>136</v>
+        <v>319</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>8</v>
@@ -3489,7 +3570,7 @@
         <v>7</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="J41" t="str" cm="1">
         <f t="array" ref="J41:K41">_xlfn.TEXTSPLIT(I41,",")</f>
@@ -3501,16 +3582,16 @@
     </row>
     <row r="42" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>245</v>
+        <v>320</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
@@ -3525,7 +3606,7 @@
         <v>7</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="J42" t="str" cm="1">
         <f t="array" ref="J42:K42">_xlfn.TEXTSPLIT(I42,",")</f>
@@ -3535,9 +3616,9 @@
         <v xml:space="preserve"> 10.21553190414435</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="69" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -3545,11 +3626,11 @@
       <c r="C43" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>121</v>
+      <c r="D43" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
         <v>7</v>
@@ -3561,7 +3642,7 @@
         <v>7</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="J43" t="str" cm="1">
         <f t="array" ref="J43:K43">_xlfn.TEXTSPLIT(I43,",")</f>
@@ -3571,21 +3652,21 @@
         <v xml:space="preserve"> 10.199438649907703</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>144</v>
+      <c r="D44" s="11" t="s">
+        <v>323</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
         <v>7</v>
@@ -3597,7 +3678,7 @@
         <v>7</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="J44" t="str" cm="1">
         <f t="array" ref="J44:K44">_xlfn.TEXTSPLIT(I44,",")</f>
@@ -3607,21 +3688,21 @@
         <v xml:space="preserve"> 10.20619901247345</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>142</v>
+      <c r="D45" s="11" t="s">
+        <v>322</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
         <v>7</v>
@@ -3633,7 +3714,7 @@
         <v>7</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="J45" t="str" cm="1">
         <f t="array" ref="J45:K45">_xlfn.TEXTSPLIT(I45,",")</f>
@@ -3643,9 +3724,9 @@
         <v xml:space="preserve"> 10.194383525966968</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="69" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -3653,11 +3734,11 @@
       <c r="C46" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>150</v>
+      <c r="D46" s="13" t="s">
+        <v>324</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
         <v>7</v>
@@ -3669,7 +3750,7 @@
         <v>7</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="J46" t="str" cm="1">
         <f t="array" ref="J46:K46">_xlfn.TEXTSPLIT(I46,",")</f>
@@ -3681,16 +3762,16 @@
     </row>
     <row r="47" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>153</v>
+        <v>325</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
@@ -3705,7 +3786,7 @@
         <v>7</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="J47" t="str" cm="1">
         <f t="array" ref="J47:K47">_xlfn.TEXTSPLIT(I47,",")</f>
@@ -3717,16 +3798,16 @@
     </row>
     <row r="48" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>156</v>
+        <v>326</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>8</v>
@@ -3741,7 +3822,7 @@
         <v>7</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="J48" t="str" cm="1">
         <f t="array" ref="J48:K48">_xlfn.TEXTSPLIT(I48,",")</f>
@@ -3753,19 +3834,19 @@
     </row>
     <row r="49" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>159</v>
+        <v>327</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
         <v>7</v>
@@ -3777,7 +3858,7 @@
         <v>7</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="J49" t="str" cm="1">
         <f t="array" ref="J49:K49">_xlfn.TEXTSPLIT(I49,",")</f>
@@ -3789,7 +3870,7 @@
     </row>
     <row r="50" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -3798,22 +3879,22 @@
         <v>7</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H50" t="s">
         <v>7</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="J50" t="str" cm="1">
         <f t="array" ref="J50:K50">_xlfn.TEXTSPLIT(I50,",")</f>
@@ -3825,19 +3906,19 @@
     </row>
     <row r="51" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
         <v>7</v>
@@ -3849,7 +3930,7 @@
         <v>7</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="J51" t="str" cm="1">
         <f t="array" ref="J51:K51">_xlfn.TEXTSPLIT(I51,",")</f>
@@ -3861,16 +3942,16 @@
     </row>
     <row r="52" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>8</v>
@@ -3879,13 +3960,13 @@
         <v>7</v>
       </c>
       <c r="G52" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H52" t="s">
         <v>7</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="J52" t="str" cm="1">
         <f t="array" ref="J52:K52">_xlfn.TEXTSPLIT(I52,",")</f>
@@ -3897,16 +3978,16 @@
     </row>
     <row r="53" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>8</v>
@@ -3915,13 +3996,13 @@
         <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H53" t="s">
         <v>7</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="J53" t="str" cm="1">
         <f t="array" ref="J53:K53">_xlfn.TEXTSPLIT(I53,",")</f>
@@ -3933,16 +4014,16 @@
     </row>
     <row r="54" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>8</v>
@@ -3957,7 +4038,7 @@
         <v>7</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="J54" t="str" cm="1">
         <f t="array" ref="J54:K54">_xlfn.TEXTSPLIT(I54,",")</f>
@@ -3969,16 +4050,16 @@
     </row>
     <row r="55" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>8</v>
@@ -3993,7 +4074,7 @@
         <v>7</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="J55" t="str" cm="1">
         <f t="array" ref="J55:K55">_xlfn.TEXTSPLIT(I55,",")</f>
@@ -4005,16 +4086,16 @@
     </row>
     <row r="56" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>8</v>
@@ -4029,7 +4110,7 @@
         <v>7</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="J56" t="str" cm="1">
         <f t="array" ref="J56:K56">_xlfn.TEXTSPLIT(I56,",")</f>
@@ -4041,16 +4122,16 @@
     </row>
     <row r="57" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>8</v>
@@ -4065,7 +4146,7 @@
         <v>7</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="J57" t="str" cm="1">
         <f t="array" ref="J57:K57">_xlfn.TEXTSPLIT(I57,",")</f>
@@ -4077,16 +4158,16 @@
     </row>
     <row r="58" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -4101,7 +4182,7 @@
         <v>7</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="J58" t="str" cm="1">
         <f t="array" ref="J58:K58">_xlfn.TEXTSPLIT(I58,",")</f>
@@ -4113,7 +4194,7 @@
     </row>
     <row r="59" spans="1:11" ht="70" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -4122,7 +4203,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>8</v>
@@ -4131,13 +4212,13 @@
         <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H59" t="s">
         <v>7</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="J59" t="str" cm="1">
         <f t="array" ref="J59:K59">_xlfn.TEXTSPLIT(I59,",")</f>
@@ -4149,16 +4230,16 @@
     </row>
     <row r="60" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>8</v>
@@ -4167,13 +4248,13 @@
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H60" t="s">
         <v>7</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="J60" t="str" cm="1">
         <f t="array" ref="J60:K60">_xlfn.TEXTSPLIT(I60,",")</f>
@@ -4185,16 +4266,16 @@
     </row>
     <row r="61" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>8</v>
@@ -4203,13 +4284,13 @@
         <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H61" t="s">
         <v>7</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="J61" t="str" cm="1">
         <f t="array" ref="J61:K61">_xlfn.TEXTSPLIT(I61,",")</f>
@@ -4221,16 +4302,16 @@
     </row>
     <row r="62" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>8</v>
@@ -4239,13 +4320,13 @@
         <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H62" t="s">
         <v>7</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="J62" t="str" cm="1">
         <f t="array" ref="J62:K62">_xlfn.TEXTSPLIT(I62,",")</f>
@@ -4257,16 +4338,16 @@
     </row>
     <row r="63" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="B63" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>8</v>
@@ -4275,13 +4356,13 @@
         <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H63" t="s">
         <v>7</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="J63" t="str" cm="1">
         <f t="array" ref="J63:K63">_xlfn.TEXTSPLIT(I63,",")</f>
@@ -4293,16 +4374,16 @@
     </row>
     <row r="64" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>8</v>
@@ -4311,13 +4392,13 @@
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H64" t="s">
         <v>7</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="J64" t="str" cm="1">
         <f t="array" ref="J64:K64">_xlfn.TEXTSPLIT(I64,",")</f>
@@ -4329,16 +4410,16 @@
     </row>
     <row r="65" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="B65" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>8</v>
@@ -4347,13 +4428,13 @@
         <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H65" t="s">
         <v>7</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="J65" t="str" cm="1">
         <f t="array" ref="J65:K65">_xlfn.TEXTSPLIT(I65,",")</f>
@@ -4365,16 +4446,16 @@
     </row>
     <row r="66" spans="1:11" ht="69" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>8</v>
@@ -4383,13 +4464,13 @@
         <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H66" t="s">
         <v>7</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="J66" t="str" cm="1">
         <f t="array" ref="J66:K66">_xlfn.TEXTSPLIT(I66,",")</f>
@@ -4401,16 +4482,16 @@
     </row>
     <row r="67" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>8</v>
@@ -4419,13 +4500,13 @@
         <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H67" t="s">
         <v>7</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="J67" t="str" cm="1">
         <f t="array" ref="J67:K67">_xlfn.TEXTSPLIT(I67,",")</f>
@@ -4437,16 +4518,16 @@
     </row>
     <row r="68" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="B68" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>8</v>
@@ -4455,13 +4536,13 @@
         <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H68" t="s">
         <v>7</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="J68" t="str" cm="1">
         <f t="array" ref="J68:K68">_xlfn.TEXTSPLIT(I68,",")</f>
@@ -4473,16 +4554,16 @@
     </row>
     <row r="69" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>8</v>
@@ -4491,13 +4572,13 @@
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H69" t="s">
         <v>7</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="J69" t="str" cm="1">
         <f t="array" ref="J69:K69">_xlfn.TEXTSPLIT(I69,",")</f>
@@ -4509,16 +4590,16 @@
     </row>
     <row r="70" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>8</v>
@@ -4527,13 +4608,13 @@
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H70" t="s">
         <v>7</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="J70" t="str" cm="1">
         <f t="array" ref="J70:K70">_xlfn.TEXTSPLIT(I70,",")</f>
@@ -4545,16 +4626,16 @@
     </row>
     <row r="71" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>8</v>
@@ -4563,13 +4644,13 @@
         <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H71" t="s">
         <v>7</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="J71" t="str" cm="1">
         <f t="array" ref="J71:K71">_xlfn.TEXTSPLIT(I71,",")</f>
@@ -4581,16 +4662,16 @@
     </row>
     <row r="72" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>8</v>
@@ -4599,13 +4680,13 @@
         <v>7</v>
       </c>
       <c r="G72" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H72" t="s">
         <v>7</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="J72" t="str" cm="1">
         <f t="array" ref="J72:K72">_xlfn.TEXTSPLIT(I72,",")</f>
@@ -4617,19 +4698,19 @@
     </row>
     <row r="73" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
         <v>7</v>
@@ -4641,7 +4722,7 @@
         <v>7</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="J73" t="str" cm="1">
         <f t="array" ref="J73:K73">_xlfn.TEXTSPLIT(I73,",")</f>
@@ -4653,16 +4734,16 @@
     </row>
     <row r="74" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>8</v>
@@ -4677,7 +4758,7 @@
         <v>7</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="J74" t="str" cm="1">
         <f t="array" ref="J74:K74">_xlfn.TEXTSPLIT(I74,",")</f>
@@ -4689,16 +4770,16 @@
     </row>
     <row r="75" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>8</v>
@@ -4713,7 +4794,7 @@
         <v>7</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="J75" t="str" cm="1">
         <f t="array" ref="J75:K75">_xlfn.TEXTSPLIT(I75,",")</f>
@@ -4725,16 +4806,16 @@
     </row>
     <row r="76" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>8</v>
@@ -4749,7 +4830,7 @@
         <v>7</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="J76" t="str" cm="1">
         <f t="array" ref="J76:K76">_xlfn.TEXTSPLIT(I76,",")</f>
@@ -4761,19 +4842,19 @@
     </row>
     <row r="77" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
         <v>7</v>
@@ -4785,7 +4866,7 @@
         <v>7</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="J77" t="str" cm="1">
         <f t="array" ref="J77:K77">_xlfn.TEXTSPLIT(I77,",")</f>
@@ -4797,19 +4878,19 @@
     </row>
     <row r="78" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
         <v>7</v>
@@ -4821,7 +4902,7 @@
         <v>7</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="J78" t="str" cm="1">
         <f t="array" ref="J78:K78">_xlfn.TEXTSPLIT(I78,",")</f>
@@ -4833,31 +4914,31 @@
     </row>
     <row r="79" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
         <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H79" t="s">
         <v>7</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="J79" t="str" cm="1">
         <f t="array" ref="J79:K79">_xlfn.TEXTSPLIT(I79,",")</f>
@@ -4869,31 +4950,31 @@
     </row>
     <row r="80" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
         <v>7</v>
       </c>
       <c r="G80" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H80" t="s">
         <v>7</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="J80" t="str" cm="1">
         <f t="array" ref="J80:K80">_xlfn.TEXTSPLIT(I80,",")</f>
@@ -4905,31 +4986,31 @@
     </row>
     <row r="81" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
         <v>7</v>
       </c>
       <c r="G81" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H81" t="s">
         <v>7</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="J81" t="str" cm="1">
         <f t="array" ref="J81:K81">_xlfn.TEXTSPLIT(I81,",")</f>
@@ -4941,19 +5022,19 @@
     </row>
     <row r="82" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
         <v>7</v>
@@ -4965,7 +5046,7 @@
         <v>7</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="J82" t="str" cm="1">
         <f t="array" ref="J82:K82">_xlfn.TEXTSPLIT(I82,",")</f>
@@ -4977,16 +5058,16 @@
     </row>
     <row r="83" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="B83" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>8</v>
@@ -5001,7 +5082,7 @@
         <v>7</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="J83" t="str" cm="1">
         <f t="array" ref="J83:K83">_xlfn.TEXTSPLIT(I83,",")</f>
@@ -5013,16 +5094,16 @@
     </row>
     <row r="84" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>8</v>
@@ -5037,7 +5118,7 @@
         <v>7</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="J84" t="str" cm="1">
         <f t="array" ref="J84:K84">_xlfn.TEXTSPLIT(I84,",")</f>
@@ -5049,16 +5130,16 @@
     </row>
     <row r="85" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="B85" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>8</v>
@@ -5073,7 +5154,7 @@
         <v>7</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="J85" t="str" cm="1">
         <f t="array" ref="J85:K85">_xlfn.TEXTSPLIT(I85,",")</f>
@@ -5085,16 +5166,16 @@
     </row>
     <row r="86" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>8</v>
@@ -5103,13 +5184,13 @@
         <v>7</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H86" t="s">
         <v>7</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="J86" t="str" cm="1">
         <f t="array" ref="J86:K86">_xlfn.TEXTSPLIT(I86,",")</f>
@@ -5121,19 +5202,19 @@
     </row>
     <row r="87" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
         <v>7</v>
@@ -5145,7 +5226,7 @@
         <v>7</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="J87" t="str" cm="1">
         <f t="array" ref="J87:K87">_xlfn.TEXTSPLIT(I87,",")</f>
@@ -5157,16 +5238,16 @@
     </row>
     <row r="88" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>8</v>
@@ -5175,13 +5256,13 @@
         <v>7</v>
       </c>
       <c r="G88" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H88" t="s">
         <v>7</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="J88" t="str" cm="1">
         <f t="array" ref="J88:K88">_xlfn.TEXTSPLIT(I88,",")</f>
@@ -5193,16 +5274,16 @@
     </row>
     <row r="89" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="B89" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>8</v>
@@ -5217,7 +5298,7 @@
         <v>7</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="J89" t="str" cm="1">
         <f t="array" ref="J89:K89">_xlfn.TEXTSPLIT(I89,",")</f>
@@ -5229,16 +5310,16 @@
     </row>
     <row r="90" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="B90" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>8</v>
@@ -5247,13 +5328,13 @@
         <v>7</v>
       </c>
       <c r="G90" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H90" t="s">
         <v>7</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="J90" t="str" cm="1">
         <f t="array" ref="J90:K90">_xlfn.TEXTSPLIT(I90,",")</f>
@@ -5265,16 +5346,16 @@
     </row>
     <row r="91" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="B91" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
@@ -5283,13 +5364,13 @@
         <v>7</v>
       </c>
       <c r="G91" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H91" t="s">
         <v>7</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="J91" t="str" cm="1">
         <f t="array" ref="J91:K91">_xlfn.TEXTSPLIT(I91,",")</f>
@@ -5301,16 +5382,16 @@
     </row>
     <row r="92" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>291</v>
+        <v>248</v>
       </c>
       <c r="B92" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>8</v>
@@ -5319,13 +5400,13 @@
         <v>7</v>
       </c>
       <c r="G92" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H92" t="s">
         <v>7</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="J92" t="str" cm="1">
         <f t="array" ref="J92:K92">_xlfn.TEXTSPLIT(I92,",")</f>
@@ -5337,16 +5418,16 @@
     </row>
     <row r="93" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="B93" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>8</v>
@@ -5355,13 +5436,13 @@
         <v>7</v>
       </c>
       <c r="G93" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H93" t="s">
         <v>7</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="J93" t="str" cm="1">
         <f t="array" ref="J93:K93">_xlfn.TEXTSPLIT(I93,",")</f>
@@ -5373,16 +5454,16 @@
     </row>
     <row r="94" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>8</v>
@@ -5391,13 +5472,13 @@
         <v>7</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H94" t="s">
         <v>7</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="J94" t="str" cm="1">
         <f t="array" ref="J94:K94">_xlfn.TEXTSPLIT(I94,",")</f>
@@ -5409,16 +5490,16 @@
     </row>
     <row r="95" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>8</v>
@@ -5427,13 +5508,13 @@
         <v>7</v>
       </c>
       <c r="G95" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H95" t="s">
         <v>7</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="J95" t="str" cm="1">
         <f t="array" ref="J95:K95">_xlfn.TEXTSPLIT(I95,",")</f>
@@ -5445,19 +5526,19 @@
     </row>
     <row r="96" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
         <v>7</v>
@@ -5469,7 +5550,7 @@
         <v>7</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="J96" t="str" cm="1">
         <f t="array" ref="J96:K96">_xlfn.TEXTSPLIT(I96,",")</f>
@@ -5481,16 +5562,16 @@
     </row>
     <row r="97" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="B97" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>8</v>
@@ -5505,7 +5586,7 @@
         <v>7</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="J97" t="str" cm="1">
         <f t="array" ref="J97:K97">_xlfn.TEXTSPLIT(I97,",")</f>
@@ -5517,7 +5598,7 @@
     </row>
     <row r="98" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -5526,7 +5607,7 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>8</v>
@@ -5541,7 +5622,7 @@
         <v>7</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="J98" t="str" cm="1">
         <f t="array" ref="J98:K98">_xlfn.TEXTSPLIT(I98,",")</f>
@@ -5553,7 +5634,7 @@
     </row>
     <row r="99" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -5562,7 +5643,7 @@
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>8</v>
@@ -5577,7 +5658,7 @@
         <v>7</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="J99" t="str" cm="1">
         <f t="array" ref="J99:K99">_xlfn.TEXTSPLIT(I99,",")</f>
@@ -5589,16 +5670,16 @@
     </row>
     <row r="100" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>8</v>
@@ -5607,13 +5688,13 @@
         <v>7</v>
       </c>
       <c r="G100" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H100" t="s">
         <v>7</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="J100" t="str" cm="1">
         <f t="array" ref="J100:K100">_xlfn.TEXTSPLIT(I100,",")</f>
@@ -5625,16 +5706,16 @@
     </row>
     <row r="101" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="B101" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>8</v>
@@ -5649,7 +5730,7 @@
         <v>7</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="J101" t="str" cm="1">
         <f t="array" ref="J101:K101">_xlfn.TEXTSPLIT(I101,",")</f>
@@ -5661,16 +5742,16 @@
     </row>
     <row r="102" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="B102" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>8</v>
@@ -5685,7 +5766,7 @@
         <v>7</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="J102" t="str" cm="1">
         <f t="array" ref="J102:K102">_xlfn.TEXTSPLIT(I102,",")</f>

--- a/data/DiscoverAarhus.xlsx
+++ b/data/DiscoverAarhus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rikkeuldbaek/Library/Mobile Documents/com~apple~CloudDocs/Cognitive Science/6th_semester/spatial_analytics/DiscoverAarhus/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936A58CA-8A9E-BC4A-979E-F80A796E0B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1C50E4-7A27-2740-92A0-B7DB198BC34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="500" windowWidth="28580" windowHeight="15440" xr2:uid="{5C004500-1A4C-4740-8589-9D39A3377470}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="328">
   <si>
     <t>name</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Domen</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>56.15406836215421, 10.1997481837217</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
     <t>Marselisborg Beach</t>
   </si>
   <si>
-    <t>Beach at Marselisborg</t>
-  </si>
-  <si>
     <t>56.128811860581685, 10.213907464641407</t>
   </si>
   <si>
@@ -438,9 +432,6 @@
     <t>Ingerslev Torv</t>
   </si>
   <si>
-    <t>Market with foodstands every Wednesday and Saturday</t>
-  </si>
-  <si>
     <t>56.144857793790486, 10.196712893511247</t>
   </si>
   <si>
@@ -484,9 +475,6 @@
   </si>
   <si>
     <t>Creative Space</t>
-  </si>
-  <si>
-    <t>Paint Your Own Pottery Café</t>
   </si>
   <si>
     <t>Art by Me</t>
@@ -604,201 +592,6 @@
     <t>56.15248844965036, 10.204401429735393</t>
   </si>
   <si>
-    <r>
-      <t>Catholic Church of Our Lady</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Danish</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Katolske Vor Frue Kirke</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>) is a church in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Aarhus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Denmark</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. The church is situated in the central </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Indre By</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> neighbourhood on the pedestrian street </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ryesgade</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, close to the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Central Station</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>City Hall</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. It is a catholic church under the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Roman Catholic Diocese of Copenhagen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>; built between 1877 and 1880 by designs of the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>German</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> architect Franz Schmitz and later renovated by the architect Carl R. Frederiksen.</t>
-    </r>
-  </si>
-  <si>
     <t>56.146502870305305, 10.204244560176825</t>
   </si>
   <si>
@@ -897,36 +690,24 @@
     <t>Moesgaard museum</t>
   </si>
   <si>
-    <t>Moesgaard Museum is a popular destination for museum enthusiasts and nature lovers alike. The new museum building is the venue for world-class prehistoric and ethnographic exhibitions. Situated in the undulating landscape south of Aarhus, the museum constitutes a unique trinity of nature, culture, and history.</t>
-  </si>
-  <si>
     <t>Moesgaard strand</t>
   </si>
   <si>
     <t>56.08889213471035, 10.24810313955362</t>
   </si>
   <si>
-    <t>Beach at Moesgaard</t>
-  </si>
-  <si>
     <t>56.176998506142894, 10.231308559583287</t>
   </si>
   <si>
     <t>Den Permanente</t>
   </si>
   <si>
-    <t>Beach at Risskov</t>
-  </si>
-  <si>
     <t>Risskov Strandpark</t>
   </si>
   <si>
     <t>56.184521868667126, 10.237841127642781</t>
   </si>
   <si>
-    <t>Beach and park at Risskov</t>
-  </si>
-  <si>
     <t>56.1909476574439, 10.24905264371925</t>
   </si>
   <si>
@@ -945,9 +726,6 @@
     <t>56.203752769342834, 10.282961178719345</t>
   </si>
   <si>
-    <t>Beach at Egå</t>
-  </si>
-  <si>
     <t>56.13890636411847, 10.209043052620723</t>
   </si>
   <si>
@@ -955,29 +733,6 @@
   </si>
   <si>
     <t xml:space="preserve">Park </t>
-  </si>
-  <si>
-    <r>
-      <t>Tangkrogen is </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF040C28"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>a public park and area in Aarhus near the beach</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF202124"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. The park is situated near the city centre by the coast and close to the Marselis Wood.</t>
-    </r>
   </si>
   <si>
     <t>56.12840313289481, 10.195912313562983</t>
@@ -1052,6 +807,508 @@
     <t>56.14597495301759, 10.206158851227592</t>
   </si>
   <si>
+    <t>Frederiksbjerg Bypark</t>
+  </si>
+  <si>
+    <t>56.147386980787076, 10.18928444792406</t>
+  </si>
+  <si>
+    <t>Park at Frederiksbjerg</t>
+  </si>
+  <si>
+    <t>Skateboardpark</t>
+  </si>
+  <si>
+    <t>56.14728322439201, 10.177975314879204</t>
+  </si>
+  <si>
+    <t>Skateboard park close to Brabrandstien</t>
+  </si>
+  <si>
+    <t>56.15666200315953, 10.214488833622443</t>
+  </si>
+  <si>
+    <t>Havnerundfart - Aarhus Sail Event</t>
+  </si>
+  <si>
+    <t>Aarhus Sail Event offers harbor tours of Aarhus Harbor and Bay. Aboard the ship M/S Helene, and experience and enjoy Aarhus from the water. See the new district of Aarhus Ø and listen to the interesting and fun stories that guides form Aarhus Sail Event add to the tour along the way.</t>
+  </si>
+  <si>
+    <t>Sportspladsen Havnefronten</t>
+  </si>
+  <si>
+    <t>56.15744333313172, 10.213997055003498</t>
+  </si>
+  <si>
+    <t>At Sportspladsen Havnefronten you can play basket, football or the like. The place offers a great sea view and sports activities.</t>
+  </si>
+  <si>
+    <t>Slagtehal 3</t>
+  </si>
+  <si>
+    <t>56.16002892736784, 10.212880600020101</t>
+  </si>
+  <si>
+    <t>An underground cinema and cafe</t>
+  </si>
+  <si>
+    <t>56.15066835277434, 10.203861884423869</t>
+  </si>
+  <si>
+    <t>CinemaxX</t>
+  </si>
+  <si>
+    <t>CinemaxX in Aarhus is located in Bruuns Galleri and offers both 3D and IMAX cinema halls.</t>
+  </si>
+  <si>
+    <t>Nordisk Film Biografer Aarhus C</t>
+  </si>
+  <si>
+    <t>56.15158649549781, 10.205950204877794</t>
+  </si>
+  <si>
+    <t>Movie theatre at Aarhus C.</t>
+  </si>
+  <si>
+    <t>56.17105327231762, 10.199256149280348</t>
+  </si>
+  <si>
+    <t>Det Kgl. Bibliotek</t>
+  </si>
+  <si>
+    <t>Escape Factory</t>
+  </si>
+  <si>
+    <t>56.16049456698617, 10.21317974232884</t>
+  </si>
+  <si>
+    <t>Escape room with several different rooms and games.</t>
+  </si>
+  <si>
+    <t>Brain Escape</t>
+  </si>
+  <si>
+    <t>56.15912412521492, 10.211974337533318</t>
+  </si>
+  <si>
+    <t>Urban Escape game</t>
+  </si>
+  <si>
+    <t>56.15840882824942, 10.208062150699702</t>
+  </si>
+  <si>
+    <t>56.15176769103704, 10.202701861793145</t>
+  </si>
+  <si>
+    <t>Escape Tour</t>
+  </si>
+  <si>
+    <t>56.15183077303507, 10.201710886906046</t>
+  </si>
+  <si>
+    <t>Escapist</t>
+  </si>
+  <si>
+    <t>56.159543753237855, 10.202383500932736</t>
+  </si>
+  <si>
+    <t>Aarhus VR</t>
+  </si>
+  <si>
+    <t>56.16618196428782, 10.121505029614923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entertainment </t>
+  </si>
+  <si>
+    <t>Virtual Reality Center located in Brabrand</t>
+  </si>
+  <si>
+    <t>Eventpark Aarhus</t>
+  </si>
+  <si>
+    <t>56.165711115634515, 10.121288373963337</t>
+  </si>
+  <si>
+    <t>Eventpark Aarhus resides many activities such as VR-escape room, lasertag, bouncy castles, trampolines, airhockey, arcade games, and much more.</t>
+  </si>
+  <si>
+    <t>Rush Trampolinpark</t>
+  </si>
+  <si>
+    <t>56.10671518557347, 10.149919151657057</t>
+  </si>
+  <si>
+    <t>Trampoline park in Højbjerg with several activities such as dogdeball, battle beam, ninja course, and wipeout.</t>
+  </si>
+  <si>
+    <t>56.110740854489826, 10.155247644863469</t>
+  </si>
+  <si>
+    <t>Golfskoven Minigolf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indoor minigolf field in Højbjerg including pool, shuffleboard, dart and outdoor petanque and a bar. </t>
+  </si>
+  <si>
+    <t>Camping</t>
+  </si>
+  <si>
+    <t>56.154462374077355, 10.211527899145684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indoor minigolf field located in Aarhus C. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indoor minigolf field and bar located in Aarhus C. </t>
+  </si>
+  <si>
+    <t>Bruuns Minigolf</t>
+  </si>
+  <si>
+    <t>56.149160847590494, 10.205978608612977</t>
+  </si>
+  <si>
+    <t>Outdoor minigolf field.</t>
+  </si>
+  <si>
+    <t>Camping Book1</t>
+  </si>
+  <si>
+    <t>56.15664358276884, 10.200314841346561</t>
+  </si>
+  <si>
+    <t>56.1704178776926, 10.131959264136771</t>
+  </si>
+  <si>
+    <t>Grimhøj Disc Golf Field</t>
+  </si>
+  <si>
+    <t>Vestereng Disc Golf Field</t>
+  </si>
+  <si>
+    <t>Disc golf field with 18 holes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disc golf field with 9 holes.  </t>
+  </si>
+  <si>
+    <t>56.18872749097491, 10.091260207737502</t>
+  </si>
+  <si>
+    <t>Tilst Disc Golf Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disc golf field with 18 holes.  </t>
+  </si>
+  <si>
+    <t>Langenæsparken</t>
+  </si>
+  <si>
+    <t>Park at Langenæs with disc golf fields.</t>
+  </si>
+  <si>
+    <t>56.15873842215142, 10.209945582621554</t>
+  </si>
+  <si>
+    <t>Latinerkvarteret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charming and colorful neighbourhood in Aarhus C with cafees, restaurants, museums, cinemas etc. </t>
+  </si>
+  <si>
+    <t>56.143444698031324, 10.181503810385879</t>
+  </si>
+  <si>
+    <t>56.18435419009484, 10.18361706830285</t>
+  </si>
+  <si>
+    <t>Møllestien</t>
+  </si>
+  <si>
+    <t>56.1566271800262, 10.201198332853597</t>
+  </si>
+  <si>
+    <t>Royal Casino</t>
+  </si>
+  <si>
+    <t>56.15763436851299, 10.210056382516806</t>
+  </si>
+  <si>
+    <t>Casino located in the centre of Aarhus</t>
+  </si>
+  <si>
+    <t>Bazar Vest</t>
+  </si>
+  <si>
+    <t>56.163062356328545, 10.1335757818462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Eastern market which offers fresh fruits and vegetables, groceries, food, and clothing.  </t>
+  </si>
+  <si>
+    <t>56.18671026455704, 10.187693581279355</t>
+  </si>
+  <si>
+    <t>Ovartaci Museum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This muesum is located at a psychiatric hospital from 1852 and exhibits historical exhibitions and work of art from previous patients of the hospital. </t>
+  </si>
+  <si>
+    <t>56.15873942116772, 10.193556749349098</t>
+  </si>
+  <si>
+    <t>Dansk Plakat Museum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danish Poster Museum is located in Den Gamle By, and exhibits the largest collection of posters in Northern Europe </t>
+  </si>
+  <si>
+    <t>Salling Rooftop</t>
+  </si>
+  <si>
+    <t>56.154468734070264, 10.206987924173971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salling rooftop is located on top of the department store Salling. The rooftop has an amazing panorama view, cafe, and hosts events occasionally. </t>
+  </si>
+  <si>
+    <t>Leos Legeland</t>
+  </si>
+  <si>
+    <t>56.20371030829333, 10.184617300167886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leos Play Centre is a large play centre offering many fun activities for children and the entire family. </t>
+  </si>
+  <si>
+    <t>Legelandet.dk</t>
+  </si>
+  <si>
+    <t>Legelandet.dk is a large play centre located in Brabrand. The play centre is a part of Eventpark Aarhus, who also hosts VR escape rooms, lasertag, bouncy castles, trampolines, airhockey, arcade games, and much more</t>
+  </si>
+  <si>
+    <t>56.16578942026016, 10.121523588021091</t>
+  </si>
+  <si>
+    <t>ARoS Aarhus Art Museum is one of Northern Europe's largest art museums and one of the most visited art museums in Scandinavia. Here you can experience Your rainbow panorama, a spectacular artwork by Olafur Eliasson.</t>
+  </si>
+  <si>
+    <t>Radar is a venue located close to the cultural hub Godsbanen. At Radar you can experience upcoming and avantgarde musical artists which are both national and international. </t>
+  </si>
+  <si>
+    <t>The Dome (Domen) is a creative and architectonic gem in the centre of Aarhus, where you can enjoy music, art and culture or simply take in the distinctive architecture and the beautiful bright room.</t>
+  </si>
+  <si>
+    <t>The Women Museum has changed it name to KØN - Gender Museum Denmark and emphasizes the cultural history between genders and discusses the gender policies, equality, body and sexuality.</t>
+  </si>
+  <si>
+    <t>The Cathedral of Aarhus is a Gothic church dating from the 12th century dedicated to Saint Clement. The cathedral is frequently used for concerts as well as normal services. On Sundays and church days the Cathedral is only open for churchgoers.</t>
+  </si>
+  <si>
+    <t>The Aarhus Theatre is a historic theater in the heart of Aarhus. With 4 stages and a total of 1,200 seats it is one of the most popular cultural attractions in Aarhus. </t>
+  </si>
+  <si>
+    <t>The Viking Museum is a window to the Viking town of Aros. Some 1200 years ago the Vikings founded Aarhus – at the very same spot and level where The Viking Museum is situated in the basement underneath the Nordea Bank in the 'Skt. Clemens Torv' Square. </t>
+  </si>
+  <si>
+    <t>'Den Gamle By' - The Old Town Museum is a perfectly unique attraction in Aarhus for the whole family to go on a fascinating journey back in history. The museum is awarded the maximum three stars in the Michelin Travel Guide. </t>
+  </si>
+  <si>
+    <t>At Øst for Paradis they show handpicked films from all over the world, in auditoria steeped in atmosphere. This cinema specialises in small, wonderful film gems which deserve a bigger audience; whether the protagonists speak Finnish, Turkish, or English is irrelevant as long as the film hits the spot.</t>
+  </si>
+  <si>
+    <t>The Museum of Ancient Art at the University of Aarhus takes you on a cultural journey back to the Mediterranean countries in ancient times.</t>
+  </si>
+  <si>
+    <t>At Naturhistorisk Museum, the Natural History Museum in Aarhus you can experience the abundance of life inhabiting the earth. Experience the museum's four permanent exhibitions and changing special exhibitions. </t>
+  </si>
+  <si>
+    <t>Explore the Universe in Aarhus. At the Steno Museum for the History of Science and Medicine both children and adults can go on a trail of discovery in the natural sciences and explore the cultural history of medicine. Here there are scientific instruments, an array of fascinating inter-activities where, amongst many other things, you can test Galileo’s law of gravity, or play with your own mirror image. </t>
+  </si>
+  <si>
+    <t>The Botanical Garden is a green oasis just to the west of Den Gamle By "The Old Town Museum" the Urban Museum in the centre of Aarhus. It is open to the public all the year round and is well worth a visit in all seasons of the year. </t>
+  </si>
+  <si>
+    <t>The Tropical Houses (in Danish "Væksthusene") in the Botanical Garden in Aarhus are a place where numerous plant collections are presented and preserved in four different climate zones.</t>
+  </si>
+  <si>
+    <t>The Tropical Houses in the Botanical Garden</t>
+  </si>
+  <si>
+    <t>The Concert Hall (Musikhuset Aarhus) has exclusive rooms for gatherings of up to 1,800 people. The primary function of the house as a facilitator of arts and culture creates a warm atmosphere in the exciting environment that people remember for the happy moments and good experiences.</t>
+  </si>
+  <si>
+    <t>Small, relaxed city park featuring garden areas, open lawns, large trees, and various sculptures.</t>
+  </si>
+  <si>
+    <t>Park located in the centre of Aarhus. Mølleparken offers sports, striking public sculptures, and walks by the canal, plus bar terraces &amp; live bands in summer.</t>
+  </si>
+  <si>
+    <t>Godsbanen is a centre for cultural production in Aarhus. Enjoy the resturant, the open workshops or the great view from the roof of the unique building.</t>
+  </si>
+  <si>
+    <t>Public indoor swimming facilities with sauna and swimmingpools.</t>
+  </si>
+  <si>
+    <t>Indoor pool and spa with sauna and steam showers.</t>
+  </si>
+  <si>
+    <t>Beach at Marselisborg.</t>
+  </si>
+  <si>
+    <t>Scenic, round bridge by the ocean at Marselisborg.</t>
+  </si>
+  <si>
+    <t>Marselisborg Marina was built in 1991 and is one of the newest in the Aarhus Area and is characterized by unconventional architecture.  At the marina you can eat food, gets drinks and eat icecream.</t>
+  </si>
+  <si>
+    <t>The Marselisborg forest and deer park is one of Denmark’s most frequently visited nature resorts and is used for an endless list of ourdoor activities such as running and cycling events. Despite the forest’s rugged terrain, it is very well-suited for hiking, just as horseback riders come in large numbers, as the forest has marked off riding trails. The forest has a nature preserve with free-ranging wild boars and deers.</t>
+  </si>
+  <si>
+    <t>Home Stadium of Aarhus' football team, AGF (KSDH).</t>
+  </si>
+  <si>
+    <t>Tivoli Friheden is a theme park in the center of Aarhus located within walking distance from the city centre in the beautiful Marselisborg Forest. Make sure to visit Tivoli Friheden this year.</t>
+  </si>
+  <si>
+    <r>
+      <t>At The Ole Rømer Observatory in Aarhus you can enjoy the fascinating sight of the lunar landscape seen through telescopes. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color rgb="FF585858"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>The Observatory is under reconstruction, and will open again in September 2023.</t>
+    </r>
+  </si>
+  <si>
+    <t>Indoor skating rink. Only open from March-October.</t>
+  </si>
+  <si>
+    <t>Aarhus Beach Volley club, where volleyball fields can be rented. Has indoor facilities during the winter months.</t>
+  </si>
+  <si>
+    <t>Kunsthal Aarhus is, with light and spacious exhibition halls, one of Denmark’s largest and most beautiful exhibition venues for contemporary art.</t>
+  </si>
+  <si>
+    <t>Gym and sports complex with facilities for indoor climbing, group exercise classes, and a cafe/bar.</t>
+  </si>
+  <si>
+    <t>Train is one of Denmark's biggest and leading music venues. At the venue you can also enjoy the excellent atmosphere at the lounge bar Kupé which is recognised as one of the country's leading nightclubs.</t>
+  </si>
+  <si>
+    <t>Aarhus Marina was built in 1933 and is worth a visit whether you arrive from the seaside or land. The maritime environment invites you to relax, have a drink or admire the wooden ships.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public outdoor swimming facilities. </t>
+  </si>
+  <si>
+    <t>Watersports activities with wakeboards, water skis and SUP rentals.</t>
+  </si>
+  <si>
+    <t>Stand Up Paddleboard club with rental possibilities and outdoor spa facilities.</t>
+  </si>
+  <si>
+    <t>Indoor padel tennis facility.</t>
+  </si>
+  <si>
+    <t>Movie theatre at Trøjborg.</t>
+  </si>
+  <si>
+    <t>HeadQuarters is a laid-back night club and music venue in Aarhus where you will find both a dance floor and cosy corners. Every week, a long list of concerts are held with a main focus on new artists.</t>
+  </si>
+  <si>
+    <t>Teater Katapult is known for their sometimes controversial but always relevant, contemporary plays. The mission is to get the audience to turn off the autopilot and relate to what is going on on stage and in society.</t>
+  </si>
+  <si>
+    <t>The Svalegangen Theatre is only 5 minutes from the Aarhus Central Station. Here you can enjoy theatre of the highest quality; performances which are entertaining and thought-provoking.</t>
+  </si>
+  <si>
+    <r>
+      <t>At VoxHall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF585858"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> you can enjoy rock concerts and music venues with lots of action on the dance floor; jazz sessions at the cosy and friendly pubs.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowling alley located in Aarhus C. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free climbing gym. </t>
+  </si>
+  <si>
+    <t>Escape room center with several different rooms.</t>
+  </si>
+  <si>
+    <t>Outdoor and indoor live music venue and cultural hub for artists.</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Do as the locals and get your fruits, vegetables, flowers and herbs at the the market at Ingerslev Boulevard. Every Wednesday and Saturday</t>
+  </si>
+  <si>
+    <t>Paint your own pottery café</t>
+  </si>
+  <si>
+    <t>The church is situated in the heart of Aarhus 100 meters from the Central Station and it has Denmark's largest Catholic parish with members from more than 80 different nations. The church is open on certain days outside of Mass hours. See the sign on the front door for information.</t>
+  </si>
+  <si>
+    <t>Cultural history museum south of Aarhus in beautiful sorroundings. The past is brought to fascinating life at the Moesgaard Museum in Aarhus. The exhibits are based on the latest research and technology and aim at giving you an insight into prehistory and anthropology in an entertaining and surprising way.</t>
+  </si>
+  <si>
+    <t>Public beach at Moesgaard</t>
+  </si>
+  <si>
+    <t>Public beach at Risskov</t>
+  </si>
+  <si>
+    <t>Public beach and park at Risskov</t>
+  </si>
+  <si>
+    <t>Public beach at Marselisborg</t>
+  </si>
+  <si>
+    <t>Public beach at Egå</t>
+  </si>
+  <si>
+    <r>
+      <t>Tangkrogen is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a public park and area in Aarhus near the beach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. The park is situated near the city centre by the coast and close to the Marselis forest.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>Skanseparken</t>
     </r>
@@ -1098,95 +1355,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> in </t>
+      <t> in the center of Aarhus.</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Midtbyen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Frederiksbjerg Bypark</t>
-  </si>
-  <si>
-    <t>56.147386980787076, 10.18928444792406</t>
-  </si>
-  <si>
-    <t>Park at Frederiksbjerg</t>
-  </si>
-  <si>
-    <t>Skateboardpark</t>
-  </si>
-  <si>
-    <t>56.14728322439201, 10.177975314879204</t>
-  </si>
-  <si>
-    <t>Skateboard park close to Brabrandstien</t>
-  </si>
-  <si>
-    <t>56.15666200315953, 10.214488833622443</t>
-  </si>
-  <si>
-    <t>Havnerundfart - Aarhus Sail Event</t>
-  </si>
-  <si>
-    <t>Aarhus Sail Event offers harbor tours of Aarhus Harbor and Bay. Aboard the ship M/S Helene, and experience and enjoy Aarhus from the water. See the new district of Aarhus Ø and listen to the interesting and fun stories that guides form Aarhus Sail Event add to the tour along the way.</t>
-  </si>
-  <si>
-    <t>Sportspladsen Havnefronten</t>
-  </si>
-  <si>
-    <t>56.15744333313172, 10.213997055003498</t>
-  </si>
-  <si>
-    <t>At Sportspladsen Havnefronten you can play basket, football or the like. The place offers a great sea view and sports activities.</t>
-  </si>
-  <si>
-    <t>Slagtehal 3</t>
-  </si>
-  <si>
-    <t>56.16002892736784, 10.212880600020101</t>
-  </si>
-  <si>
-    <t>An underground cinema and cafe</t>
-  </si>
-  <si>
-    <t>56.15066835277434, 10.203861884423869</t>
-  </si>
-  <si>
-    <t>CinemaxX</t>
-  </si>
-  <si>
-    <t>CinemaxX in Aarhus is located in Bruuns Galleri and offers both 3D and IMAX cinema halls.</t>
-  </si>
-  <si>
-    <t>Nordisk Film Biografer Aarhus C</t>
-  </si>
-  <si>
-    <t>56.15158649549781, 10.205950204877794</t>
-  </si>
-  <si>
-    <t>Movie theatre at Aarhus C.</t>
-  </si>
-  <si>
-    <t>56.17105327231762, 10.199256149280348</t>
-  </si>
-  <si>
-    <t>Det Kgl. Bibliotek</t>
   </si>
   <si>
     <r>
@@ -1227,7 +1397,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> and the university library of </t>
+      <t> and the University Library of </t>
     </r>
     <r>
       <rPr>
@@ -1236,7 +1406,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Aarhus University</t>
+      <t>Aarhus</t>
     </r>
     <r>
       <rPr>
@@ -1249,393 +1419,10 @@
     </r>
   </si>
   <si>
-    <t>Escape Factory</t>
-  </si>
-  <si>
-    <t>56.16049456698617, 10.21317974232884</t>
-  </si>
-  <si>
-    <t>Escape room with several different rooms and games.</t>
-  </si>
-  <si>
-    <t>Brain Escape</t>
-  </si>
-  <si>
-    <t>56.15912412521492, 10.211974337533318</t>
-  </si>
-  <si>
-    <t>Urban Escape game</t>
-  </si>
-  <si>
-    <t>56.15840882824942, 10.208062150699702</t>
-  </si>
-  <si>
-    <t>56.15176769103704, 10.202701861793145</t>
-  </si>
-  <si>
-    <t>Escape Tour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uban escape game where the puzzle/game to be solved is located at several sites around Aarhus. </t>
-  </si>
-  <si>
-    <t>56.15183077303507, 10.201710886906046</t>
-  </si>
-  <si>
-    <t>Escapist</t>
-  </si>
-  <si>
-    <t>56.159543753237855, 10.202383500932736</t>
-  </si>
-  <si>
-    <t>Aarhus VR</t>
-  </si>
-  <si>
-    <t>56.16618196428782, 10.121505029614923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entertainment </t>
-  </si>
-  <si>
-    <t>Virtual Reality Center located in Brabrand</t>
-  </si>
-  <si>
-    <t>Eventpark Aarhus</t>
-  </si>
-  <si>
-    <t>56.165711115634515, 10.121288373963337</t>
-  </si>
-  <si>
-    <t>Eventpark Aarhus resides many activities such as VR-escape room, lasertag, bouncy castles, trampolines, airhockey, arcade games, and much more.</t>
-  </si>
-  <si>
-    <t>Rush Trampolinpark</t>
-  </si>
-  <si>
-    <t>56.10671518557347, 10.149919151657057</t>
-  </si>
-  <si>
-    <t>Trampoline park in Højbjerg with several activities such as dogdeball, battle beam, ninja course, and wipeout.</t>
-  </si>
-  <si>
-    <t>56.110740854489826, 10.155247644863469</t>
-  </si>
-  <si>
-    <t>Golfskoven Minigolf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indoor minigolf field in Højbjerg including pool, shuffleboard, dart and outdoor petanque and a bar. </t>
-  </si>
-  <si>
-    <t>Camping</t>
-  </si>
-  <si>
-    <t>56.154462374077355, 10.211527899145684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indoor minigolf field located in Aarhus C. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indoor minigolf field and bar located in Aarhus C. </t>
-  </si>
-  <si>
-    <t>Bruuns Minigolf</t>
-  </si>
-  <si>
-    <t>56.149160847590494, 10.205978608612977</t>
-  </si>
-  <si>
-    <t>Outdoor minigolf field.</t>
-  </si>
-  <si>
-    <t>Camping Book1</t>
-  </si>
-  <si>
-    <t>56.15664358276884, 10.200314841346561</t>
-  </si>
-  <si>
-    <t>56.1704178776926, 10.131959264136771</t>
-  </si>
-  <si>
-    <t>Grimhøj Disc Golf Field</t>
-  </si>
-  <si>
-    <t>Vestereng Disc Golf Field</t>
-  </si>
-  <si>
-    <t>Disc golf field with 18 holes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disc golf field with 9 holes.  </t>
-  </si>
-  <si>
-    <t>56.18872749097491, 10.091260207737502</t>
-  </si>
-  <si>
-    <t>Tilst Disc Golf Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disc golf field with 18 holes.  </t>
-  </si>
-  <si>
-    <t>Langenæsparken</t>
-  </si>
-  <si>
-    <t>Park at Langenæs with disc golf fields.</t>
-  </si>
-  <si>
-    <t>56.15873842215142, 10.209945582621554</t>
-  </si>
-  <si>
-    <t>Latinerkvarteret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charming and colorful neighbourhood in Aarhus C with cafees, restaurants, museums, cinemas etc. </t>
-  </si>
-  <si>
-    <t>56.143444698031324, 10.181503810385879</t>
-  </si>
-  <si>
-    <t>56.18435419009484, 10.18361706830285</t>
-  </si>
-  <si>
-    <t>Møllestien</t>
-  </si>
-  <si>
-    <t>56.1566271800262, 10.201198332853597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charmin and colorful street in Aarhus C. </t>
-  </si>
-  <si>
-    <t>Royal Casino</t>
-  </si>
-  <si>
-    <t>56.15763436851299, 10.210056382516806</t>
-  </si>
-  <si>
-    <t>Casino located in the centre of Aarhus</t>
-  </si>
-  <si>
-    <t>Bazar Vest</t>
-  </si>
-  <si>
-    <t>56.163062356328545, 10.1335757818462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Eastern market which offers fresh fruits and vegetables, groceries, food, and clothing.  </t>
-  </si>
-  <si>
-    <t>56.18671026455704, 10.187693581279355</t>
-  </si>
-  <si>
-    <t>Ovartaci Museum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This muesum is located at a psychiatric hospital from 1852 and exhibits historical exhibitions and work of art from previous patients of the hospital. </t>
-  </si>
-  <si>
-    <t>56.15873942116772, 10.193556749349098</t>
-  </si>
-  <si>
-    <t>Dansk Plakat Museum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danish Poster Museum is located in Den Gamle By, and exhibits the largest collection of posters in Northern Europe </t>
-  </si>
-  <si>
-    <t>Salling Rooftop</t>
-  </si>
-  <si>
-    <t>56.154468734070264, 10.206987924173971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salling rooftop is located on top of the department store Salling. The rooftop has an amazing panorama view, cafe, and hosts events occasionally. </t>
-  </si>
-  <si>
-    <t>Leos Legeland</t>
-  </si>
-  <si>
-    <t>56.20371030829333, 10.184617300167886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leos Play Centre is a large play centre offering many fun activities for children and the entire family. </t>
-  </si>
-  <si>
-    <t>Legelandet.dk</t>
-  </si>
-  <si>
-    <t>Legelandet.dk is a large play centre located in Brabrand. The play centre is a part of Eventpark Aarhus, who also hosts VR escape rooms, lasertag, bouncy castles, trampolines, airhockey, arcade games, and much more</t>
-  </si>
-  <si>
-    <t>56.16578942026016, 10.121523588021091</t>
-  </si>
-  <si>
-    <t>ARoS Aarhus Art Museum is one of Northern Europe's largest art museums and one of the most visited art museums in Scandinavia. Here you can experience Your rainbow panorama, a spectacular artwork by Olafur Eliasson.</t>
-  </si>
-  <si>
-    <t>Radar is a venue located close to the cultural hub Godsbanen. At Radar you can experience upcoming and avantgarde musical artists which are both national and international. </t>
-  </si>
-  <si>
-    <t>The Dome (Domen) is a creative and architectonic gem in the centre of Aarhus, where you can enjoy music, art and culture or simply take in the distinctive architecture and the beautiful bright room.</t>
-  </si>
-  <si>
-    <t>The Women Museum has changed it name to KØN - Gender Museum Denmark and emphasizes the cultural history between genders and discusses the gender policies, equality, body and sexuality.</t>
-  </si>
-  <si>
-    <t>The Cathedral of Aarhus is a Gothic church dating from the 12th century dedicated to Saint Clement. The cathedral is frequently used for concerts as well as normal services. On Sundays and church days the Cathedral is only open for churchgoers.</t>
-  </si>
-  <si>
-    <t>The Aarhus Theatre is a historic theater in the heart of Aarhus. With 4 stages and a total of 1,200 seats it is one of the most popular cultural attractions in Aarhus. </t>
-  </si>
-  <si>
-    <t>The Viking Museum is a window to the Viking town of Aros. Some 1200 years ago the Vikings founded Aarhus – at the very same spot and level where The Viking Museum is situated in the basement underneath the Nordea Bank in the 'Skt. Clemens Torv' Square. </t>
-  </si>
-  <si>
-    <t>'Den Gamle By' - The Old Town Museum is a perfectly unique attraction in Aarhus for the whole family to go on a fascinating journey back in history. The museum is awarded the maximum three stars in the Michelin Travel Guide. </t>
-  </si>
-  <si>
-    <t>At Øst for Paradis they show handpicked films from all over the world, in auditoria steeped in atmosphere. This cinema specialises in small, wonderful film gems which deserve a bigger audience; whether the protagonists speak Finnish, Turkish, or English is irrelevant as long as the film hits the spot.</t>
-  </si>
-  <si>
-    <t>The Museum of Ancient Art at the University of Aarhus takes you on a cultural journey back to the Mediterranean countries in ancient times.</t>
-  </si>
-  <si>
-    <t>At Naturhistorisk Museum, the Natural History Museum in Aarhus you can experience the abundance of life inhabiting the earth. Experience the museum's four permanent exhibitions and changing special exhibitions. </t>
-  </si>
-  <si>
-    <t>Explore the Universe in Aarhus. At the Steno Museum for the History of Science and Medicine both children and adults can go on a trail of discovery in the natural sciences and explore the cultural history of medicine. Here there are scientific instruments, an array of fascinating inter-activities where, amongst many other things, you can test Galileo’s law of gravity, or play with your own mirror image. </t>
-  </si>
-  <si>
-    <t>The Botanical Garden is a green oasis just to the west of Den Gamle By "The Old Town Museum" the Urban Museum in the centre of Aarhus. It is open to the public all the year round and is well worth a visit in all seasons of the year. </t>
-  </si>
-  <si>
-    <t>The Tropical Houses (in Danish "Væksthusene") in the Botanical Garden in Aarhus are a place where numerous plant collections are presented and preserved in four different climate zones.</t>
-  </si>
-  <si>
-    <t>The Tropical Houses in the Botanical Garden</t>
-  </si>
-  <si>
-    <t>The Concert Hall (Musikhuset Aarhus) has exclusive rooms for gatherings of up to 1,800 people. The primary function of the house as a facilitator of arts and culture creates a warm atmosphere in the exciting environment that people remember for the happy moments and good experiences.</t>
-  </si>
-  <si>
-    <t>Small, relaxed city park featuring garden areas, open lawns, large trees, and various sculptures.</t>
-  </si>
-  <si>
-    <t>Park located in the centre of Aarhus. Mølleparken offers sports, striking public sculptures, and walks by the canal, plus bar terraces &amp; live bands in summer.</t>
-  </si>
-  <si>
-    <t>Godsbanen is a centre for cultural production in Aarhus. Enjoy the resturant, the open workshops or the great view from the roof of the unique building.</t>
-  </si>
-  <si>
-    <t>Public indoor swimming facilities with sauna and swimmingpools.</t>
-  </si>
-  <si>
-    <t>Indoor pool and spa with sauna and steam showers.</t>
-  </si>
-  <si>
-    <t>Beach at Marselisborg.</t>
-  </si>
-  <si>
-    <t>Scenic, round bridge by the ocean at Marselisborg.</t>
-  </si>
-  <si>
-    <t>Marselisborg Marina was built in 1991 and is one of the newest in the Aarhus Area and is characterized by unconventional architecture.  At the marina you can eat food, gets drinks and eat icecream.</t>
-  </si>
-  <si>
-    <t>The Marselisborg forest and deer park is one of Denmark’s most frequently visited nature resorts and is used for an endless list of ourdoor activities such as running and cycling events. Despite the forest’s rugged terrain, it is very well-suited for hiking, just as horseback riders come in large numbers, as the forest has marked off riding trails. The forest has a nature preserve with free-ranging wild boars and deers.</t>
-  </si>
-  <si>
-    <t>Home Stadium of Aarhus' football team, AGF (KSDH).</t>
-  </si>
-  <si>
-    <t>Tivoli Friheden is a theme park in the center of Aarhus located within walking distance from the city centre in the beautiful Marselisborg Forest. Make sure to visit Tivoli Friheden this year.</t>
-  </si>
-  <si>
-    <r>
-      <t>At The Ole Rømer Observatory in Aarhus you can enjoy the fascinating sight of the lunar landscape seen through telescopes. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color rgb="FF585858"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>The Observatory is under reconstruction, and will open again in September 2023.</t>
-    </r>
-  </si>
-  <si>
-    <t>Indoor skating rink. Only open from March-October.</t>
-  </si>
-  <si>
-    <t>Aarhus Beach Volley club, where volleyball fields can be rented. Has indoor facilities during the winter months.</t>
-  </si>
-  <si>
-    <t>Kunsthal Aarhus is, with light and spacious exhibition halls, one of Denmark’s largest and most beautiful exhibition venues for contemporary art.</t>
-  </si>
-  <si>
-    <t>Gym and sports complex with facilities for indoor climbing, group exercise classes, and a cafe/bar.</t>
-  </si>
-  <si>
-    <t>Train is one of Denmark's biggest and leading music venues. At the venue you can also enjoy the excellent atmosphere at the lounge bar Kupé which is recognised as one of the country's leading nightclubs.</t>
-  </si>
-  <si>
-    <t>Aarhus Marina was built in 1933 and is worth a visit whether you arrive from the seaside or land. The maritime environment invites you to relax, have a drink or admire the wooden ships.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public outdoor swimming facilities. </t>
-  </si>
-  <si>
-    <t>Watersports activities with wakeboards, water skis and SUP rentals.</t>
-  </si>
-  <si>
-    <t>Stand Up Paddleboard club with rental possibilities and outdoor spa facilities.</t>
-  </si>
-  <si>
-    <t>Indoor padel tennis facility.</t>
-  </si>
-  <si>
-    <t>Movie theatre at Trøjborg.</t>
-  </si>
-  <si>
-    <t>HeadQuarters is a laid-back night club and music venue in Aarhus where you will find both a dance floor and cosy corners. Every week, a long list of concerts are held with a main focus on new artists.</t>
-  </si>
-  <si>
-    <t>Teater Katapult is known for their sometimes controversial but always relevant, contemporary plays. The mission is to get the audience to turn off the autopilot and relate to what is going on on stage and in society.</t>
-  </si>
-  <si>
-    <t>The Svalegangen Theatre is only 5 minutes from the Aarhus Central Station. Here you can enjoy theatre of the highest quality; performances which are entertaining and thought-provoking.</t>
-  </si>
-  <si>
-    <r>
-      <t>At VoxHall</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF585858"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> you can enjoy rock concerts and music venues with lots of action on the dance floor; jazz sessions at the cosy and friendly pubs.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Bowling alley located in Aarhus C. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free climbing gym. </t>
-  </si>
-  <si>
-    <t>Escape room center with several different rooms.</t>
-  </si>
-  <si>
-    <t>Outdoor and indoor live music venue and cultural hub for artists.</t>
+    <t xml:space="preserve">Urban escape game where the puzzle/game to be solved is located at several sites around Aarhus. </t>
+  </si>
+  <si>
+    <t>The old idyllic Møllestien lane is a picturesque cobbled street right in the centre of Aarhus. The hollyhocks and rambling roses race each other to grow up against the tiny old half-timbered houses with their small-paned windows.</t>
   </si>
 </sst>
 </file>
@@ -2101,8 +1888,8 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2122,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2131,22 +1918,22 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2160,7 +1947,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
@@ -2175,7 +1962,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="str" cm="1">
         <f t="array" ref="J2:K2">_xlfn.TEXTSPLIT(I2,",")</f>
@@ -2196,7 +1983,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>12</v>
@@ -2211,7 +1998,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="str" cm="1">
         <f t="array" ref="J3:K3">_xlfn.TEXTSPLIT(I3,",")</f>
@@ -2226,13 +2013,13 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -2240,11 +2027,14 @@
       <c r="F4" t="s">
         <v>7</v>
       </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
       <c r="H4" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" t="str" cm="1">
         <f t="array" ref="J4:K4">_xlfn.TEXTSPLIT(I4,",")</f>
@@ -2256,7 +2046,7 @@
     </row>
     <row r="5" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -2265,7 +2055,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -2280,7 +2070,7 @@
         <v>7</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" t="str" cm="1">
         <f t="array" ref="J5:K5">_xlfn.TEXTSPLIT(I5,",")</f>
@@ -2292,16 +2082,16 @@
     </row>
     <row r="6" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>8</v>
@@ -2316,7 +2106,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" t="str" cm="1">
         <f t="array" ref="J6:K6">_xlfn.TEXTSPLIT(I6,",")</f>
@@ -2328,16 +2118,16 @@
     </row>
     <row r="7" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
@@ -2352,7 +2142,7 @@
         <v>7</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" t="str" cm="1">
         <f t="array" ref="J7:K7">_xlfn.TEXTSPLIT(I7,",")</f>
@@ -2364,7 +2154,7 @@
     </row>
     <row r="8" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -2373,7 +2163,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
@@ -2388,7 +2178,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J8" t="str" cm="1">
         <f t="array" ref="J8:K8">_xlfn.TEXTSPLIT(I8,",")</f>
@@ -2400,7 +2190,7 @@
     </row>
     <row r="9" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -2409,7 +2199,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
@@ -2418,13 +2208,13 @@
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" t="str" cm="1">
         <f t="array" ref="J9:K9">_xlfn.TEXTSPLIT(I9,",")</f>
@@ -2436,16 +2226,16 @@
     </row>
     <row r="10" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>12</v>
@@ -2460,7 +2250,7 @@
         <v>7</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J10" t="str" cm="1">
         <f t="array" ref="J10:K10">_xlfn.TEXTSPLIT(I10,",")</f>
@@ -2472,7 +2262,7 @@
     </row>
     <row r="11" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -2481,7 +2271,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>12</v>
@@ -2496,7 +2286,7 @@
         <v>7</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" t="str" cm="1">
         <f t="array" ref="J11:K11">_xlfn.TEXTSPLIT(I11,",")</f>
@@ -2508,7 +2298,7 @@
     </row>
     <row r="12" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -2517,7 +2307,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -2532,7 +2322,7 @@
         <v>7</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J12" t="str" cm="1">
         <f t="array" ref="J12:K12">_xlfn.TEXTSPLIT(I12,",")</f>
@@ -2544,7 +2334,7 @@
     </row>
     <row r="13" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -2553,7 +2343,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>8</v>
@@ -2568,7 +2358,7 @@
         <v>7</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13" t="str" cm="1">
         <f t="array" ref="J13:K13">_xlfn.TEXTSPLIT(I13,",")</f>
@@ -2580,31 +2370,31 @@
     </row>
     <row r="14" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="H14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="J14" t="str" cm="1">
         <f t="array" ref="J14:K14">_xlfn.TEXTSPLIT(I14,",")</f>
@@ -2616,25 +2406,28 @@
     </row>
     <row r="15" spans="1:11" ht="105" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
       </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
       <c r="H15" t="s">
         <v>7</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J15" t="str" cm="1">
         <f t="array" ref="J15:K15">_xlfn.TEXTSPLIT(I15,",")</f>
@@ -2646,7 +2439,7 @@
     </row>
     <row r="16" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -2655,7 +2448,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>8</v>
@@ -2670,7 +2463,7 @@
         <v>7</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J16" t="str" cm="1">
         <f t="array" ref="J16:K16">_xlfn.TEXTSPLIT(I16,",")</f>
@@ -2682,31 +2475,31 @@
     </row>
     <row r="17" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="J17" t="str" cm="1">
         <f t="array" ref="J17:K17">_xlfn.TEXTSPLIT(I17,",")</f>
@@ -2718,31 +2511,31 @@
     </row>
     <row r="18" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="J18" t="str" cm="1">
         <f t="array" ref="J18:K18">_xlfn.TEXTSPLIT(I18,",")</f>
@@ -2754,16 +2547,16 @@
     </row>
     <row r="19" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>8</v>
@@ -2778,7 +2571,7 @@
         <v>7</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J19" t="str" cm="1">
         <f t="array" ref="J19:K19">_xlfn.TEXTSPLIT(I19,",")</f>
@@ -2790,16 +2583,16 @@
     </row>
     <row r="20" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
         <v>51</v>
       </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>8</v>
@@ -2814,7 +2607,7 @@
         <v>7</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J20" t="str" cm="1">
         <f t="array" ref="J20:K20">_xlfn.TEXTSPLIT(I20,",")</f>
@@ -2826,16 +2619,16 @@
     </row>
     <row r="21" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -2850,7 +2643,7 @@
         <v>7</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J21" t="str" cm="1">
         <f t="array" ref="J21:K21">_xlfn.TEXTSPLIT(I21,",")</f>
@@ -2862,31 +2655,31 @@
     </row>
     <row r="22" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="J22" t="str" cm="1">
         <f t="array" ref="J22:K22">_xlfn.TEXTSPLIT(I22,",")</f>
@@ -2898,31 +2691,31 @@
     </row>
     <row r="23" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="J23" t="str" cm="1">
         <f t="array" ref="J23:K23">_xlfn.TEXTSPLIT(I23,",")</f>
@@ -2934,31 +2727,31 @@
     </row>
     <row r="24" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="J24" t="str" cm="1">
         <f t="array" ref="J24:K24">_xlfn.TEXTSPLIT(I24,",")</f>
@@ -2970,16 +2763,16 @@
     </row>
     <row r="25" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>8</v>
@@ -2988,13 +2781,13 @@
         <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s">
         <v>7</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J25" t="str" cm="1">
         <f t="array" ref="J25:K25">_xlfn.TEXTSPLIT(I25,",")</f>
@@ -3006,31 +2799,31 @@
     </row>
     <row r="26" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="J26" t="str" cm="1">
         <f t="array" ref="J26:K26">_xlfn.TEXTSPLIT(I26,",")</f>
@@ -3042,16 +2835,16 @@
     </row>
     <row r="27" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>8</v>
@@ -3060,13 +2853,13 @@
         <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" t="s">
         <v>7</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J27" t="str" cm="1">
         <f t="array" ref="J27:K27">_xlfn.TEXTSPLIT(I27,",")</f>
@@ -3078,16 +2871,16 @@
     </row>
     <row r="28" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>8</v>
@@ -3096,13 +2889,13 @@
         <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H28" t="s">
         <v>7</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J28" t="str" cm="1">
         <f t="array" ref="J28:K28">_xlfn.TEXTSPLIT(I28,",")</f>
@@ -3114,31 +2907,31 @@
     </row>
     <row r="29" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="J29" t="str" cm="1">
         <f t="array" ref="J29:K29">_xlfn.TEXTSPLIT(I29,",")</f>
@@ -3150,7 +2943,7 @@
     </row>
     <row r="30" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -3159,7 +2952,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>8</v>
@@ -3168,13 +2961,13 @@
         <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H30" t="s">
         <v>7</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J30" t="str" cm="1">
         <f t="array" ref="J30:K30">_xlfn.TEXTSPLIT(I30,",")</f>
@@ -3186,16 +2979,16 @@
     </row>
     <row r="31" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>8</v>
@@ -3210,7 +3003,7 @@
         <v>7</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J31" t="str" cm="1">
         <f t="array" ref="J31:K31">_xlfn.TEXTSPLIT(I31,",")</f>
@@ -3222,31 +3015,31 @@
     </row>
     <row r="32" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="J32" t="str" cm="1">
         <f t="array" ref="J32:K32">_xlfn.TEXTSPLIT(I32,",")</f>
@@ -3258,16 +3051,16 @@
     </row>
     <row r="33" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>8</v>
@@ -3276,13 +3069,13 @@
         <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H33" t="s">
         <v>7</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J33" t="str" cm="1">
         <f t="array" ref="J33:K33">_xlfn.TEXTSPLIT(I33,",")</f>
@@ -3294,7 +3087,7 @@
     </row>
     <row r="34" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -3303,7 +3096,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>12</v>
@@ -3318,7 +3111,7 @@
         <v>7</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J34" t="str" cm="1">
         <f t="array" ref="J34:K34">_xlfn.TEXTSPLIT(I34,",")</f>
@@ -3330,16 +3123,16 @@
     </row>
     <row r="35" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>8</v>
@@ -3354,7 +3147,7 @@
         <v>7</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J35" t="str" cm="1">
         <f t="array" ref="J35:K35">_xlfn.TEXTSPLIT(I35,",")</f>
@@ -3366,7 +3159,7 @@
     </row>
     <row r="36" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -3375,7 +3168,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>12</v>
@@ -3390,7 +3183,7 @@
         <v>7</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J36" t="str" cm="1">
         <f t="array" ref="J36:K36">_xlfn.TEXTSPLIT(I36,",")</f>
@@ -3402,16 +3195,16 @@
     </row>
     <row r="37" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>8</v>
@@ -3420,13 +3213,13 @@
         <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H37" t="s">
         <v>7</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J37" t="str" cm="1">
         <f t="array" ref="J37:K37">_xlfn.TEXTSPLIT(I37,",")</f>
@@ -3438,16 +3231,16 @@
     </row>
     <row r="38" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>8</v>
@@ -3456,13 +3249,13 @@
         <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H38" t="s">
         <v>7</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J38" t="str" cm="1">
         <f t="array" ref="J38:K38">_xlfn.TEXTSPLIT(I38,",")</f>
@@ -3474,16 +3267,16 @@
     </row>
     <row r="39" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>8</v>
@@ -3492,13 +3285,13 @@
         <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s">
         <v>7</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J39" t="str" cm="1">
         <f t="array" ref="J39:K39">_xlfn.TEXTSPLIT(I39,",")</f>
@@ -3510,16 +3303,16 @@
     </row>
     <row r="40" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>8</v>
@@ -3528,13 +3321,13 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H40" t="s">
         <v>7</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J40" t="str" cm="1">
         <f t="array" ref="J40:K40">_xlfn.TEXTSPLIT(I40,",")</f>
@@ -3546,16 +3339,16 @@
     </row>
     <row r="41" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>8</v>
@@ -3570,7 +3363,7 @@
         <v>7</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J41" t="str" cm="1">
         <f t="array" ref="J41:K41">_xlfn.TEXTSPLIT(I41,",")</f>
@@ -3582,16 +3375,16 @@
     </row>
     <row r="42" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
@@ -3606,7 +3399,7 @@
         <v>7</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J42" t="str" cm="1">
         <f t="array" ref="J42:K42">_xlfn.TEXTSPLIT(I42,",")</f>
@@ -3618,7 +3411,7 @@
     </row>
     <row r="43" spans="1:11" ht="69" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -3627,7 +3420,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>12</v>
@@ -3642,7 +3435,7 @@
         <v>7</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J43" t="str" cm="1">
         <f t="array" ref="J43:K43">_xlfn.TEXTSPLIT(I43,",")</f>
@@ -3654,16 +3447,16 @@
     </row>
     <row r="44" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>12</v>
@@ -3678,7 +3471,7 @@
         <v>7</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J44" t="str" cm="1">
         <f t="array" ref="J44:K44">_xlfn.TEXTSPLIT(I44,",")</f>
@@ -3690,16 +3483,16 @@
     </row>
     <row r="45" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>12</v>
@@ -3714,7 +3507,7 @@
         <v>7</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J45" t="str" cm="1">
         <f t="array" ref="J45:K45">_xlfn.TEXTSPLIT(I45,",")</f>
@@ -3726,7 +3519,7 @@
     </row>
     <row r="46" spans="1:11" ht="69" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -3735,7 +3528,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>12</v>
@@ -3750,7 +3543,7 @@
         <v>7</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J46" t="str" cm="1">
         <f t="array" ref="J46:K46">_xlfn.TEXTSPLIT(I46,",")</f>
@@ -3762,16 +3555,16 @@
     </row>
     <row r="47" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
@@ -3786,7 +3579,7 @@
         <v>7</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J47" t="str" cm="1">
         <f t="array" ref="J47:K47">_xlfn.TEXTSPLIT(I47,",")</f>
@@ -3798,16 +3591,16 @@
     </row>
     <row r="48" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>8</v>
@@ -3822,7 +3615,7 @@
         <v>7</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J48" t="str" cm="1">
         <f t="array" ref="J48:K48">_xlfn.TEXTSPLIT(I48,",")</f>
@@ -3834,16 +3627,16 @@
     </row>
     <row r="49" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>12</v>
@@ -3858,7 +3651,7 @@
         <v>7</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J49" t="str" cm="1">
         <f t="array" ref="J49:K49">_xlfn.TEXTSPLIT(I49,",")</f>
@@ -3870,7 +3663,7 @@
     </row>
     <row r="50" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -3879,7 +3672,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>12</v>
@@ -3888,13 +3681,13 @@
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H50" t="s">
         <v>7</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J50" t="str" cm="1">
         <f t="array" ref="J50:K50">_xlfn.TEXTSPLIT(I50,",")</f>
@@ -3906,16 +3699,16 @@
     </row>
     <row r="51" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>12</v>
@@ -3930,7 +3723,7 @@
         <v>7</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J51" t="str" cm="1">
         <f t="array" ref="J51:K51">_xlfn.TEXTSPLIT(I51,",")</f>
@@ -3942,16 +3735,16 @@
     </row>
     <row r="52" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>126</v>
+        <v>314</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>8</v>
@@ -3960,13 +3753,13 @@
         <v>7</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H52" t="s">
         <v>7</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J52" t="str" cm="1">
         <f t="array" ref="J52:K52">_xlfn.TEXTSPLIT(I52,",")</f>
@@ -3978,31 +3771,31 @@
     </row>
     <row r="53" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B53" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" t="s">
-        <v>34</v>
-      </c>
-      <c r="H53" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="J53" t="str" cm="1">
         <f t="array" ref="J53:K53">_xlfn.TEXTSPLIT(I53,",")</f>
@@ -4014,16 +3807,16 @@
     </row>
     <row r="54" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>142</v>
+        <v>315</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>8</v>
@@ -4038,7 +3831,7 @@
         <v>7</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J54" t="str" cm="1">
         <f t="array" ref="J54:K54">_xlfn.TEXTSPLIT(I54,",")</f>
@@ -4050,16 +3843,16 @@
     </row>
     <row r="55" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>142</v>
+        <v>315</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>8</v>
@@ -4074,7 +3867,7 @@
         <v>7</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J55" t="str" cm="1">
         <f t="array" ref="J55:K55">_xlfn.TEXTSPLIT(I55,",")</f>
@@ -4086,16 +3879,16 @@
     </row>
     <row r="56" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>8</v>
@@ -4110,7 +3903,7 @@
         <v>7</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J56" t="str" cm="1">
         <f t="array" ref="J56:K56">_xlfn.TEXTSPLIT(I56,",")</f>
@@ -4122,16 +3915,16 @@
     </row>
     <row r="57" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>150</v>
+      <c r="D57" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>8</v>
@@ -4146,7 +3939,7 @@
         <v>7</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J57" t="str" cm="1">
         <f t="array" ref="J57:K57">_xlfn.TEXTSPLIT(I57,",")</f>
@@ -4158,16 +3951,16 @@
     </row>
     <row r="58" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -4182,7 +3975,7 @@
         <v>7</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="J58" t="str" cm="1">
         <f t="array" ref="J58:K58">_xlfn.TEXTSPLIT(I58,",")</f>
@@ -4194,7 +3987,7 @@
     </row>
     <row r="59" spans="1:11" ht="70" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -4203,7 +3996,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>156</v>
+        <v>317</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>8</v>
@@ -4212,13 +4005,13 @@
         <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H59" t="s">
         <v>7</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J59" t="str" cm="1">
         <f t="array" ref="J59:K59">_xlfn.TEXTSPLIT(I59,",")</f>
@@ -4230,16 +4023,16 @@
     </row>
     <row r="60" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>8</v>
@@ -4248,13 +4041,13 @@
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H60" t="s">
         <v>7</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J60" t="str" cm="1">
         <f t="array" ref="J60:K60">_xlfn.TEXTSPLIT(I60,",")</f>
@@ -4266,16 +4059,16 @@
     </row>
     <row r="61" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>319</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>8</v>
@@ -4284,13 +4077,13 @@
         <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H61" t="s">
         <v>7</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J61" t="str" cm="1">
         <f t="array" ref="J61:K61">_xlfn.TEXTSPLIT(I61,",")</f>
@@ -4302,16 +4095,16 @@
     </row>
     <row r="62" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>165</v>
+        <v>320</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>8</v>
@@ -4320,13 +4113,13 @@
         <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H62" t="s">
         <v>7</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J62" t="str" cm="1">
         <f t="array" ref="J62:K62">_xlfn.TEXTSPLIT(I62,",")</f>
@@ -4338,16 +4131,16 @@
     </row>
     <row r="63" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>162</v>
+        <v>319</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>8</v>
@@ -4356,13 +4149,13 @@
         <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H63" t="s">
         <v>7</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="J63" t="str" cm="1">
         <f t="array" ref="J63:K63">_xlfn.TEXTSPLIT(I63,",")</f>
@@ -4374,16 +4167,16 @@
     </row>
     <row r="64" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>64</v>
+        <v>321</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>8</v>
@@ -4392,13 +4185,13 @@
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H64" t="s">
         <v>7</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J64" t="str" cm="1">
         <f t="array" ref="J64:K64">_xlfn.TEXTSPLIT(I64,",")</f>
@@ -4410,16 +4203,16 @@
     </row>
     <row r="65" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>172</v>
+        <v>322</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>8</v>
@@ -4428,13 +4221,13 @@
         <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H65" t="s">
         <v>7</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="J65" t="str" cm="1">
         <f t="array" ref="J65:K65">_xlfn.TEXTSPLIT(I65,",")</f>
@@ -4446,16 +4239,16 @@
     </row>
     <row r="66" spans="1:11" ht="69" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B66" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>176</v>
+        <v>323</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>8</v>
@@ -4464,13 +4257,13 @@
         <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H66" t="s">
         <v>7</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J66" t="str" cm="1">
         <f t="array" ref="J66:K66">_xlfn.TEXTSPLIT(I66,",")</f>
@@ -4482,16 +4275,16 @@
     </row>
     <row r="67" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>8</v>
@@ -4500,13 +4293,13 @@
         <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H67" t="s">
         <v>7</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="J67" t="str" cm="1">
         <f t="array" ref="J67:K67">_xlfn.TEXTSPLIT(I67,",")</f>
@@ -4518,16 +4311,16 @@
     </row>
     <row r="68" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>182</v>
+        <v>324</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>8</v>
@@ -4536,13 +4329,13 @@
         <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H68" t="s">
         <v>7</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="J68" t="str" cm="1">
         <f t="array" ref="J68:K68">_xlfn.TEXTSPLIT(I68,",")</f>
@@ -4554,16 +4347,16 @@
     </row>
     <row r="69" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>8</v>
@@ -4572,13 +4365,13 @@
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H69" t="s">
         <v>7</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="J69" t="str" cm="1">
         <f t="array" ref="J69:K69">_xlfn.TEXTSPLIT(I69,",")</f>
@@ -4590,16 +4383,16 @@
     </row>
     <row r="70" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>8</v>
@@ -4608,13 +4401,13 @@
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H70" t="s">
         <v>7</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J70" t="str" cm="1">
         <f t="array" ref="J70:K70">_xlfn.TEXTSPLIT(I70,",")</f>
@@ -4626,16 +4419,16 @@
     </row>
     <row r="71" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>8</v>
@@ -4644,13 +4437,13 @@
         <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H71" t="s">
         <v>7</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="J71" t="str" cm="1">
         <f t="array" ref="J71:K71">_xlfn.TEXTSPLIT(I71,",")</f>
@@ -4662,16 +4455,16 @@
     </row>
     <row r="72" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>8</v>
@@ -4680,13 +4473,13 @@
         <v>7</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H72" t="s">
         <v>7</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="J72" t="str" cm="1">
         <f t="array" ref="J72:K72">_xlfn.TEXTSPLIT(I72,",")</f>
@@ -4698,16 +4491,16 @@
     </row>
     <row r="73" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>12</v>
@@ -4722,7 +4515,7 @@
         <v>7</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="J73" t="str" cm="1">
         <f t="array" ref="J73:K73">_xlfn.TEXTSPLIT(I73,",")</f>
@@ -4734,16 +4527,16 @@
     </row>
     <row r="74" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>8</v>
@@ -4758,7 +4551,7 @@
         <v>7</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="J74" t="str" cm="1">
         <f t="array" ref="J74:K74">_xlfn.TEXTSPLIT(I74,",")</f>
@@ -4770,16 +4563,16 @@
     </row>
     <row r="75" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>8</v>
@@ -4794,7 +4587,7 @@
         <v>7</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="J75" t="str" cm="1">
         <f t="array" ref="J75:K75">_xlfn.TEXTSPLIT(I75,",")</f>
@@ -4806,16 +4599,16 @@
     </row>
     <row r="76" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B76" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>206</v>
+        <v>325</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>8</v>
@@ -4830,7 +4623,7 @@
         <v>7</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="J76" t="str" cm="1">
         <f t="array" ref="J76:K76">_xlfn.TEXTSPLIT(I76,",")</f>
@@ -4842,16 +4635,16 @@
     </row>
     <row r="77" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>12</v>
@@ -4866,7 +4659,7 @@
         <v>7</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="J77" t="str" cm="1">
         <f t="array" ref="J77:K77">_xlfn.TEXTSPLIT(I77,",")</f>
@@ -4878,16 +4671,16 @@
     </row>
     <row r="78" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>12</v>
@@ -4902,7 +4695,7 @@
         <v>7</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="J78" t="str" cm="1">
         <f t="array" ref="J78:K78">_xlfn.TEXTSPLIT(I78,",")</f>
@@ -4914,16 +4707,16 @@
     </row>
     <row r="79" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>216</v>
+        <v>326</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>12</v>
@@ -4932,13 +4725,13 @@
         <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H79" t="s">
         <v>7</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="J79" t="str" cm="1">
         <f t="array" ref="J79:K79">_xlfn.TEXTSPLIT(I79,",")</f>
@@ -4950,16 +4743,16 @@
     </row>
     <row r="80" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>216</v>
+        <v>326</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>12</v>
@@ -4968,13 +4761,13 @@
         <v>7</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H80" t="s">
         <v>7</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="J80" t="str" cm="1">
         <f t="array" ref="J80:K80">_xlfn.TEXTSPLIT(I80,",")</f>
@@ -4984,18 +4777,18 @@
         <v xml:space="preserve"> 10.202701861793145</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>216</v>
+        <v>326</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>12</v>
@@ -5004,13 +4797,13 @@
         <v>7</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H81" t="s">
         <v>7</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="J81" t="str" cm="1">
         <f t="array" ref="J81:K81">_xlfn.TEXTSPLIT(I81,",")</f>
@@ -5022,16 +4815,16 @@
     </row>
     <row r="82" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>12</v>
@@ -5046,7 +4839,7 @@
         <v>7</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="J82" t="str" cm="1">
         <f t="array" ref="J82:K82">_xlfn.TEXTSPLIT(I82,",")</f>
@@ -5058,16 +4851,16 @@
     </row>
     <row r="83" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B83" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>8</v>
@@ -5082,7 +4875,7 @@
         <v>7</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="J83" t="str" cm="1">
         <f t="array" ref="J83:K83">_xlfn.TEXTSPLIT(I83,",")</f>
@@ -5094,16 +4887,16 @@
     </row>
     <row r="84" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B84" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>8</v>
@@ -5118,7 +4911,7 @@
         <v>7</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="J84" t="str" cm="1">
         <f t="array" ref="J84:K84">_xlfn.TEXTSPLIT(I84,",")</f>
@@ -5130,16 +4923,16 @@
     </row>
     <row r="85" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B85" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>8</v>
@@ -5154,7 +4947,7 @@
         <v>7</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="J85" t="str" cm="1">
         <f t="array" ref="J85:K85">_xlfn.TEXTSPLIT(I85,",")</f>
@@ -5166,16 +4959,16 @@
     </row>
     <row r="86" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B86" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>8</v>
@@ -5184,13 +4977,13 @@
         <v>7</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H86" t="s">
         <v>7</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="J86" t="str" cm="1">
         <f t="array" ref="J86:K86">_xlfn.TEXTSPLIT(I86,",")</f>
@@ -5202,16 +4995,16 @@
     </row>
     <row r="87" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>12</v>
@@ -5226,7 +5019,7 @@
         <v>7</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="J87" t="str" cm="1">
         <f t="array" ref="J87:K87">_xlfn.TEXTSPLIT(I87,",")</f>
@@ -5238,16 +5031,16 @@
     </row>
     <row r="88" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B88" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>8</v>
@@ -5256,13 +5049,13 @@
         <v>7</v>
       </c>
       <c r="G88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H88" t="s">
         <v>7</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="J88" t="str" cm="1">
         <f t="array" ref="J88:K88">_xlfn.TEXTSPLIT(I88,",")</f>
@@ -5272,18 +5065,18 @@
         <v xml:space="preserve"> 10.205978608612977</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B89" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>8</v>
@@ -5298,7 +5091,7 @@
         <v>7</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="J89" t="str" cm="1">
         <f t="array" ref="J89:K89">_xlfn.TEXTSPLIT(I89,",")</f>
@@ -5310,16 +5103,16 @@
     </row>
     <row r="90" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>8</v>
@@ -5328,13 +5121,13 @@
         <v>7</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H90" t="s">
         <v>7</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="J90" t="str" cm="1">
         <f t="array" ref="J90:K90">_xlfn.TEXTSPLIT(I90,",")</f>
@@ -5344,18 +5137,18 @@
         <v xml:space="preserve"> 10.131959264136771</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
@@ -5364,13 +5157,13 @@
         <v>7</v>
       </c>
       <c r="G91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H91" t="s">
         <v>7</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="J91" t="str" cm="1">
         <f t="array" ref="J91:K91">_xlfn.TEXTSPLIT(I91,",")</f>
@@ -5382,16 +5175,16 @@
     </row>
     <row r="92" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>8</v>
@@ -5400,13 +5193,13 @@
         <v>7</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H92" t="s">
         <v>7</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="J92" t="str" cm="1">
         <f t="array" ref="J92:K92">_xlfn.TEXTSPLIT(I92,",")</f>
@@ -5418,16 +5211,16 @@
     </row>
     <row r="93" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B93" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>8</v>
@@ -5436,13 +5229,13 @@
         <v>7</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H93" t="s">
         <v>7</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="J93" t="str" cm="1">
         <f t="array" ref="J93:K93">_xlfn.TEXTSPLIT(I93,",")</f>
@@ -5454,16 +5247,16 @@
     </row>
     <row r="94" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>8</v>
@@ -5472,13 +5265,13 @@
         <v>7</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H94" t="s">
         <v>7</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="J94" t="str" cm="1">
         <f t="array" ref="J94:K94">_xlfn.TEXTSPLIT(I94,",")</f>
@@ -5490,16 +5283,16 @@
     </row>
     <row r="95" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>8</v>
@@ -5508,13 +5301,13 @@
         <v>7</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H95" t="s">
         <v>7</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="J95" t="str" cm="1">
         <f t="array" ref="J95:K95">_xlfn.TEXTSPLIT(I95,",")</f>
@@ -5524,18 +5317,18 @@
         <v xml:space="preserve"> 10.201198332853597</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B96" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>12</v>
@@ -5550,7 +5343,7 @@
         <v>7</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="J96" t="str" cm="1">
         <f t="array" ref="J96:K96">_xlfn.TEXTSPLIT(I96,",")</f>
@@ -5562,16 +5355,16 @@
     </row>
     <row r="97" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B97" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>8</v>
@@ -5586,7 +5379,7 @@
         <v>7</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="J97" t="str" cm="1">
         <f t="array" ref="J97:K97">_xlfn.TEXTSPLIT(I97,",")</f>
@@ -5598,7 +5391,7 @@
     </row>
     <row r="98" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -5607,7 +5400,7 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>8</v>
@@ -5622,7 +5415,7 @@
         <v>7</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="J98" t="str" cm="1">
         <f t="array" ref="J98:K98">_xlfn.TEXTSPLIT(I98,",")</f>
@@ -5634,7 +5427,7 @@
     </row>
     <row r="99" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -5643,7 +5436,7 @@
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>8</v>
@@ -5658,7 +5451,7 @@
         <v>7</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="J99" t="str" cm="1">
         <f t="array" ref="J99:K99">_xlfn.TEXTSPLIT(I99,",")</f>
@@ -5670,16 +5463,16 @@
     </row>
     <row r="100" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>8</v>
@@ -5688,13 +5481,13 @@
         <v>7</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H100" t="s">
         <v>7</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="J100" t="str" cm="1">
         <f t="array" ref="J100:K100">_xlfn.TEXTSPLIT(I100,",")</f>
@@ -5706,16 +5499,16 @@
     </row>
     <row r="101" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B101" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>8</v>
@@ -5730,7 +5523,7 @@
         <v>7</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="J101" t="str" cm="1">
         <f t="array" ref="J101:K101">_xlfn.TEXTSPLIT(I101,",")</f>
@@ -5740,18 +5533,18 @@
         <v xml:space="preserve"> 10.184617300167886</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="B102" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>8</v>
@@ -5766,7 +5559,7 @@
         <v>7</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="J102" t="str" cm="1">
         <f t="array" ref="J102:K102">_xlfn.TEXTSPLIT(I102,",")</f>

--- a/data/DiscoverAarhus.xlsx
+++ b/data/DiscoverAarhus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rikkeuldbaek/Library/Mobile Documents/com~apple~CloudDocs/Cognitive Science/6th_semester/spatial_analytics/DiscoverAarhus/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1C50E4-7A27-2740-92A0-B7DB198BC34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33289E05-3780-3546-9506-EA1BD431B3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="500" windowWidth="28580" windowHeight="15440" xr2:uid="{5C004500-1A4C-4740-8589-9D39A3377470}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="327">
   <si>
     <t>name</t>
   </si>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>Badeanstalten Spanien</t>
-  </si>
-  <si>
-    <t>Wellness</t>
   </si>
   <si>
     <t>56.15177488532618, 10.21140805184869</t>
@@ -1888,8 +1885,8 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1909,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1918,22 +1915,22 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>129</v>
-      </c>
-      <c r="K1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1947,7 +1944,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
@@ -1983,7 +1980,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>12</v>
@@ -2013,13 +2010,13 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -2055,7 +2052,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -2091,7 +2088,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>8</v>
@@ -2121,13 +2118,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
@@ -2163,7 +2160,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
@@ -2199,7 +2196,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
@@ -2235,7 +2232,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>12</v>
@@ -2271,7 +2268,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>12</v>
@@ -2307,7 +2304,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -2343,7 +2340,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>8</v>
@@ -2373,13 +2370,13 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -2406,16 +2403,16 @@
     </row>
     <row r="15" spans="1:11" ht="105" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -2448,7 +2445,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>8</v>
@@ -2478,13 +2475,13 @@
         <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>8</v>
@@ -2514,13 +2511,13 @@
         <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>8</v>
@@ -2550,13 +2547,13 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>8</v>
@@ -2592,7 +2589,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>8</v>
@@ -2622,13 +2619,13 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -2643,7 +2640,7 @@
         <v>7</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J21" t="str" cm="1">
         <f t="array" ref="J21:K21">_xlfn.TEXTSPLIT(I21,",")</f>
@@ -2655,16 +2652,16 @@
     </row>
     <row r="22" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
@@ -2679,7 +2676,7 @@
         <v>7</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J22" t="str" cm="1">
         <f t="array" ref="J22:K22">_xlfn.TEXTSPLIT(I22,",")</f>
@@ -2691,16 +2688,16 @@
     </row>
     <row r="23" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>8</v>
@@ -2715,7 +2712,7 @@
         <v>7</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J23" t="str" cm="1">
         <f t="array" ref="J23:K23">_xlfn.TEXTSPLIT(I23,",")</f>
@@ -2727,16 +2724,16 @@
     </row>
     <row r="24" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>8</v>
@@ -2751,7 +2748,7 @@
         <v>7</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J24" t="str" cm="1">
         <f t="array" ref="J24:K24">_xlfn.TEXTSPLIT(I24,",")</f>
@@ -2763,16 +2760,16 @@
     </row>
     <row r="25" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>8</v>
@@ -2787,7 +2784,7 @@
         <v>7</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J25" t="str" cm="1">
         <f t="array" ref="J25:K25">_xlfn.TEXTSPLIT(I25,",")</f>
@@ -2799,16 +2796,16 @@
     </row>
     <row r="26" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
         <v>66</v>
       </c>
-      <c r="B26" t="s">
-        <v>67</v>
-      </c>
       <c r="C26" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>8</v>
@@ -2823,7 +2820,7 @@
         <v>7</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J26" t="str" cm="1">
         <f t="array" ref="J26:K26">_xlfn.TEXTSPLIT(I26,",")</f>
@@ -2835,16 +2832,16 @@
     </row>
     <row r="27" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>8</v>
@@ -2859,7 +2856,7 @@
         <v>7</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J27" t="str" cm="1">
         <f t="array" ref="J27:K27">_xlfn.TEXTSPLIT(I27,",")</f>
@@ -2871,16 +2868,16 @@
     </row>
     <row r="28" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>8</v>
@@ -2895,7 +2892,7 @@
         <v>7</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J28" t="str" cm="1">
         <f t="array" ref="J28:K28">_xlfn.TEXTSPLIT(I28,",")</f>
@@ -2907,16 +2904,16 @@
     </row>
     <row r="29" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
         <v>73</v>
       </c>
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -2931,7 +2928,7 @@
         <v>7</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J29" t="str" cm="1">
         <f t="array" ref="J29:K29">_xlfn.TEXTSPLIT(I29,",")</f>
@@ -2943,7 +2940,7 @@
     </row>
     <row r="30" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -2952,7 +2949,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>8</v>
@@ -2967,7 +2964,7 @@
         <v>7</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J30" t="str" cm="1">
         <f t="array" ref="J30:K30">_xlfn.TEXTSPLIT(I30,",")</f>
@@ -2979,7 +2976,7 @@
     </row>
     <row r="31" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
         <v>51</v>
@@ -2988,7 +2985,7 @@
         <v>7</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>8</v>
@@ -3003,7 +3000,7 @@
         <v>7</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J31" t="str" cm="1">
         <f t="array" ref="J31:K31">_xlfn.TEXTSPLIT(I31,",")</f>
@@ -3015,7 +3012,7 @@
     </row>
     <row r="32" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
         <v>51</v>
@@ -3024,7 +3021,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>8</v>
@@ -3039,7 +3036,7 @@
         <v>7</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J32" t="str" cm="1">
         <f t="array" ref="J32:K32">_xlfn.TEXTSPLIT(I32,",")</f>
@@ -3051,7 +3048,7 @@
     </row>
     <row r="33" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
         <v>51</v>
@@ -3060,7 +3057,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>8</v>
@@ -3075,7 +3072,7 @@
         <v>7</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J33" t="str" cm="1">
         <f t="array" ref="J33:K33">_xlfn.TEXTSPLIT(I33,",")</f>
@@ -3087,7 +3084,7 @@
     </row>
     <row r="34" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -3096,7 +3093,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>12</v>
@@ -3111,7 +3108,7 @@
         <v>7</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J34" t="str" cm="1">
         <f t="array" ref="J34:K34">_xlfn.TEXTSPLIT(I34,",")</f>
@@ -3123,7 +3120,7 @@
     </row>
     <row r="35" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
         <v>51</v>
@@ -3132,7 +3129,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>8</v>
@@ -3147,7 +3144,7 @@
         <v>7</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J35" t="str" cm="1">
         <f t="array" ref="J35:K35">_xlfn.TEXTSPLIT(I35,",")</f>
@@ -3159,7 +3156,7 @@
     </row>
     <row r="36" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -3168,7 +3165,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>12</v>
@@ -3183,7 +3180,7 @@
         <v>7</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J36" t="str" cm="1">
         <f t="array" ref="J36:K36">_xlfn.TEXTSPLIT(I36,",")</f>
@@ -3195,16 +3192,16 @@
     </row>
     <row r="37" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>8</v>
@@ -3219,7 +3216,7 @@
         <v>7</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J37" t="str" cm="1">
         <f t="array" ref="J37:K37">_xlfn.TEXTSPLIT(I37,",")</f>
@@ -3231,16 +3228,16 @@
     </row>
     <row r="38" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>8</v>
@@ -3255,7 +3252,7 @@
         <v>7</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J38" t="str" cm="1">
         <f t="array" ref="J38:K38">_xlfn.TEXTSPLIT(I38,",")</f>
@@ -3267,7 +3264,7 @@
     </row>
     <row r="39" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
         <v>51</v>
@@ -3276,7 +3273,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>8</v>
@@ -3291,7 +3288,7 @@
         <v>7</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J39" t="str" cm="1">
         <f t="array" ref="J39:K39">_xlfn.TEXTSPLIT(I39,",")</f>
@@ -3303,7 +3300,7 @@
     </row>
     <row r="40" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
         <v>51</v>
@@ -3312,7 +3309,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>8</v>
@@ -3327,7 +3324,7 @@
         <v>7</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J40" t="str" cm="1">
         <f t="array" ref="J40:K40">_xlfn.TEXTSPLIT(I40,",")</f>
@@ -3339,7 +3336,7 @@
     </row>
     <row r="41" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
@@ -3348,7 +3345,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>8</v>
@@ -3363,7 +3360,7 @@
         <v>7</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J41" t="str" cm="1">
         <f t="array" ref="J41:K41">_xlfn.TEXTSPLIT(I41,",")</f>
@@ -3375,7 +3372,7 @@
     </row>
     <row r="42" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
         <v>28</v>
@@ -3384,7 +3381,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
@@ -3399,7 +3396,7 @@
         <v>7</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J42" t="str" cm="1">
         <f t="array" ref="J42:K42">_xlfn.TEXTSPLIT(I42,",")</f>
@@ -3411,7 +3408,7 @@
     </row>
     <row r="43" spans="1:11" ht="69" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -3420,7 +3417,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>12</v>
@@ -3435,7 +3432,7 @@
         <v>7</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J43" t="str" cm="1">
         <f t="array" ref="J43:K43">_xlfn.TEXTSPLIT(I43,",")</f>
@@ -3447,16 +3444,16 @@
     </row>
     <row r="44" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>12</v>
@@ -3471,7 +3468,7 @@
         <v>7</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J44" t="str" cm="1">
         <f t="array" ref="J44:K44">_xlfn.TEXTSPLIT(I44,",")</f>
@@ -3483,16 +3480,16 @@
     </row>
     <row r="45" spans="1:11" ht="71" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>12</v>
@@ -3507,7 +3504,7 @@
         <v>7</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J45" t="str" cm="1">
         <f t="array" ref="J45:K45">_xlfn.TEXTSPLIT(I45,",")</f>
@@ -3519,7 +3516,7 @@
     </row>
     <row r="46" spans="1:11" ht="69" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -3528,7 +3525,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>12</v>
@@ -3543,7 +3540,7 @@
         <v>7</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J46" t="str" cm="1">
         <f t="array" ref="J46:K46">_xlfn.TEXTSPLIT(I46,",")</f>
@@ -3555,16 +3552,16 @@
     </row>
     <row r="47" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
@@ -3579,7 +3576,7 @@
         <v>7</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J47" t="str" cm="1">
         <f t="array" ref="J47:K47">_xlfn.TEXTSPLIT(I47,",")</f>
@@ -3591,7 +3588,7 @@
     </row>
     <row r="48" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B48" t="s">
         <v>51</v>
@@ -3600,7 +3597,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>8</v>
@@ -3615,7 +3612,7 @@
         <v>7</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J48" t="str" cm="1">
         <f t="array" ref="J48:K48">_xlfn.TEXTSPLIT(I48,",")</f>
@@ -3627,16 +3624,16 @@
     </row>
     <row r="49" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>12</v>
@@ -3651,7 +3648,7 @@
         <v>7</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J49" t="str" cm="1">
         <f t="array" ref="J49:K49">_xlfn.TEXTSPLIT(I49,",")</f>
@@ -3663,7 +3660,7 @@
     </row>
     <row r="50" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -3672,7 +3669,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>12</v>
@@ -3687,7 +3684,7 @@
         <v>7</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J50" t="str" cm="1">
         <f t="array" ref="J50:K50">_xlfn.TEXTSPLIT(I50,",")</f>
@@ -3699,16 +3696,16 @@
     </row>
     <row r="51" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="B51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>12</v>
@@ -3723,7 +3720,7 @@
         <v>7</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J51" t="str" cm="1">
         <f t="array" ref="J51:K51">_xlfn.TEXTSPLIT(I51,",")</f>
@@ -3735,16 +3732,16 @@
     </row>
     <row r="52" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B52" t="s">
+        <v>312</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>314</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>8</v>
@@ -3759,7 +3756,7 @@
         <v>7</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J52" t="str" cm="1">
         <f t="array" ref="J52:K52">_xlfn.TEXTSPLIT(I52,",")</f>
@@ -3771,16 +3768,16 @@
     </row>
     <row r="53" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" t="s">
         <v>133</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>8</v>
@@ -3795,7 +3792,7 @@
         <v>7</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J53" t="str" cm="1">
         <f t="array" ref="J53:K53">_xlfn.TEXTSPLIT(I53,",")</f>
@@ -3807,16 +3804,16 @@
     </row>
     <row r="54" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>8</v>
@@ -3831,7 +3828,7 @@
         <v>7</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J54" t="str" cm="1">
         <f t="array" ref="J54:K54">_xlfn.TEXTSPLIT(I54,",")</f>
@@ -3843,16 +3840,16 @@
     </row>
     <row r="55" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>8</v>
@@ -3867,7 +3864,7 @@
         <v>7</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J55" t="str" cm="1">
         <f t="array" ref="J55:K55">_xlfn.TEXTSPLIT(I55,",")</f>
@@ -3879,7 +3876,7 @@
     </row>
     <row r="56" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -3888,7 +3885,7 @@
         <v>7</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>8</v>
@@ -3903,7 +3900,7 @@
         <v>7</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J56" t="str" cm="1">
         <f t="array" ref="J56:K56">_xlfn.TEXTSPLIT(I56,",")</f>
@@ -3915,7 +3912,7 @@
     </row>
     <row r="57" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
@@ -3924,7 +3921,7 @@
         <v>7</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>8</v>
@@ -3939,7 +3936,7 @@
         <v>7</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J57" t="str" cm="1">
         <f t="array" ref="J57:K57">_xlfn.TEXTSPLIT(I57,",")</f>
@@ -3951,7 +3948,7 @@
     </row>
     <row r="58" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -3960,7 +3957,7 @@
         <v>7</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -3975,7 +3972,7 @@
         <v>7</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J58" t="str" cm="1">
         <f t="array" ref="J58:K58">_xlfn.TEXTSPLIT(I58,",")</f>
@@ -3987,7 +3984,7 @@
     </row>
     <row r="59" spans="1:11" ht="70" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -3996,7 +3993,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>8</v>
@@ -4011,7 +4008,7 @@
         <v>7</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J59" t="str" cm="1">
         <f t="array" ref="J59:K59">_xlfn.TEXTSPLIT(I59,",")</f>
@@ -4023,16 +4020,16 @@
     </row>
     <row r="60" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>8</v>
@@ -4047,7 +4044,7 @@
         <v>7</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J60" t="str" cm="1">
         <f t="array" ref="J60:K60">_xlfn.TEXTSPLIT(I60,",")</f>
@@ -4059,16 +4056,16 @@
     </row>
     <row r="61" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>8</v>
@@ -4083,7 +4080,7 @@
         <v>7</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J61" t="str" cm="1">
         <f t="array" ref="J61:K61">_xlfn.TEXTSPLIT(I61,",")</f>
@@ -4095,16 +4092,16 @@
     </row>
     <row r="62" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>8</v>
@@ -4119,7 +4116,7 @@
         <v>7</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J62" t="str" cm="1">
         <f t="array" ref="J62:K62">_xlfn.TEXTSPLIT(I62,",")</f>
@@ -4131,16 +4128,16 @@
     </row>
     <row r="63" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>8</v>
@@ -4155,7 +4152,7 @@
         <v>7</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J63" t="str" cm="1">
         <f t="array" ref="J63:K63">_xlfn.TEXTSPLIT(I63,",")</f>
@@ -4167,16 +4164,16 @@
     </row>
     <row r="64" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>8</v>
@@ -4191,7 +4188,7 @@
         <v>7</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J64" t="str" cm="1">
         <f t="array" ref="J64:K64">_xlfn.TEXTSPLIT(I64,",")</f>
@@ -4203,16 +4200,16 @@
     </row>
     <row r="65" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>8</v>
@@ -4227,7 +4224,7 @@
         <v>7</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J65" t="str" cm="1">
         <f t="array" ref="J65:K65">_xlfn.TEXTSPLIT(I65,",")</f>
@@ -4239,16 +4236,16 @@
     </row>
     <row r="66" spans="1:11" ht="69" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" t="s">
         <v>164</v>
       </c>
-      <c r="B66" t="s">
-        <v>165</v>
-      </c>
       <c r="C66" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>8</v>
@@ -4263,7 +4260,7 @@
         <v>7</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J66" t="str" cm="1">
         <f t="array" ref="J66:K66">_xlfn.TEXTSPLIT(I66,",")</f>
@@ -4275,16 +4272,16 @@
     </row>
     <row r="67" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="B67" t="s">
-        <v>74</v>
-      </c>
-      <c r="C67" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>8</v>
@@ -4299,7 +4296,7 @@
         <v>7</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J67" t="str" cm="1">
         <f t="array" ref="J67:K67">_xlfn.TEXTSPLIT(I67,",")</f>
@@ -4311,16 +4308,16 @@
     </row>
     <row r="68" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>8</v>
@@ -4335,7 +4332,7 @@
         <v>7</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J68" t="str" cm="1">
         <f t="array" ref="J68:K68">_xlfn.TEXTSPLIT(I68,",")</f>
@@ -4347,16 +4344,16 @@
     </row>
     <row r="69" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>8</v>
@@ -4371,7 +4368,7 @@
         <v>7</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J69" t="str" cm="1">
         <f t="array" ref="J69:K69">_xlfn.TEXTSPLIT(I69,",")</f>
@@ -4383,7 +4380,7 @@
     </row>
     <row r="70" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B70" t="s">
         <v>51</v>
@@ -4392,7 +4389,7 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>8</v>
@@ -4407,7 +4404,7 @@
         <v>7</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J70" t="str" cm="1">
         <f t="array" ref="J70:K70">_xlfn.TEXTSPLIT(I70,",")</f>
@@ -4419,16 +4416,16 @@
     </row>
     <row r="71" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" t="s">
         <v>178</v>
-      </c>
-      <c r="B71" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" t="s">
-        <v>179</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>8</v>
@@ -4443,7 +4440,7 @@
         <v>7</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J71" t="str" cm="1">
         <f t="array" ref="J71:K71">_xlfn.TEXTSPLIT(I71,",")</f>
@@ -4455,7 +4452,7 @@
     </row>
     <row r="72" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B72" t="s">
         <v>51</v>
@@ -4464,7 +4461,7 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>8</v>
@@ -4479,7 +4476,7 @@
         <v>7</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J72" t="str" cm="1">
         <f t="array" ref="J72:K72">_xlfn.TEXTSPLIT(I72,",")</f>
@@ -4491,7 +4488,7 @@
     </row>
     <row r="73" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B73" t="s">
         <v>28</v>
@@ -4500,7 +4497,7 @@
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>12</v>
@@ -4515,7 +4512,7 @@
         <v>7</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J73" t="str" cm="1">
         <f t="array" ref="J73:K73">_xlfn.TEXTSPLIT(I73,",")</f>
@@ -4527,7 +4524,7 @@
     </row>
     <row r="74" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B74" t="s">
         <v>28</v>
@@ -4536,7 +4533,7 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>8</v>
@@ -4551,7 +4548,7 @@
         <v>7</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J74" t="str" cm="1">
         <f t="array" ref="J74:K74">_xlfn.TEXTSPLIT(I74,",")</f>
@@ -4563,7 +4560,7 @@
     </row>
     <row r="75" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B75" t="s">
         <v>28</v>
@@ -4572,7 +4569,7 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>8</v>
@@ -4587,7 +4584,7 @@
         <v>7</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J75" t="str" cm="1">
         <f t="array" ref="J75:K75">_xlfn.TEXTSPLIT(I75,",")</f>
@@ -4599,16 +4596,16 @@
     </row>
     <row r="76" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>8</v>
@@ -4623,7 +4620,7 @@
         <v>7</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J76" t="str" cm="1">
         <f t="array" ref="J76:K76">_xlfn.TEXTSPLIT(I76,",")</f>
@@ -4635,16 +4632,16 @@
     </row>
     <row r="77" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>12</v>
@@ -4659,7 +4656,7 @@
         <v>7</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J77" t="str" cm="1">
         <f t="array" ref="J77:K77">_xlfn.TEXTSPLIT(I77,",")</f>
@@ -4671,16 +4668,16 @@
     </row>
     <row r="78" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>12</v>
@@ -4695,7 +4692,7 @@
         <v>7</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J78" t="str" cm="1">
         <f t="array" ref="J78:K78">_xlfn.TEXTSPLIT(I78,",")</f>
@@ -4707,16 +4704,16 @@
     </row>
     <row r="79" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>12</v>
@@ -4731,7 +4728,7 @@
         <v>7</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J79" t="str" cm="1">
         <f t="array" ref="J79:K79">_xlfn.TEXTSPLIT(I79,",")</f>
@@ -4743,16 +4740,16 @@
     </row>
     <row r="80" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B80" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>12</v>
@@ -4767,7 +4764,7 @@
         <v>7</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J80" t="str" cm="1">
         <f t="array" ref="J80:K80">_xlfn.TEXTSPLIT(I80,",")</f>
@@ -4779,16 +4776,16 @@
     </row>
     <row r="81" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>12</v>
@@ -4803,7 +4800,7 @@
         <v>7</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J81" t="str" cm="1">
         <f t="array" ref="J81:K81">_xlfn.TEXTSPLIT(I81,",")</f>
@@ -4815,16 +4812,16 @@
     </row>
     <row r="82" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>12</v>
@@ -4839,7 +4836,7 @@
         <v>7</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J82" t="str" cm="1">
         <f t="array" ref="J82:K82">_xlfn.TEXTSPLIT(I82,",")</f>
@@ -4851,16 +4848,16 @@
     </row>
     <row r="83" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B83" t="s">
+        <v>207</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
         <v>208</v>
-      </c>
-      <c r="C83" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" t="s">
-        <v>209</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>8</v>
@@ -4875,7 +4872,7 @@
         <v>7</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J83" t="str" cm="1">
         <f t="array" ref="J83:K83">_xlfn.TEXTSPLIT(I83,",")</f>
@@ -4887,16 +4884,16 @@
     </row>
     <row r="84" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>8</v>
@@ -4911,7 +4908,7 @@
         <v>7</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J84" t="str" cm="1">
         <f t="array" ref="J84:K84">_xlfn.TEXTSPLIT(I84,",")</f>
@@ -4923,16 +4920,16 @@
     </row>
     <row r="85" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>8</v>
@@ -4947,7 +4944,7 @@
         <v>7</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J85" t="str" cm="1">
         <f t="array" ref="J85:K85">_xlfn.TEXTSPLIT(I85,",")</f>
@@ -4959,16 +4956,16 @@
     </row>
     <row r="86" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B86" t="s">
+        <v>73</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" t="s">
         <v>217</v>
-      </c>
-      <c r="B86" t="s">
-        <v>74</v>
-      </c>
-      <c r="C86" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" t="s">
-        <v>218</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>8</v>
@@ -4983,7 +4980,7 @@
         <v>7</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J86" t="str" cm="1">
         <f t="array" ref="J86:K86">_xlfn.TEXTSPLIT(I86,",")</f>
@@ -4995,16 +4992,16 @@
     </row>
     <row r="87" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>12</v>
@@ -5019,7 +5016,7 @@
         <v>7</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J87" t="str" cm="1">
         <f t="array" ref="J87:K87">_xlfn.TEXTSPLIT(I87,",")</f>
@@ -5031,16 +5028,16 @@
     </row>
     <row r="88" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B88" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>8</v>
@@ -5055,7 +5052,7 @@
         <v>7</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J88" t="str" cm="1">
         <f t="array" ref="J88:K88">_xlfn.TEXTSPLIT(I88,",")</f>
@@ -5067,16 +5064,16 @@
     </row>
     <row r="89" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>8</v>
@@ -5091,7 +5088,7 @@
         <v>7</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J89" t="str" cm="1">
         <f t="array" ref="J89:K89">_xlfn.TEXTSPLIT(I89,",")</f>
@@ -5103,7 +5100,7 @@
     </row>
     <row r="90" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B90" t="s">
         <v>51</v>
@@ -5112,7 +5109,7 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>8</v>
@@ -5127,7 +5124,7 @@
         <v>7</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J90" t="str" cm="1">
         <f t="array" ref="J90:K90">_xlfn.TEXTSPLIT(I90,",")</f>
@@ -5139,7 +5136,7 @@
     </row>
     <row r="91" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B91" t="s">
         <v>51</v>
@@ -5148,7 +5145,7 @@
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
@@ -5163,7 +5160,7 @@
         <v>7</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J91" t="str" cm="1">
         <f t="array" ref="J91:K91">_xlfn.TEXTSPLIT(I91,",")</f>
@@ -5175,7 +5172,7 @@
     </row>
     <row r="92" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B92" t="s">
         <v>51</v>
@@ -5184,7 +5181,7 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>8</v>
@@ -5199,7 +5196,7 @@
         <v>7</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J92" t="str" cm="1">
         <f t="array" ref="J92:K92">_xlfn.TEXTSPLIT(I92,",")</f>
@@ -5211,16 +5208,16 @@
     </row>
     <row r="93" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" t="s">
         <v>236</v>
-      </c>
-      <c r="B93" t="s">
-        <v>132</v>
-      </c>
-      <c r="C93" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" t="s">
-        <v>237</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>8</v>
@@ -5235,7 +5232,7 @@
         <v>7</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J93" t="str" cm="1">
         <f t="array" ref="J93:K93">_xlfn.TEXTSPLIT(I93,",")</f>
@@ -5247,16 +5244,16 @@
     </row>
     <row r="94" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B94" t="s">
+        <v>312</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" t="s">
         <v>239</v>
-      </c>
-      <c r="B94" t="s">
-        <v>313</v>
-      </c>
-      <c r="C94" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" t="s">
-        <v>240</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>8</v>
@@ -5271,7 +5268,7 @@
         <v>7</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J94" t="str" cm="1">
         <f t="array" ref="J94:K94">_xlfn.TEXTSPLIT(I94,",")</f>
@@ -5283,16 +5280,16 @@
     </row>
     <row r="95" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B95" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>8</v>
@@ -5307,7 +5304,7 @@
         <v>7</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J95" t="str" cm="1">
         <f t="array" ref="J95:K95">_xlfn.TEXTSPLIT(I95,",")</f>
@@ -5319,16 +5316,16 @@
     </row>
     <row r="96" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B96" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>12</v>
@@ -5343,7 +5340,7 @@
         <v>7</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J96" t="str" cm="1">
         <f t="array" ref="J96:K96">_xlfn.TEXTSPLIT(I96,",")</f>
@@ -5355,16 +5352,16 @@
     </row>
     <row r="97" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B97" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>8</v>
@@ -5379,7 +5376,7 @@
         <v>7</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J97" t="str" cm="1">
         <f t="array" ref="J97:K97">_xlfn.TEXTSPLIT(I97,",")</f>
@@ -5391,7 +5388,7 @@
     </row>
     <row r="98" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -5400,7 +5397,7 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>8</v>
@@ -5415,7 +5412,7 @@
         <v>7</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J98" t="str" cm="1">
         <f t="array" ref="J98:K98">_xlfn.TEXTSPLIT(I98,",")</f>
@@ -5427,7 +5424,7 @@
     </row>
     <row r="99" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -5436,7 +5433,7 @@
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>8</v>
@@ -5451,7 +5448,7 @@
         <v>7</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J99" t="str" cm="1">
         <f t="array" ref="J99:K99">_xlfn.TEXTSPLIT(I99,",")</f>
@@ -5463,16 +5460,16 @@
     </row>
     <row r="100" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B100" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>8</v>
@@ -5487,7 +5484,7 @@
         <v>7</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J100" t="str" cm="1">
         <f t="array" ref="J100:K100">_xlfn.TEXTSPLIT(I100,",")</f>
@@ -5499,16 +5496,16 @@
     </row>
     <row r="101" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B101" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>8</v>
@@ -5523,7 +5520,7 @@
         <v>7</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J101" t="str" cm="1">
         <f t="array" ref="J101:K101">_xlfn.TEXTSPLIT(I101,",")</f>
@@ -5535,16 +5532,16 @@
     </row>
     <row r="102" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B102" t="s">
+        <v>73</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" t="s">
         <v>263</v>
-      </c>
-      <c r="B102" t="s">
-        <v>74</v>
-      </c>
-      <c r="C102" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" t="s">
-        <v>264</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>8</v>
@@ -5559,7 +5556,7 @@
         <v>7</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J102" t="str" cm="1">
         <f t="array" ref="J102:K102">_xlfn.TEXTSPLIT(I102,",")</f>
